--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -41,10 +41,10 @@
     <t>app_ps2.o</t>
   </si>
   <si>
+    <t>function.o</t>
+  </si>
+  <si>
     <t>action.o</t>
-  </si>
-  <si>
-    <t>function.o</t>
   </si>
   <si>
     <t>application.o</t>
@@ -498,10 +498,10 @@
                   <c:v>app_ps2.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>function.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>action.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>function.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>application.o</c:v>
@@ -543,58 +543,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>40.997314453125</c:v>
+                  <c:v>37.19858932495117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.48372650146484</c:v>
+                  <c:v>27.83346939086914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.78988742828369</c:v>
+                  <c:v>11.60480403900147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.24186325073242</c:v>
+                  <c:v>9.292874336242676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.19209671020508</c:v>
+                  <c:v>9.247719764709473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.269334077835083</c:v>
+                  <c:v>2.059062480926514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.413357257843018</c:v>
+                  <c:v>1.282398581504822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3185030221939087</c:v>
+                  <c:v>0.288991242647171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29859659075737</c:v>
+                  <c:v>0.288991242647171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2786901593208313</c:v>
+                  <c:v>0.2528673410415649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1990644037723541</c:v>
+                  <c:v>0.1806195229291916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1990644037723541</c:v>
+                  <c:v>0.1806195229291916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08957897871732712</c:v>
+                  <c:v>0.08127878606319428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07962575554847717</c:v>
+                  <c:v>0.07224781066179276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03981287777423859</c:v>
+                  <c:v>0.03612390533089638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03981287777423859</c:v>
+                  <c:v>0.03612390533089638</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03981287777423859</c:v>
+                  <c:v>0.03612390533089638</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02985966019332409</c:v>
+                  <c:v>0.02709292806684971</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -716,13 +716,13 @@
                   <c:v>scanf_fp.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>stm32f10x_rcc.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>_scanf.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>function.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>stm32f10x_rcc.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>_scanf.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>atan2f.o</c:v>
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.52696323394775</c:v>
+                  <c:v>10.50672054290772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.014327049255371</c:v>
+                  <c:v>8.996993064880371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.952386856079102</c:v>
+                  <c:v>6.939017772674561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.224763870239258</c:v>
+                  <c:v>6.212793827056885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.033921718597412</c:v>
+                  <c:v>5.024241447448731</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.804361820220947</c:v>
+                  <c:v>4.795123100280762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.64858865737915</c:v>
+                  <c:v>4.639649868011475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.508987665176392</c:v>
+                  <c:v>3.502239942550659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.205640554428101</c:v>
+                  <c:v>3.19947624206543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.619442939758301</c:v>
+                  <c:v>2.917169570922852</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.551804780960083</c:v>
+                  <c:v>2.546897649765015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.262805223464966</c:v>
+                  <c:v>2.258453845977783</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.09473443031311</c:v>
+                  <c:v>2.09070634841919</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.041443824768066</c:v>
+                  <c:v>2.037518262863159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.904117703437805</c:v>
+                  <c:v>1.900456190109253</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.799585938453674</c:v>
+                  <c:v>1.796125411987305</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.723749160766602</c:v>
+                  <c:v>1.710206031799316</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7135009765625</c:v>
+                  <c:v>1.669291973114014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.672508120536804</c:v>
+                  <c:v>1.609966635704041</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.385558247566223</c:v>
+                  <c:v>1.382893800735474</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.373260378837585</c:v>
+                  <c:v>1.370619654655457</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9756297469139099</c:v>
+                  <c:v>0.9737536311149597</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9469347596168518</c:v>
+                  <c:v>0.9451138377189636</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8772469162940979</c:v>
+                  <c:v>0.8755599856376648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8444526195526123</c:v>
+                  <c:v>0.8428288102149963</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.807559072971344</c:v>
+                  <c:v>0.8060061931610107</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8034598231315613</c:v>
+                  <c:v>0.8019147515296936</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8034598231315613</c:v>
+                  <c:v>0.8019147515296936</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7788640856742859</c:v>
+                  <c:v>0.7773663401603699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7563180327415466</c:v>
+                  <c:v>0.7548636794090271</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7542684078216553</c:v>
+                  <c:v>0.7528179287910461</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7132755517959595</c:v>
+                  <c:v>0.7119039297103882</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6845805644989014</c:v>
+                  <c:v>0.6832641363143921</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6804812550544739</c:v>
+                  <c:v>0.679172694683075</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6148927211761475</c:v>
+                  <c:v>0.6137102842330933</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5657013058662415</c:v>
+                  <c:v>0.5646134614944458</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5575026869773865</c:v>
+                  <c:v>0.5564306378364563</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5534034371376038</c:v>
+                  <c:v>0.5523392558097839</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4673184454441071</c:v>
+                  <c:v>0.4664198160171509</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4550206065177918</c:v>
+                  <c:v>0.454145610332489</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4099284708499908</c:v>
+                  <c:v>0.4091401994228363</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3812334835529327</c:v>
+                  <c:v>0.3805003762245178</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3607370555400848</c:v>
+                  <c:v>0.3600433766841888</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3484391868114471</c:v>
+                  <c:v>0.347769170999527</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3320420682430267</c:v>
+                  <c:v>0.3314035534858704</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3279427886009216</c:v>
+                  <c:v>0.3273121416568756</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.319744199514389</c:v>
+                  <c:v>0.3191293478012085</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2541556358337402</c:v>
+                  <c:v>0.2536669075489044</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2418577969074249</c:v>
+                  <c:v>0.2413927167654038</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2377585172653198</c:v>
+                  <c:v>0.237301304936409</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2295599430799484</c:v>
+                  <c:v>0.2291185110807419</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2295599430799484</c:v>
+                  <c:v>0.2291185110807419</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2254606634378433</c:v>
+                  <c:v>0.2250270992517471</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2131628096103668</c:v>
+                  <c:v>0.2127528935670853</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2131628096103668</c:v>
+                  <c:v>0.2127528935670853</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2049642354249954</c:v>
+                  <c:v>0.2045700997114182</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2008649557828903</c:v>
+                  <c:v>0.2004786878824234</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.196765661239624</c:v>
+                  <c:v>0.1963872909545898</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1926663815975189</c:v>
+                  <c:v>0.1922958940267563</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1926663815975189</c:v>
+                  <c:v>0.1922958940267563</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1762692481279373</c:v>
+                  <c:v>0.1759302765130997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1557728201150894</c:v>
+                  <c:v>0.1554732769727707</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.147574245929718</c:v>
+                  <c:v>0.1472904682159424</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1352763921022415</c:v>
+                  <c:v>0.1350162625312805</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1352763921022415</c:v>
+                  <c:v>0.1350162625312805</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1311771124601364</c:v>
+                  <c:v>0.130924865603447</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1270778179168701</c:v>
+                  <c:v>0.1268334537744522</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.122978538274765</c:v>
+                  <c:v>0.1227420568466187</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.122978538274765</c:v>
+                  <c:v>0.1227420568466187</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1147799715399742</c:v>
+                  <c:v>0.1145592555403709</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1147799715399742</c:v>
+                  <c:v>0.1145592555403709</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1147799715399742</c:v>
+                  <c:v>0.1145592555403709</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1065814048051834</c:v>
+                  <c:v>0.1063764467835426</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1024821177124977</c:v>
+                  <c:v>0.1022850498557091</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09838283061981201</c:v>
+                  <c:v>0.09819364547729492</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09838283061981201</c:v>
+                  <c:v>0.09819364547729492</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09838283061981201</c:v>
+                  <c:v>0.09819364547729492</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09428355097770691</c:v>
+                  <c:v>0.09410224109888077</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.09018426388502121</c:v>
+                  <c:v>0.09001084417104721</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.09018426388502121</c:v>
+                  <c:v>0.09001084417104721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08198569715023041</c:v>
+                  <c:v>0.0818280354142189</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08198569715023041</c:v>
+                  <c:v>0.0818280354142189</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08198569715023041</c:v>
+                  <c:v>0.0818280354142189</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07788641005754471</c:v>
+                  <c:v>0.07773663848638535</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07788641005754471</c:v>
+                  <c:v>0.07773663848638535</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07378712296485901</c:v>
+                  <c:v>0.07364523410797119</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07378712296485901</c:v>
+                  <c:v>0.07364523410797119</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07378712296485901</c:v>
+                  <c:v>0.07364523410797119</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07378712296485901</c:v>
+                  <c:v>0.07364523410797119</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06968783587217331</c:v>
+                  <c:v>0.06955382972955704</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06968783587217331</c:v>
+                  <c:v>0.06955382972955704</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06558855623006821</c:v>
+                  <c:v>0.06546243280172348</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06148926913738251</c:v>
+                  <c:v>0.06137102842330933</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.06148926913738251</c:v>
+                  <c:v>0.06137102842330933</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05738998576998711</c:v>
+                  <c:v>0.05727962777018547</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05738998576998711</c:v>
+                  <c:v>0.05727962777018547</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05329070240259171</c:v>
+                  <c:v>0.05318822339177132</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04919141530990601</c:v>
+                  <c:v>0.04909682273864746</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04919141530990601</c:v>
+                  <c:v>0.04909682273864746</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0409928485751152</c:v>
+                  <c:v>0.04091401770710945</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0409928485751152</c:v>
+                  <c:v>0.04091401770710945</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0368935614824295</c:v>
+                  <c:v>0.0368226170539856</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0368935614824295</c:v>
+                  <c:v>0.0368226170539856</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0327942781150341</c:v>
+                  <c:v>0.03273121640086174</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02869499288499355</c:v>
+                  <c:v>0.02863981388509274</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.0204964242875576</c:v>
+                  <c:v>0.02045700885355473</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.0204964242875576</c:v>
+                  <c:v>0.02045700885355473</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01639713905751705</c:v>
+                  <c:v>0.01636560820043087</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01639713905751705</c:v>
+                  <c:v>0.01636560820043087</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.008198569528758526</c:v>
+                  <c:v>0.008182804100215435</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.008198569528758526</c:v>
+                  <c:v>0.008182804100215435</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008198569528758526</c:v>
+                  <c:v>0.008182804100215435</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>40.997314453125</v>
+        <v>37.19858932495117</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1845,16 +1845,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>20.48372650146484</v>
+        <v>27.83346939086914</v>
       </c>
       <c r="C4" s="1">
-        <v>2058</v>
+        <v>3082</v>
       </c>
       <c r="D4" s="1">
-        <v>1278</v>
+        <v>1426</v>
       </c>
       <c r="E4" s="1">
-        <v>1268</v>
+        <v>1416</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>2048</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>12.78988742828369</v>
+        <v>11.60480403900147</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>10.24186325073242</v>
+        <v>9.292874336242676</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>10.19209671020508</v>
+        <v>9.247719764709473</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.269334077835083</v>
+        <v>2.059062480926514</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.413357257843018</v>
+        <v>1.282398581504822</v>
       </c>
       <c r="C9" s="1">
         <v>142</v>
@@ -2001,19 +2001,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.3185030221939087</v>
+        <v>0.288991242647171</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>412</v>
+        <v>787</v>
       </c>
       <c r="E10" s="1">
-        <v>380</v>
+        <v>656</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1">
         <v>32</v>
@@ -2027,22 +2027,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.29859659075737</v>
+        <v>0.288991242647171</v>
       </c>
       <c r="C11" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>841</v>
+        <v>412</v>
       </c>
       <c r="E11" s="1">
-        <v>712</v>
+        <v>380</v>
       </c>
       <c r="F11" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2786901593208313</v>
+        <v>0.2528673410415649</v>
       </c>
       <c r="C12" s="1">
         <v>28</v>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1990644037723541</v>
+        <v>0.1806195229291916</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1990644037723541</v>
+        <v>0.1806195229291916</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08957897871732712</v>
+        <v>0.08127878606319428</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07962575554847717</v>
+        <v>0.07224781066179276</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03981287777423859</v>
+        <v>0.03612390533089638</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03981287777423859</v>
+        <v>0.03612390533089638</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03981287777423859</v>
+        <v>0.03612390533089638</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02985966019332409</v>
+        <v>0.02709292806684971</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.52696323394775</v>
+        <v>10.50672054290772</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>9.014327049255371</v>
+        <v>8.996993064880371</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>6.952386856079102</v>
+        <v>6.939017772674561</v>
       </c>
       <c r="C5" s="1">
         <v>3392</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.224763870239258</v>
+        <v>6.212793827056885</v>
       </c>
       <c r="C6" s="1">
         <v>3037</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>5.033921718597412</v>
+        <v>5.024241447448731</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.804361820220947</v>
+        <v>4.795123100280762</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.64858865737915</v>
+        <v>4.639649868011475</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>3.508987665176392</v>
+        <v>3.502239942550659</v>
       </c>
       <c r="C10" s="1">
         <v>1712</v>
@@ -2579,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.205640554428101</v>
+        <v>3.19947624206543</v>
       </c>
       <c r="C11" s="1">
         <v>1564</v>
@@ -2605,16 +2605,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.619442939758301</v>
+        <v>2.917169570922852</v>
       </c>
       <c r="C12" s="1">
-        <v>1278</v>
+        <v>1426</v>
       </c>
       <c r="D12" s="1">
-        <v>2058</v>
+        <v>3082</v>
       </c>
       <c r="E12" s="1">
-        <v>1268</v>
+        <v>1416</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>2048</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>2.551804780960083</v>
+        <v>2.546897649765015</v>
       </c>
       <c r="C13" s="1">
         <v>1245</v>
@@ -2657,7 +2657,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>2.262805223464966</v>
+        <v>2.258453845977783</v>
       </c>
       <c r="C14" s="1">
         <v>1104</v>
@@ -2683,7 +2683,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>2.09473443031311</v>
+        <v>2.09070634841919</v>
       </c>
       <c r="C15" s="1">
         <v>1022</v>
@@ -2709,7 +2709,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>2.041443824768066</v>
+        <v>2.037518262863159</v>
       </c>
       <c r="C16" s="1">
         <v>996</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.904117703437805</v>
+        <v>1.900456190109253</v>
       </c>
       <c r="C17" s="1">
         <v>929</v>
@@ -2761,7 +2761,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.799585938453674</v>
+        <v>1.796125411987305</v>
       </c>
       <c r="C18" s="1">
         <v>878</v>
@@ -2784,25 +2784,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>1.723749160766602</v>
+        <v>1.710206031799316</v>
       </c>
       <c r="C19" s="1">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>712</v>
+        <v>816</v>
       </c>
       <c r="F19" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2810,16 +2810,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1.7135009765625</v>
+        <v>1.669291973114014</v>
       </c>
       <c r="C20" s="1">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="D20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>816</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2836,25 +2836,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>1.672508120536804</v>
+        <v>1.609966635704041</v>
       </c>
       <c r="C21" s="1">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
-        <v>816</v>
+        <v>656</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.385558247566223</v>
+        <v>1.382893800735474</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.373260378837585</v>
+        <v>1.370619654655457</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9756297469139099</v>
+        <v>0.9737536311149597</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9469347596168518</v>
+        <v>0.9451138377189636</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8772469162940979</v>
+        <v>0.8755599856376648</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8444526195526123</v>
+        <v>0.8428288102149963</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.807559072971344</v>
+        <v>0.8060061931610107</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8034598231315613</v>
+        <v>0.8019147515296936</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8034598231315613</v>
+        <v>0.8019147515296936</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7788640856742859</v>
+        <v>0.7773663401603699</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7563180327415466</v>
+        <v>0.7548636794090271</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7542684078216553</v>
+        <v>0.7528179287910461</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7132755517959595</v>
+        <v>0.7119039297103882</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6845805644989014</v>
+        <v>0.6832641363143921</v>
       </c>
       <c r="C35" s="1">
         <v>334</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6804812550544739</v>
+        <v>0.679172694683075</v>
       </c>
       <c r="C36" s="1">
         <v>332</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6148927211761475</v>
+        <v>0.6137102842330933</v>
       </c>
       <c r="C37" s="1">
         <v>300</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5657013058662415</v>
+        <v>0.5646134614944458</v>
       </c>
       <c r="C38" s="1">
         <v>276</v>
@@ -3307,7 +3307,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5575026869773865</v>
+        <v>0.5564306378364563</v>
       </c>
       <c r="C39" s="1">
         <v>272</v>
@@ -3333,7 +3333,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5534034371376038</v>
+        <v>0.5523392558097839</v>
       </c>
       <c r="C40" s="1">
         <v>270</v>
@@ -3359,7 +3359,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4673184454441071</v>
+        <v>0.4664198160171509</v>
       </c>
       <c r="C41" s="1">
         <v>228</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4550206065177918</v>
+        <v>0.454145610332489</v>
       </c>
       <c r="C42" s="1">
         <v>222</v>
@@ -3411,7 +3411,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4099284708499908</v>
+        <v>0.4091401994228363</v>
       </c>
       <c r="C43" s="1">
         <v>200</v>
@@ -3437,7 +3437,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3812334835529327</v>
+        <v>0.3805003762245178</v>
       </c>
       <c r="C44" s="1">
         <v>186</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3607370555400848</v>
+        <v>0.3600433766841888</v>
       </c>
       <c r="C45" s="1">
         <v>176</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3484391868114471</v>
+        <v>0.347769170999527</v>
       </c>
       <c r="C46" s="1">
         <v>170</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3320420682430267</v>
+        <v>0.3314035534858704</v>
       </c>
       <c r="C47" s="1">
         <v>162</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3279427886009216</v>
+        <v>0.3273121416568756</v>
       </c>
       <c r="C48" s="1">
         <v>160</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.319744199514389</v>
+        <v>0.3191293478012085</v>
       </c>
       <c r="C49" s="1">
         <v>156</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2541556358337402</v>
+        <v>0.2536669075489044</v>
       </c>
       <c r="C50" s="1">
         <v>124</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2418577969074249</v>
+        <v>0.2413927167654038</v>
       </c>
       <c r="C51" s="1">
         <v>118</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2377585172653198</v>
+        <v>0.237301304936409</v>
       </c>
       <c r="C52" s="1">
         <v>116</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2295599430799484</v>
+        <v>0.2291185110807419</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2295599430799484</v>
+        <v>0.2291185110807419</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2254606634378433</v>
+        <v>0.2250270992517471</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2131628096103668</v>
+        <v>0.2127528935670853</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2131628096103668</v>
+        <v>0.2127528935670853</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2049642354249954</v>
+        <v>0.2045700997114182</v>
       </c>
       <c r="C58" s="1">
         <v>100</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2008649557828903</v>
+        <v>0.2004786878824234</v>
       </c>
       <c r="C59" s="1">
         <v>98</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.196765661239624</v>
+        <v>0.1963872909545898</v>
       </c>
       <c r="C60" s="1">
         <v>96</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1926663815975189</v>
+        <v>0.1922958940267563</v>
       </c>
       <c r="C61" s="1">
         <v>94</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1926663815975189</v>
+        <v>0.1922958940267563</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1762692481279373</v>
+        <v>0.1759302765130997</v>
       </c>
       <c r="C63" s="1">
         <v>86</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1557728201150894</v>
+        <v>0.1554732769727707</v>
       </c>
       <c r="C64" s="1">
         <v>76</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.147574245929718</v>
+        <v>0.1472904682159424</v>
       </c>
       <c r="C65" s="1">
         <v>72</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1352763921022415</v>
+        <v>0.1350162625312805</v>
       </c>
       <c r="C66" s="1">
         <v>66</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1352763921022415</v>
+        <v>0.1350162625312805</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1311771124601364</v>
+        <v>0.130924865603447</v>
       </c>
       <c r="C68" s="1">
         <v>64</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1270778179168701</v>
+        <v>0.1268334537744522</v>
       </c>
       <c r="C69" s="1">
         <v>62</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.122978538274765</v>
+        <v>0.1227420568466187</v>
       </c>
       <c r="C70" s="1">
         <v>60</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.122978538274765</v>
+        <v>0.1227420568466187</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1147799715399742</v>
+        <v>0.1145592555403709</v>
       </c>
       <c r="C72" s="1">
         <v>56</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1147799715399742</v>
+        <v>0.1145592555403709</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1147799715399742</v>
+        <v>0.1145592555403709</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1065814048051834</v>
+        <v>0.1063764467835426</v>
       </c>
       <c r="C75" s="1">
         <v>52</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1024821177124977</v>
+        <v>0.1022850498557091</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09838283061981201</v>
+        <v>0.09819364547729492</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09838283061981201</v>
+        <v>0.09819364547729492</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09838283061981201</v>
+        <v>0.09819364547729492</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09428355097770691</v>
+        <v>0.09410224109888077</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.09018426388502121</v>
+        <v>0.09001084417104721</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.09018426388502121</v>
+        <v>0.09001084417104721</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08198569715023041</v>
+        <v>0.0818280354142189</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08198569715023041</v>
+        <v>0.0818280354142189</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08198569715023041</v>
+        <v>0.0818280354142189</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07788641005754471</v>
+        <v>0.07773663848638535</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07788641005754471</v>
+        <v>0.07773663848638535</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07378712296485901</v>
+        <v>0.07364523410797119</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07378712296485901</v>
+        <v>0.07364523410797119</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07378712296485901</v>
+        <v>0.07364523410797119</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07378712296485901</v>
+        <v>0.07364523410797119</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06968783587217331</v>
+        <v>0.06955382972955704</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06968783587217331</v>
+        <v>0.06955382972955704</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06558855623006821</v>
+        <v>0.06546243280172348</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06148926913738251</v>
+        <v>0.06137102842330933</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.06148926913738251</v>
+        <v>0.06137102842330933</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05738998576998711</v>
+        <v>0.05727962777018547</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05738998576998711</v>
+        <v>0.05727962777018547</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05329070240259171</v>
+        <v>0.05318822339177132</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04919141530990601</v>
+        <v>0.04909682273864746</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04919141530990601</v>
+        <v>0.04909682273864746</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.0409928485751152</v>
+        <v>0.04091401770710945</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.0409928485751152</v>
+        <v>0.04091401770710945</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.0368935614824295</v>
+        <v>0.0368226170539856</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.0368935614824295</v>
+        <v>0.0368226170539856</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.0327942781150341</v>
+        <v>0.03273121640086174</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02869499288499355</v>
+        <v>0.02863981388509274</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.0204964242875576</v>
+        <v>0.02045700885355473</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.0204964242875576</v>
+        <v>0.02045700885355473</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01639713905751705</v>
+        <v>0.01636560820043087</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01639713905751705</v>
+        <v>0.01636560820043087</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.008198569528758526</v>
+        <v>0.008182804100215435</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.008198569528758526</v>
+        <v>0.008182804100215435</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008198569528758526</v>
+        <v>0.008182804100215435</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -128,6 +128,9 @@
     <t>cosf.o</t>
   </si>
   <si>
+    <t>ultrasonic.o</t>
+  </si>
+  <si>
     <t>dadd.o</t>
   </si>
   <si>
@@ -137,12 +140,12 @@
     <t>cos_i.o</t>
   </si>
   <si>
+    <t>stm32f10x_tim.o</t>
+  </si>
+  <si>
     <t>sin_i.o</t>
   </si>
   <si>
-    <t>stm32f10x_tim.o</t>
-  </si>
-  <si>
     <t>dmul.o</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
     <t>global.o</t>
   </si>
   <si>
-    <t>ultrasonic.o</t>
-  </si>
-  <si>
     <t>stm32f10x_spi.o</t>
   </si>
   <si>
@@ -191,6 +191,9 @@
     <t>key.o</t>
   </si>
   <si>
+    <t>beep.o</t>
+  </si>
+  <si>
     <t>fmul.o</t>
   </si>
   <si>
@@ -240,9 +243,6 @@
   </si>
   <si>
     <t>led.o</t>
-  </si>
-  <si>
-    <t>beep.o</t>
   </si>
   <si>
     <t>ffixi.o</t>
@@ -543,58 +543,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>37.19858932495117</c:v>
+                  <c:v>37.18515777587891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.83346939086914</c:v>
+                  <c:v>27.82341766357422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.60480403900147</c:v>
+                  <c:v>11.60061359405518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.292874336242676</c:v>
+                  <c:v>9.289518356323242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.247719764709473</c:v>
+                  <c:v>9.244379997253418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.059062480926514</c:v>
+                  <c:v>2.058319091796875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.282398581504822</c:v>
+                  <c:v>1.281935572624207</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.288991242647171</c:v>
+                  <c:v>0.324997752904892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.288991242647171</c:v>
+                  <c:v>0.2888868749141693</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2528673410415649</c:v>
+                  <c:v>0.252776026725769</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1806195229291916</c:v>
+                  <c:v>0.1805543005466461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1806195229291916</c:v>
+                  <c:v>0.1805543005466461</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08127878606319428</c:v>
+                  <c:v>0.08124943822622299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07224781066179276</c:v>
+                  <c:v>0.07222171872854233</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03612390533089638</c:v>
+                  <c:v>0.03611085936427116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03612390533089638</c:v>
+                  <c:v>0.03611085936427116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03612390533089638</c:v>
+                  <c:v>0.03611085936427116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02709292806684971</c:v>
+                  <c:v>0.02708314545452595</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -701,28 +701,28 @@
                   <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>function.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>rred.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>soft_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>pwmservo.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>spi_flash.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>scanf_fp.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>_scanf.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>function.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>atan2f.o</c:v>
@@ -764,58 +764,58 @@
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>ultrasonic.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>dadd.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>_scanf_int.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>cos_i.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
+                  <c:v>stm32f10x_tim.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>sin_i.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>stm32f10x_tim.o</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>fadd.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>poly.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>dsqrt.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>sin.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>cos.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>fdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>global.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>ultrasonic.o</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>stm32f10x_spi.o</c:v>
@@ -833,58 +833,58 @@
                   <c:v>key.o</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>beep.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>fmul.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>uldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>dcmp4.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>fsqrt.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>sqrt.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>sys.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>fmin.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>fmax.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>dfixi.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>frnd.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>servopid.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>led.o</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>beep.o</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>ffixi.o</c:v>
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.50672054290772</c:v>
+                  <c:v>10.39318466186523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.996993064880371</c:v>
+                  <c:v>8.899771690368652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.939017772674561</c:v>
+                  <c:v>6.864034652709961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.212793827056885</c:v>
+                  <c:v>6.072808742523193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.024241447448731</c:v>
+                  <c:v>4.969949722290039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.795123100280762</c:v>
+                  <c:v>4.743307113647461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.639649868011475</c:v>
+                  <c:v>4.589513778686523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.502239942550659</c:v>
+                  <c:v>3.464394807815552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.19947624206543</c:v>
+                  <c:v>3.100147724151611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.917169570922852</c:v>
+                  <c:v>2.88564658164978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.546897649765015</c:v>
+                  <c:v>2.519376039505005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.258453845977783</c:v>
+                  <c:v>2.240119695663452</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.09070634841919</c:v>
+                  <c:v>2.234049081802368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.037518262863159</c:v>
+                  <c:v>2.068114280700684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.900456190109253</c:v>
+                  <c:v>2.015500783920288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.796125411987305</c:v>
+                  <c:v>1.87991988658905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.710206031799316</c:v>
+                  <c:v>1.776716470718384</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.669291973114014</c:v>
+                  <c:v>1.691725492477417</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.609966635704041</c:v>
+                  <c:v>1.651253581047058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.382893800735474</c:v>
+                  <c:v>1.367950320243835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.370619654655457</c:v>
+                  <c:v>1.355808734893799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9737536311149597</c:v>
+                  <c:v>0.9632312655448914</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9451138377189636</c:v>
+                  <c:v>0.9349009394645691</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8755599856376648</c:v>
+                  <c:v>0.8660987019538879</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8428288102149963</c:v>
+                  <c:v>0.8337211608886719</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8060061931610107</c:v>
+                  <c:v>0.7972964644432068</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8019147515296936</c:v>
+                  <c:v>0.7932493090629578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8019147515296936</c:v>
+                  <c:v>0.7932493090629578</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7773663401603699</c:v>
+                  <c:v>0.7689661383628845</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7548636794090271</c:v>
+                  <c:v>0.7467066049575806</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7528179287910461</c:v>
+                  <c:v>0.7446830272674561</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7119039297103882</c:v>
+                  <c:v>0.7042111158370972</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6832641363143921</c:v>
+                  <c:v>0.6799279451370239</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.679172694683075</c:v>
+                  <c:v>0.6758807897567749</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6137102842330933</c:v>
+                  <c:v>0.6718335747718811</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5646134614944458</c:v>
+                  <c:v>0.6070785522460938</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5564306378364563</c:v>
+                  <c:v>0.5666066408157349</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5523392558097839</c:v>
+                  <c:v>0.558512270450592</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4664198160171509</c:v>
+                  <c:v>0.5504179000854492</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.454145610332489</c:v>
+                  <c:v>0.4613796770572662</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4091401994228363</c:v>
+                  <c:v>0.449238121509552</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3805003762245178</c:v>
+                  <c:v>0.4047190248966217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3600433766841888</c:v>
+                  <c:v>0.3763886988162994</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.347769170999527</c:v>
+                  <c:v>0.35615274310112</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3314035534858704</c:v>
+                  <c:v>0.3440111577510834</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3273121416568756</c:v>
+                  <c:v>0.3278224170207977</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3191293478012085</c:v>
+                  <c:v>0.3237752318382263</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2536669075489044</c:v>
+                  <c:v>0.3156808316707611</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2413927167654038</c:v>
+                  <c:v>0.2509258091449738</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.237301304936409</c:v>
+                  <c:v>0.2387842237949371</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2291185110807419</c:v>
+                  <c:v>0.2266426533460617</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2291185110807419</c:v>
+                  <c:v>0.2266426533460617</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2250270992517471</c:v>
+                  <c:v>0.2225954681634903</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2127528935670853</c:v>
+                  <c:v>0.2104538977146149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2127528935670853</c:v>
+                  <c:v>0.2104538977146149</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2045700997114182</c:v>
+                  <c:v>0.2104538977146149</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2004786878824234</c:v>
+                  <c:v>0.2023595124483109</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1963872909545898</c:v>
+                  <c:v>0.1983123272657394</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1922958940267563</c:v>
+                  <c:v>0.1942651271820068</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1922958940267563</c:v>
+                  <c:v>0.1902179419994354</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1759302765130997</c:v>
+                  <c:v>0.1902179419994354</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1554732769727707</c:v>
+                  <c:v>0.1740291863679886</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1472904682159424</c:v>
+                  <c:v>0.1537932306528091</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1350162625312805</c:v>
+                  <c:v>0.1456988453865051</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1350162625312805</c:v>
+                  <c:v>0.1335572749376297</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.130924865603447</c:v>
+                  <c:v>0.1335572749376297</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1268334537744522</c:v>
+                  <c:v>0.1295100897550583</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1227420568466187</c:v>
+                  <c:v>0.1254629045724869</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1227420568466187</c:v>
+                  <c:v>0.1214157044887543</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1145592555403709</c:v>
+                  <c:v>0.1214157044887543</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1145592555403709</c:v>
+                  <c:v>0.1133213266730309</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1145592555403709</c:v>
+                  <c:v>0.1133213266730309</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1063764467835426</c:v>
+                  <c:v>0.1133213266730309</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1022850498557091</c:v>
+                  <c:v>0.1011797562241554</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09819364547729492</c:v>
+                  <c:v>0.09713256359100342</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09819364547729492</c:v>
+                  <c:v>0.09713256359100342</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09819364547729492</c:v>
+                  <c:v>0.09713256359100342</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09410224109888077</c:v>
+                  <c:v>0.09308537840843201</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.09001084417104721</c:v>
+                  <c:v>0.08903818577528</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.09001084417104721</c:v>
+                  <c:v>0.08903818577528</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0818280354142189</c:v>
+                  <c:v>0.08094380795955658</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0818280354142189</c:v>
+                  <c:v>0.08094380795955658</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0818280354142189</c:v>
+                  <c:v>0.08094380795955658</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07773663848638535</c:v>
+                  <c:v>0.07689661532640457</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07773663848638535</c:v>
+                  <c:v>0.07689661532640457</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07364523410797119</c:v>
+                  <c:v>0.07284942269325256</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07364523410797119</c:v>
+                  <c:v>0.07284942269325256</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07364523410797119</c:v>
+                  <c:v>0.07284942269325256</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07364523410797119</c:v>
+                  <c:v>0.07284942269325256</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06955382972955704</c:v>
+                  <c:v>0.06880223751068115</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06955382972955704</c:v>
+                  <c:v>0.06880223751068115</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06546243280172348</c:v>
+                  <c:v>0.06475504487752914</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06137102842330933</c:v>
+                  <c:v>0.06070785224437714</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.06137102842330933</c:v>
+                  <c:v>0.06070785224437714</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05727962777018547</c:v>
+                  <c:v>0.05666066333651543</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05727962777018547</c:v>
+                  <c:v>0.05666066333651543</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05318822339177132</c:v>
+                  <c:v>0.05261347442865372</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04909682273864746</c:v>
+                  <c:v>0.04856628179550171</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04909682273864746</c:v>
+                  <c:v>0.04856628179550171</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.04091401770710945</c:v>
+                  <c:v>0.04047190397977829</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.04091401770710945</c:v>
+                  <c:v>0.04047190397977829</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0368226170539856</c:v>
+                  <c:v>0.03642471134662628</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0368226170539856</c:v>
+                  <c:v>0.03642471134662628</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03273121640086174</c:v>
+                  <c:v>0.03237752243876457</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02863981388509274</c:v>
+                  <c:v>0.02833033166825771</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.02045700885355473</c:v>
+                  <c:v>0.02023595198988915</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.02045700885355473</c:v>
+                  <c:v>0.02023595198988915</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01636560820043087</c:v>
+                  <c:v>0.01618876121938229</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01636560820043087</c:v>
+                  <c:v>0.01618876121938229</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.008182804100215435</c:v>
+                  <c:v>0.008094380609691143</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.008182804100215435</c:v>
+                  <c:v>0.008094380609691143</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008182804100215435</c:v>
+                  <c:v>0.008094380609691143</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.19858932495117</v>
+        <v>37.18515777587891</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.83346939086914</v>
+        <v>27.82341766357422</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
@@ -1871,16 +1871,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.60480403900147</v>
+        <v>11.60061359405518</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>3037</v>
+        <v>3001</v>
       </c>
       <c r="E5" s="1">
-        <v>3012</v>
+        <v>2976</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.292874336242676</v>
+        <v>9.289518356323242</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.247719764709473</v>
+        <v>9.244379997253418</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.059062480926514</v>
+        <v>2.058319091796875</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.282398581504822</v>
+        <v>1.281935572624207</v>
       </c>
       <c r="C9" s="1">
         <v>142</v>
@@ -2001,22 +2001,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.288991242647171</v>
+        <v>0.324997752904892</v>
       </c>
       <c r="C10" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>787</v>
+        <v>1107</v>
       </c>
       <c r="E10" s="1">
-        <v>656</v>
+        <v>972</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.288991242647171</v>
+        <v>0.2888868749141693</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -2053,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2528673410415649</v>
+        <v>0.252776026725769</v>
       </c>
       <c r="C12" s="1">
         <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>1564</v>
+        <v>1532</v>
       </c>
       <c r="E12" s="1">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="F12" s="1">
         <v>24</v>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1806195229291916</v>
+        <v>0.1805543005466461</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1806195229291916</v>
+        <v>0.1805543005466461</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08127878606319428</v>
+        <v>0.08124943822622299</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07224781066179276</v>
+        <v>0.07222171872854233</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03612390533089638</v>
+        <v>0.03611085936427116</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03612390533089638</v>
+        <v>0.03611085936427116</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03612390533089638</v>
+        <v>0.03611085936427116</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02709292806684971</v>
+        <v>0.02708314545452595</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.50672054290772</v>
+        <v>10.39318466186523</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.996993064880371</v>
+        <v>8.899771690368652</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>6.939017772674561</v>
+        <v>6.864034652709961</v>
       </c>
       <c r="C5" s="1">
         <v>3392</v>
@@ -2449,16 +2449,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.212793827056885</v>
+        <v>6.072808742523193</v>
       </c>
       <c r="C6" s="1">
-        <v>3037</v>
+        <v>3001</v>
       </c>
       <c r="D6" s="1">
         <v>1285</v>
       </c>
       <c r="E6" s="1">
-        <v>3012</v>
+        <v>2976</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>5.024241447448731</v>
+        <v>4.969949722290039</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.795123100280762</v>
+        <v>4.743307113647461</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.639649868011475</v>
+        <v>4.589513778686523</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>3.502239942550659</v>
+        <v>3.464394807815552</v>
       </c>
       <c r="C10" s="1">
         <v>1712</v>
@@ -2579,16 +2579,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.19947624206543</v>
+        <v>3.100147724151611</v>
       </c>
       <c r="C11" s="1">
-        <v>1564</v>
+        <v>1532</v>
       </c>
       <c r="D11" s="1">
         <v>28</v>
       </c>
       <c r="E11" s="1">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="F11" s="1">
         <v>24</v>
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.917169570922852</v>
+        <v>2.88564658164978</v>
       </c>
       <c r="C12" s="1">
         <v>1426</v>
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>2.546897649765015</v>
+        <v>2.519376039505005</v>
       </c>
       <c r="C13" s="1">
         <v>1245</v>
@@ -2654,25 +2654,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.258453845977783</v>
+        <v>2.240119695663452</v>
       </c>
       <c r="C14" s="1">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
-        <v>904</v>
+        <v>972</v>
       </c>
       <c r="F14" s="1">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.09070634841919</v>
+        <v>2.234049081802368</v>
       </c>
       <c r="C15" s="1">
-        <v>1022</v>
+        <v>1104</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1022</v>
+        <v>904</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2706,103 +2706,103 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>2.037518262863159</v>
+        <v>2.068114280700684</v>
       </c>
       <c r="C16" s="1">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="D16" s="1">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>992</v>
+        <v>1022</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.900456190109253</v>
+        <v>2.015500783920288</v>
       </c>
       <c r="C17" s="1">
-        <v>929</v>
+        <v>996</v>
       </c>
       <c r="D17" s="1">
-        <v>4119</v>
+        <v>228</v>
       </c>
       <c r="E17" s="1">
-        <v>924</v>
+        <v>992</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>4114</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.796125411987305</v>
+        <v>1.87991988658905</v>
       </c>
       <c r="C18" s="1">
-        <v>878</v>
+        <v>929</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>4119</v>
       </c>
       <c r="E18" s="1">
-        <v>878</v>
+        <v>924</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.710206031799316</v>
+        <v>1.776716470718384</v>
       </c>
       <c r="C19" s="1">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="D19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>816</v>
+        <v>878</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2810,16 +2810,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.669291973114014</v>
+        <v>1.691725492477417</v>
       </c>
       <c r="C20" s="1">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>816</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2836,25 +2836,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.609966635704041</v>
+        <v>1.651253581047058</v>
       </c>
       <c r="C21" s="1">
-        <v>787</v>
+        <v>816</v>
       </c>
       <c r="D21" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>656</v>
+        <v>816</v>
       </c>
       <c r="F21" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.382893800735474</v>
+        <v>1.367950320243835</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.370619654655457</v>
+        <v>1.355808734893799</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9737536311149597</v>
+        <v>0.9632312655448914</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9451138377189636</v>
+        <v>0.9349009394645691</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8755599856376648</v>
+        <v>0.8660987019538879</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8428288102149963</v>
+        <v>0.8337211608886719</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8060061931610107</v>
+        <v>0.7972964644432068</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8019147515296936</v>
+        <v>0.7932493090629578</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8019147515296936</v>
+        <v>0.7932493090629578</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7773663401603699</v>
+        <v>0.7689661383628845</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7548636794090271</v>
+        <v>0.7467066049575806</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7528179287910461</v>
+        <v>0.7446830272674561</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7119039297103882</v>
+        <v>0.7042111158370972</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,16 +3203,16 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6832641363143921</v>
+        <v>0.6799279451370239</v>
       </c>
       <c r="C35" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.679172694683075</v>
+        <v>0.6758807897567749</v>
       </c>
       <c r="C36" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3255,19 +3255,19 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6137102842330933</v>
+        <v>0.6718335747718811</v>
       </c>
       <c r="C37" s="1">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -3281,19 +3281,19 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5646134614944458</v>
+        <v>0.6070785522460938</v>
       </c>
       <c r="C38" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F38" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -3304,48 +3304,48 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5564306378364563</v>
+        <v>0.5666066408157349</v>
       </c>
       <c r="C39" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D39" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="F39" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5523392558097839</v>
+        <v>0.558512270450592</v>
       </c>
       <c r="C40" s="1">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3356,28 +3356,28 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4664198160171509</v>
+        <v>0.5504179000854492</v>
       </c>
       <c r="C41" s="1">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E41" s="1">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3385,16 +3385,16 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.454145610332489</v>
+        <v>0.4613796770572662</v>
       </c>
       <c r="C42" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3408,25 +3408,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4091401994228363</v>
+        <v>0.449238121509552</v>
       </c>
       <c r="C43" s="1">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -3434,25 +3434,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3805003762245178</v>
+        <v>0.4047190248966217</v>
       </c>
       <c r="C44" s="1">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -3463,16 +3463,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3600433766841888</v>
+        <v>0.3763886988162994</v>
       </c>
       <c r="C45" s="1">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3489,16 +3489,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.347769170999527</v>
+        <v>0.35615274310112</v>
       </c>
       <c r="C46" s="1">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3515,16 +3515,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3314035534858704</v>
+        <v>0.3440111577510834</v>
       </c>
       <c r="C47" s="1">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3541,16 +3541,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3273121416568756</v>
+        <v>0.3278224170207977</v>
       </c>
       <c r="C48" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3567,16 +3567,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3191293478012085</v>
+        <v>0.3237752318382263</v>
       </c>
       <c r="C49" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2536669075489044</v>
+        <v>0.3156808316707611</v>
       </c>
       <c r="C50" s="1">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2413927167654038</v>
+        <v>0.2509258091449738</v>
       </c>
       <c r="C51" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3645,16 +3645,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.237301304936409</v>
+        <v>0.2387842237949371</v>
       </c>
       <c r="C52" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2291185110807419</v>
+        <v>0.2266426533460617</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2291185110807419</v>
+        <v>0.2266426533460617</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2250270992517471</v>
+        <v>0.2225954681634903</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2127528935670853</v>
+        <v>0.2104538977146149</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2127528935670853</v>
+        <v>0.2104538977146149</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,16 +3801,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2045700997114182</v>
+        <v>0.2104538977146149</v>
       </c>
       <c r="C58" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3827,16 +3827,16 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2004786878824234</v>
+        <v>0.2023595124483109</v>
       </c>
       <c r="C59" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3853,16 +3853,16 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1963872909545898</v>
+        <v>0.1983123272657394</v>
       </c>
       <c r="C60" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3879,16 +3879,16 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1922958940267563</v>
+        <v>0.1942651271820068</v>
       </c>
       <c r="C61" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1922958940267563</v>
+        <v>0.1902179419994354</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,16 +3931,16 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1759302765130997</v>
+        <v>0.1902179419994354</v>
       </c>
       <c r="C63" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1554732769727707</v>
+        <v>0.1740291863679886</v>
       </c>
       <c r="C64" s="1">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1472904682159424</v>
+        <v>0.1537932306528091</v>
       </c>
       <c r="C65" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4009,16 +4009,16 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1350162625312805</v>
+        <v>0.1456988453865051</v>
       </c>
       <c r="C66" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1350162625312805</v>
+        <v>0.1335572749376297</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,16 +4061,16 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.130924865603447</v>
+        <v>0.1335572749376297</v>
       </c>
       <c r="C68" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1268334537744522</v>
+        <v>0.1295100897550583</v>
       </c>
       <c r="C69" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1227420568466187</v>
+        <v>0.1254629045724869</v>
       </c>
       <c r="C70" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1227420568466187</v>
+        <v>0.1214157044887543</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,16 +4165,16 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1145592555403709</v>
+        <v>0.1214157044887543</v>
       </c>
       <c r="C72" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1145592555403709</v>
+        <v>0.1133213266730309</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1145592555403709</v>
+        <v>0.1133213266730309</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,16 +4243,16 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1063764467835426</v>
+        <v>0.1133213266730309</v>
       </c>
       <c r="C75" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1022850498557091</v>
+        <v>0.1011797562241554</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09819364547729492</v>
+        <v>0.09713256359100342</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09819364547729492</v>
+        <v>0.09713256359100342</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09819364547729492</v>
+        <v>0.09713256359100342</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09410224109888077</v>
+        <v>0.09308537840843201</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.09001084417104721</v>
+        <v>0.08903818577528</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.09001084417104721</v>
+        <v>0.08903818577528</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.0818280354142189</v>
+        <v>0.08094380795955658</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.0818280354142189</v>
+        <v>0.08094380795955658</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.0818280354142189</v>
+        <v>0.08094380795955658</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07773663848638535</v>
+        <v>0.07689661532640457</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07773663848638535</v>
+        <v>0.07689661532640457</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07364523410797119</v>
+        <v>0.07284942269325256</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07364523410797119</v>
+        <v>0.07284942269325256</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07364523410797119</v>
+        <v>0.07284942269325256</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07364523410797119</v>
+        <v>0.07284942269325256</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06955382972955704</v>
+        <v>0.06880223751068115</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06955382972955704</v>
+        <v>0.06880223751068115</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06546243280172348</v>
+        <v>0.06475504487752914</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06137102842330933</v>
+        <v>0.06070785224437714</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.06137102842330933</v>
+        <v>0.06070785224437714</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05727962777018547</v>
+        <v>0.05666066333651543</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05727962777018547</v>
+        <v>0.05666066333651543</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05318822339177132</v>
+        <v>0.05261347442865372</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04909682273864746</v>
+        <v>0.04856628179550171</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04909682273864746</v>
+        <v>0.04856628179550171</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.04091401770710945</v>
+        <v>0.04047190397977829</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.04091401770710945</v>
+        <v>0.04047190397977829</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.0368226170539856</v>
+        <v>0.03642471134662628</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.0368226170539856</v>
+        <v>0.03642471134662628</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03273121640086174</v>
+        <v>0.03237752243876457</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02863981388509274</v>
+        <v>0.02833033166825771</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.02045700885355473</v>
+        <v>0.02023595198988915</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.02045700885355473</v>
+        <v>0.02023595198988915</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01636560820043087</v>
+        <v>0.01618876121938229</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01636560820043087</v>
+        <v>0.01618876121938229</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.008182804100215435</v>
+        <v>0.008094380609691143</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.008182804100215435</v>
+        <v>0.008094380609691143</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008182804100215435</v>
+        <v>0.008094380609691143</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.39318466186523</c:v>
+                  <c:v>10.38645839691162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.899771690368652</c:v>
+                  <c:v>8.894012451171875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.864034652709961</c:v>
+                  <c:v>6.859592914581299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.072808742523193</c:v>
+                  <c:v>6.068879127502441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.969949722290039</c:v>
+                  <c:v>4.966733455657959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.743307113647461</c:v>
+                  <c:v>4.740237236022949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.589513778686523</c:v>
+                  <c:v>4.586543560028076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.464394807815552</c:v>
+                  <c:v>3.46215295791626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.100147724151611</c:v>
+                  <c:v>3.098141431808472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.88564658164978</c:v>
+                  <c:v>2.883779287338257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.519376039505005</c:v>
+                  <c:v>2.517745494842529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.240119695663452</c:v>
+                  <c:v>2.303383350372315</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.234049081802368</c:v>
+                  <c:v>2.232603311538696</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.068114280700684</c:v>
+                  <c:v>2.066775798797607</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.015500783920288</c:v>
+                  <c:v>2.014196395874023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.87991988658905</c:v>
+                  <c:v>1.878703355789185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.776716470718384</c:v>
+                  <c:v>1.775566697120667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.691725492477417</c:v>
+                  <c:v>1.690630793571472</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.651253581047058</c:v>
+                  <c:v>1.650184988975525</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.367950320243835</c:v>
+                  <c:v>1.367065072059631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.355808734893799</c:v>
+                  <c:v>1.354931354522705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9632312655448914</c:v>
+                  <c:v>0.9626079201698303</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9349009394645691</c:v>
+                  <c:v>0.9342959523200989</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8660987019538879</c:v>
+                  <c:v>0.8655382394790649</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8337211608886719</c:v>
+                  <c:v>0.8331816792488098</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7972964644432068</c:v>
+                  <c:v>0.796780526638031</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7932493090629578</c:v>
+                  <c:v>0.7927359342575073</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7932493090629578</c:v>
+                  <c:v>0.7927359342575073</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7689661383628845</c:v>
+                  <c:v>0.7684684991836548</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7467066049575806</c:v>
+                  <c:v>0.7462233901023865</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7446830272674561</c:v>
+                  <c:v>0.744201123714447</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7042111158370972</c:v>
+                  <c:v>0.7037553787231445</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6799279451370239</c:v>
+                  <c:v>0.679487943649292</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6758807897567749</c:v>
+                  <c:v>0.6754434108734131</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6718335747718811</c:v>
+                  <c:v>0.6713988184928894</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6070785522460938</c:v>
+                  <c:v>0.6066856980323792</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5666066408157349</c:v>
+                  <c:v>0.5662399530410767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.558512270450592</c:v>
+                  <c:v>0.5581508278846741</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5504179000854492</c:v>
+                  <c:v>0.5500617027282715</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4613796770572662</c:v>
+                  <c:v>0.4610811173915863</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.449238121509552</c:v>
+                  <c:v>0.44894739985466</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4047190248966217</c:v>
+                  <c:v>0.4044571220874786</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3763886988162994</c:v>
+                  <c:v>0.3761451244354248</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.35615274310112</c:v>
+                  <c:v>0.3559222519397736</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3440111577510834</c:v>
+                  <c:v>0.3437885642051697</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3278224170207977</c:v>
+                  <c:v>0.3276102542877197</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3237752318382263</c:v>
+                  <c:v>0.3235656917095184</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3156808316707611</c:v>
+                  <c:v>0.3154765367507935</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2509258091449738</c:v>
+                  <c:v>0.2507634162902832</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2387842237949371</c:v>
+                  <c:v>0.2386296987533569</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2266426533460617</c:v>
+                  <c:v>0.2264959812164307</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2266426533460617</c:v>
+                  <c:v>0.2264959812164307</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2225954681634903</c:v>
+                  <c:v>0.2224514186382294</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2104538977146149</c:v>
+                  <c:v>0.2103177011013031</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2104538977146149</c:v>
+                  <c:v>0.2103177011013031</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2104538977146149</c:v>
+                  <c:v>0.2103177011013031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2023595124483109</c:v>
+                  <c:v>0.2022285610437393</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1983123272657394</c:v>
+                  <c:v>0.1981839835643768</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1942651271820068</c:v>
+                  <c:v>0.1941394209861755</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1902179419994354</c:v>
+                  <c:v>0.1900948435068131</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1902179419994354</c:v>
+                  <c:v>0.1900948435068131</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1740291863679886</c:v>
+                  <c:v>0.1739165633916855</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1537932306528091</c:v>
+                  <c:v>0.1536937057971954</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1456988453865051</c:v>
+                  <c:v>0.1456045657396317</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1335572749376297</c:v>
+                  <c:v>0.1334708482027054</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1335572749376297</c:v>
+                  <c:v>0.1334708482027054</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1295100897550583</c:v>
+                  <c:v>0.1294262707233429</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1254629045724869</c:v>
+                  <c:v>0.1253817081451416</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1214157044887543</c:v>
+                  <c:v>0.1213371381163597</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1214157044887543</c:v>
+                  <c:v>0.1213371381163597</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1133213266730309</c:v>
+                  <c:v>0.1132479906082153</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1133213266730309</c:v>
+                  <c:v>0.1132479906082153</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1133213266730309</c:v>
+                  <c:v>0.1132479906082153</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1011797562241554</c:v>
+                  <c:v>0.1011142805218697</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09713256359100342</c:v>
+                  <c:v>0.09706971049308777</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09713256359100342</c:v>
+                  <c:v>0.09706971049308777</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09713256359100342</c:v>
+                  <c:v>0.09706971049308777</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09308537840843201</c:v>
+                  <c:v>0.09302514046430588</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08903818577528</c:v>
+                  <c:v>0.08898056298494339</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08903818577528</c:v>
+                  <c:v>0.08898056298494339</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08094380795955658</c:v>
+                  <c:v>0.08089142292737961</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08094380795955658</c:v>
+                  <c:v>0.08089142292737961</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08094380795955658</c:v>
+                  <c:v>0.08089142292737961</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07689661532640457</c:v>
+                  <c:v>0.07684685289859772</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07689661532640457</c:v>
+                  <c:v>0.07684685289859772</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07284942269325256</c:v>
+                  <c:v>0.07280228286981583</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07284942269325256</c:v>
+                  <c:v>0.07280228286981583</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07284942269325256</c:v>
+                  <c:v>0.07280228286981583</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07284942269325256</c:v>
+                  <c:v>0.07280228286981583</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06880223751068115</c:v>
+                  <c:v>0.06875771284103394</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06880223751068115</c:v>
+                  <c:v>0.06875771284103394</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06475504487752914</c:v>
+                  <c:v>0.06471313536167145</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06070785224437714</c:v>
+                  <c:v>0.06066856905817986</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.06070785224437714</c:v>
+                  <c:v>0.06066856905817986</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05666066333651543</c:v>
+                  <c:v>0.05662399530410767</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05666066333651543</c:v>
+                  <c:v>0.05662399530410767</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05261347442865372</c:v>
+                  <c:v>0.05257942527532578</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04856628179550171</c:v>
+                  <c:v>0.04853485524654388</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04856628179550171</c:v>
+                  <c:v>0.04853485524654388</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.04047190397977829</c:v>
+                  <c:v>0.0404457114636898</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.04047190397977829</c:v>
+                  <c:v>0.0404457114636898</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03642471134662628</c:v>
+                  <c:v>0.03640114143490791</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03642471134662628</c:v>
+                  <c:v>0.03640114143490791</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03237752243876457</c:v>
+                  <c:v>0.03235656768083572</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02833033166825771</c:v>
+                  <c:v>0.02831199765205383</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.02023595198988915</c:v>
+                  <c:v>0.0202228557318449</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.02023595198988915</c:v>
+                  <c:v>0.0202228557318449</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01618876121938229</c:v>
+                  <c:v>0.01617828384041786</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01618876121938229</c:v>
+                  <c:v>0.01617828384041786</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.008094380609691143</c:v>
+                  <c:v>0.008089141920208931</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.008094380609691143</c:v>
+                  <c:v>0.008089141920208931</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008094380609691143</c:v>
+                  <c:v>0.008089141920208931</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -2007,10 +2007,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>1107</v>
+        <v>1139</v>
       </c>
       <c r="E10" s="1">
-        <v>972</v>
+        <v>1004</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.39318466186523</v>
+        <v>10.38645839691162</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.899771690368652</v>
+        <v>8.894012451171875</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>6.864034652709961</v>
+        <v>6.859592914581299</v>
       </c>
       <c r="C5" s="1">
         <v>3392</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.072808742523193</v>
+        <v>6.068879127502441</v>
       </c>
       <c r="C6" s="1">
         <v>3001</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.969949722290039</v>
+        <v>4.966733455657959</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.743307113647461</v>
+        <v>4.740237236022949</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.589513778686523</v>
+        <v>4.586543560028076</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>3.464394807815552</v>
+        <v>3.46215295791626</v>
       </c>
       <c r="C10" s="1">
         <v>1712</v>
@@ -2579,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.100147724151611</v>
+        <v>3.098141431808472</v>
       </c>
       <c r="C11" s="1">
         <v>1532</v>
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.88564658164978</v>
+        <v>2.883779287338257</v>
       </c>
       <c r="C12" s="1">
         <v>1426</v>
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>2.519376039505005</v>
+        <v>2.517745494842529</v>
       </c>
       <c r="C13" s="1">
         <v>1245</v>
@@ -2657,16 +2657,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.240119695663452</v>
+        <v>2.303383350372315</v>
       </c>
       <c r="C14" s="1">
-        <v>1107</v>
+        <v>1139</v>
       </c>
       <c r="D14" s="1">
         <v>36</v>
       </c>
       <c r="E14" s="1">
-        <v>972</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.234049081802368</v>
+        <v>2.232603311538696</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>2.068114280700684</v>
+        <v>2.066775798797607</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>2.015500783920288</v>
+        <v>2.014196395874023</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.87991988658905</v>
+        <v>1.878703355789185</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.776716470718384</v>
+        <v>1.775566697120667</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.691725492477417</v>
+        <v>1.690630793571472</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.651253581047058</v>
+        <v>1.650184988975525</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.367950320243835</v>
+        <v>1.367065072059631</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.355808734893799</v>
+        <v>1.354931354522705</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9632312655448914</v>
+        <v>0.9626079201698303</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9349009394645691</v>
+        <v>0.9342959523200989</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8660987019538879</v>
+        <v>0.8655382394790649</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8337211608886719</v>
+        <v>0.8331816792488098</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7972964644432068</v>
+        <v>0.796780526638031</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7932493090629578</v>
+        <v>0.7927359342575073</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7932493090629578</v>
+        <v>0.7927359342575073</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7689661383628845</v>
+        <v>0.7684684991836548</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7467066049575806</v>
+        <v>0.7462233901023865</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7446830272674561</v>
+        <v>0.744201123714447</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7042111158370972</v>
+        <v>0.7037553787231445</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6799279451370239</v>
+        <v>0.679487943649292</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6758807897567749</v>
+        <v>0.6754434108734131</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6718335747718811</v>
+        <v>0.6713988184928894</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6070785522460938</v>
+        <v>0.6066856980323792</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5666066408157349</v>
+        <v>0.5662399530410767</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.558512270450592</v>
+        <v>0.5581508278846741</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5504179000854492</v>
+        <v>0.5500617027282715</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4613796770572662</v>
+        <v>0.4610811173915863</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.449238121509552</v>
+        <v>0.44894739985466</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4047190248966217</v>
+        <v>0.4044571220874786</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3763886988162994</v>
+        <v>0.3761451244354248</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.35615274310112</v>
+        <v>0.3559222519397736</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3440111577510834</v>
+        <v>0.3437885642051697</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3278224170207977</v>
+        <v>0.3276102542877197</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3237752318382263</v>
+        <v>0.3235656917095184</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3156808316707611</v>
+        <v>0.3154765367507935</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2509258091449738</v>
+        <v>0.2507634162902832</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2387842237949371</v>
+        <v>0.2386296987533569</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2266426533460617</v>
+        <v>0.2264959812164307</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2266426533460617</v>
+        <v>0.2264959812164307</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2225954681634903</v>
+        <v>0.2224514186382294</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2104538977146149</v>
+        <v>0.2103177011013031</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2104538977146149</v>
+        <v>0.2103177011013031</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2104538977146149</v>
+        <v>0.2103177011013031</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2023595124483109</v>
+        <v>0.2022285610437393</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1983123272657394</v>
+        <v>0.1981839835643768</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1942651271820068</v>
+        <v>0.1941394209861755</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1902179419994354</v>
+        <v>0.1900948435068131</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1902179419994354</v>
+        <v>0.1900948435068131</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1740291863679886</v>
+        <v>0.1739165633916855</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1537932306528091</v>
+        <v>0.1536937057971954</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1456988453865051</v>
+        <v>0.1456045657396317</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1335572749376297</v>
+        <v>0.1334708482027054</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1335572749376297</v>
+        <v>0.1334708482027054</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1295100897550583</v>
+        <v>0.1294262707233429</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1254629045724869</v>
+        <v>0.1253817081451416</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1214157044887543</v>
+        <v>0.1213371381163597</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1214157044887543</v>
+        <v>0.1213371381163597</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1133213266730309</v>
+        <v>0.1132479906082153</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1133213266730309</v>
+        <v>0.1132479906082153</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1133213266730309</v>
+        <v>0.1132479906082153</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1011797562241554</v>
+        <v>0.1011142805218697</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09713256359100342</v>
+        <v>0.09706971049308777</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09713256359100342</v>
+        <v>0.09706971049308777</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09713256359100342</v>
+        <v>0.09706971049308777</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09308537840843201</v>
+        <v>0.09302514046430588</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08903818577528</v>
+        <v>0.08898056298494339</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08903818577528</v>
+        <v>0.08898056298494339</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08094380795955658</v>
+        <v>0.08089142292737961</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08094380795955658</v>
+        <v>0.08089142292737961</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08094380795955658</v>
+        <v>0.08089142292737961</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07689661532640457</v>
+        <v>0.07684685289859772</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07689661532640457</v>
+        <v>0.07684685289859772</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07284942269325256</v>
+        <v>0.07280228286981583</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07284942269325256</v>
+        <v>0.07280228286981583</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07284942269325256</v>
+        <v>0.07280228286981583</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07284942269325256</v>
+        <v>0.07280228286981583</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06880223751068115</v>
+        <v>0.06875771284103394</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06880223751068115</v>
+        <v>0.06875771284103394</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06475504487752914</v>
+        <v>0.06471313536167145</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06070785224437714</v>
+        <v>0.06066856905817986</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.06070785224437714</v>
+        <v>0.06066856905817986</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05666066333651543</v>
+        <v>0.05662399530410767</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05666066333651543</v>
+        <v>0.05662399530410767</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05261347442865372</v>
+        <v>0.05257942527532578</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04856628179550171</v>
+        <v>0.04853485524654388</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04856628179550171</v>
+        <v>0.04853485524654388</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.04047190397977829</v>
+        <v>0.0404457114636898</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.04047190397977829</v>
+        <v>0.0404457114636898</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03642471134662628</v>
+        <v>0.03640114143490791</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03642471134662628</v>
+        <v>0.03640114143490791</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03237752243876457</v>
+        <v>0.03235656768083572</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02833033166825771</v>
+        <v>0.02831199765205383</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.02023595198988915</v>
+        <v>0.0202228557318449</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.02023595198988915</v>
+        <v>0.0202228557318449</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01618876121938229</v>
+        <v>0.01617828384041786</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01618876121938229</v>
+        <v>0.01617828384041786</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.008094380609691143</v>
+        <v>0.008089141920208931</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.008094380609691143</v>
+        <v>0.008089141920208931</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008094380609691143</v>
+        <v>0.008089141920208931</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.38645839691162</c:v>
+                  <c:v>10.39907646179199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.894012451171875</c:v>
+                  <c:v>8.904816627502441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.859592914581299</c:v>
+                  <c:v>6.867926120758057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.068879127502441</c:v>
+                  <c:v>5.954767227172852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.966733455657959</c:v>
+                  <c:v>4.972767353057861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.740237236022949</c:v>
+                  <c:v>4.745995998382568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.586543560028076</c:v>
+                  <c:v>4.592115879058838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.46215295791626</c:v>
+                  <c:v>3.46635890007019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.098141431808472</c:v>
+                  <c:v>3.101905345916748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.883779287338257</c:v>
+                  <c:v>2.887282609939575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.517745494842529</c:v>
+                  <c:v>2.520804166793823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.303383350372315</c:v>
+                  <c:v>2.30618143081665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.232603311538696</c:v>
+                  <c:v>2.235315561294556</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.066775798797607</c:v>
+                  <c:v>2.069286584854126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.014196395874023</c:v>
+                  <c:v>2.016643285751343</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.878703355789185</c:v>
+                  <c:v>1.880985617637634</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.775566697120667</c:v>
+                  <c:v>1.777723789215088</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.690630793571472</c:v>
+                  <c:v>1.692684650421143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.650184988975525</c:v>
+                  <c:v>1.6521897315979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.367065072059631</c:v>
+                  <c:v>1.368725776672363</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.354931354522705</c:v>
+                  <c:v>1.356577396392822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9626079201698303</c:v>
+                  <c:v>0.9637773633003235</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9342959523200989</c:v>
+                  <c:v>0.9354309439659119</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8655382394790649</c:v>
+                  <c:v>0.8665897250175476</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8331816792488098</c:v>
+                  <c:v>0.8341938257217407</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.796780526638031</c:v>
+                  <c:v>0.7977485060691834</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7927359342575073</c:v>
+                  <c:v>0.7936990261077881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7927359342575073</c:v>
+                  <c:v>0.7936990261077881</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7684684991836548</c:v>
+                  <c:v>0.7694020867347717</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7462233901023865</c:v>
+                  <c:v>0.7471299171447754</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.744201123714447</c:v>
+                  <c:v>0.7451052069664002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7037553787231445</c:v>
+                  <c:v>0.7046103477478027</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.679487943649292</c:v>
+                  <c:v>0.6803134083747864</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6754434108734131</c:v>
+                  <c:v>0.6762639284133911</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6713988184928894</c:v>
+                  <c:v>0.6722144484519959</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6066856980323792</c:v>
+                  <c:v>0.6074227094650269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5662399530410767</c:v>
+                  <c:v>0.5669278502464294</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5581508278846741</c:v>
+                  <c:v>0.5588288903236389</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5500617027282715</c:v>
+                  <c:v>0.5507299304008484</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4610811173915863</c:v>
+                  <c:v>0.461641252040863</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.44894739985466</c:v>
+                  <c:v>0.4494928121566773</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4044571220874786</c:v>
+                  <c:v>0.4049484729766846</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3761451244354248</c:v>
+                  <c:v>0.3766020834445953</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3559222519397736</c:v>
+                  <c:v>0.3563546538352966</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3437885642051697</c:v>
+                  <c:v>0.3442062139511108</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3276102542877197</c:v>
+                  <c:v>0.3280082643032074</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3235656917095184</c:v>
+                  <c:v>0.3239587843418121</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3154765367507935</c:v>
+                  <c:v>0.3158597946166992</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2507634162902832</c:v>
+                  <c:v>0.2510680556297302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2386296987533569</c:v>
+                  <c:v>0.2389196008443832</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2264959812164307</c:v>
+                  <c:v>0.2267711460590363</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2264959812164307</c:v>
+                  <c:v>0.2267711460590363</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2224514186382294</c:v>
+                  <c:v>0.222721666097641</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2103177011013031</c:v>
+                  <c:v>0.210573211312294</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2103177011013031</c:v>
+                  <c:v>0.210573211312294</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2103177011013031</c:v>
+                  <c:v>0.210573211312294</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2022285610437393</c:v>
+                  <c:v>0.2024742364883423</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1981839835643768</c:v>
+                  <c:v>0.198424756526947</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1941394209861755</c:v>
+                  <c:v>0.1943752616643906</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1900948435068131</c:v>
+                  <c:v>0.1903257817029953</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1900948435068131</c:v>
+                  <c:v>0.1903257817029953</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1739165633916855</c:v>
+                  <c:v>0.1741278469562531</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1536937057971954</c:v>
+                  <c:v>0.1538804173469544</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1456045657396317</c:v>
+                  <c:v>0.1457814425230026</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1334708482027054</c:v>
+                  <c:v>0.1336330026388168</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1334708482027054</c:v>
+                  <c:v>0.1336330026388168</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1294262707233429</c:v>
+                  <c:v>0.1295835077762604</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1253817081451416</c:v>
+                  <c:v>0.1255340278148651</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1213371381163597</c:v>
+                  <c:v>0.1214845404028893</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1213371381163597</c:v>
+                  <c:v>0.1214845404028893</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1132479906082153</c:v>
+                  <c:v>0.1133855730295181</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1132479906082153</c:v>
+                  <c:v>0.1133855730295181</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1132479906082153</c:v>
+                  <c:v>0.1133855730295181</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1011142805218697</c:v>
+                  <c:v>0.1012371182441711</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09706971049308777</c:v>
+                  <c:v>0.09718763083219528</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09706971049308777</c:v>
+                  <c:v>0.09718763083219528</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09706971049308777</c:v>
+                  <c:v>0.09718763083219528</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09302514046430588</c:v>
+                  <c:v>0.09313815087080002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08898056298494339</c:v>
+                  <c:v>0.08908866345882416</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08898056298494339</c:v>
+                  <c:v>0.08908866345882416</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08089142292737961</c:v>
+                  <c:v>0.08098969608545303</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08089142292737961</c:v>
+                  <c:v>0.08098969608545303</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08089142292737961</c:v>
+                  <c:v>0.08098969608545303</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07684685289859772</c:v>
+                  <c:v>0.07694020867347717</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07684685289859772</c:v>
+                  <c:v>0.07694020867347717</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07280228286981583</c:v>
+                  <c:v>0.07289072126150131</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07280228286981583</c:v>
+                  <c:v>0.07289072126150131</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07280228286981583</c:v>
+                  <c:v>0.07289072126150131</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07280228286981583</c:v>
+                  <c:v>0.07289072126150131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06875771284103394</c:v>
+                  <c:v>0.06884124130010605</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06875771284103394</c:v>
+                  <c:v>0.06884124130010605</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06471313536167145</c:v>
+                  <c:v>0.06479175388813019</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06066856905817986</c:v>
+                  <c:v>0.06074227020144463</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.06066856905817986</c:v>
+                  <c:v>0.06074227020144463</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05662399530410767</c:v>
+                  <c:v>0.05669278651475906</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05662399530410767</c:v>
+                  <c:v>0.05669278651475906</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05257942527532578</c:v>
+                  <c:v>0.0526433028280735</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04853485524654388</c:v>
+                  <c:v>0.04859381541609764</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04853485524654388</c:v>
+                  <c:v>0.04859381541609764</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0404457114636898</c:v>
+                  <c:v>0.04049484804272652</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0404457114636898</c:v>
+                  <c:v>0.04049484804272652</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03640114143490791</c:v>
+                  <c:v>0.03644536063075066</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03640114143490791</c:v>
+                  <c:v>0.03644536063075066</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03235656768083572</c:v>
+                  <c:v>0.03239587694406509</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02831199765205383</c:v>
+                  <c:v>0.02834639325737953</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.0202228557318449</c:v>
+                  <c:v>0.02024742402136326</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.0202228557318449</c:v>
+                  <c:v>0.02024742402136326</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01617828384041786</c:v>
+                  <c:v>0.01619793847203255</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01617828384041786</c:v>
+                  <c:v>0.01619793847203255</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.008089141920208931</c:v>
+                  <c:v>0.008098969236016274</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.008089141920208931</c:v>
+                  <c:v>0.008098969236016274</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008089141920208931</c:v>
+                  <c:v>0.008098969236016274</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1877,10 +1877,10 @@
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>3001</v>
+        <v>2941</v>
       </c>
       <c r="E5" s="1">
-        <v>2976</v>
+        <v>2916</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.38645839691162</v>
+        <v>10.39907646179199</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.894012451171875</v>
+        <v>8.904816627502441</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>6.859592914581299</v>
+        <v>6.867926120758057</v>
       </c>
       <c r="C5" s="1">
         <v>3392</v>
@@ -2449,16 +2449,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.068879127502441</v>
+        <v>5.954767227172852</v>
       </c>
       <c r="C6" s="1">
-        <v>3001</v>
+        <v>2941</v>
       </c>
       <c r="D6" s="1">
         <v>1285</v>
       </c>
       <c r="E6" s="1">
-        <v>2976</v>
+        <v>2916</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.966733455657959</v>
+        <v>4.972767353057861</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.740237236022949</v>
+        <v>4.745995998382568</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.586543560028076</v>
+        <v>4.592115879058838</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>3.46215295791626</v>
+        <v>3.46635890007019</v>
       </c>
       <c r="C10" s="1">
         <v>1712</v>
@@ -2579,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.098141431808472</v>
+        <v>3.101905345916748</v>
       </c>
       <c r="C11" s="1">
         <v>1532</v>
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.883779287338257</v>
+        <v>2.887282609939575</v>
       </c>
       <c r="C12" s="1">
         <v>1426</v>
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>2.517745494842529</v>
+        <v>2.520804166793823</v>
       </c>
       <c r="C13" s="1">
         <v>1245</v>
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.303383350372315</v>
+        <v>2.30618143081665</v>
       </c>
       <c r="C14" s="1">
         <v>1139</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.232603311538696</v>
+        <v>2.235315561294556</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>2.066775798797607</v>
+        <v>2.069286584854126</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>2.014196395874023</v>
+        <v>2.016643285751343</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.878703355789185</v>
+        <v>1.880985617637634</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.775566697120667</v>
+        <v>1.777723789215088</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.690630793571472</v>
+        <v>1.692684650421143</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.650184988975525</v>
+        <v>1.6521897315979</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.367065072059631</v>
+        <v>1.368725776672363</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.354931354522705</v>
+        <v>1.356577396392822</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9626079201698303</v>
+        <v>0.9637773633003235</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9342959523200989</v>
+        <v>0.9354309439659119</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8655382394790649</v>
+        <v>0.8665897250175476</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8331816792488098</v>
+        <v>0.8341938257217407</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.796780526638031</v>
+        <v>0.7977485060691834</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7927359342575073</v>
+        <v>0.7936990261077881</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7927359342575073</v>
+        <v>0.7936990261077881</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7684684991836548</v>
+        <v>0.7694020867347717</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7462233901023865</v>
+        <v>0.7471299171447754</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.744201123714447</v>
+        <v>0.7451052069664002</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7037553787231445</v>
+        <v>0.7046103477478027</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.679487943649292</v>
+        <v>0.6803134083747864</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6754434108734131</v>
+        <v>0.6762639284133911</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6713988184928894</v>
+        <v>0.6722144484519959</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6066856980323792</v>
+        <v>0.6074227094650269</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5662399530410767</v>
+        <v>0.5669278502464294</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5581508278846741</v>
+        <v>0.5588288903236389</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5500617027282715</v>
+        <v>0.5507299304008484</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4610811173915863</v>
+        <v>0.461641252040863</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.44894739985466</v>
+        <v>0.4494928121566773</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4044571220874786</v>
+        <v>0.4049484729766846</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3761451244354248</v>
+        <v>0.3766020834445953</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3559222519397736</v>
+        <v>0.3563546538352966</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3437885642051697</v>
+        <v>0.3442062139511108</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3276102542877197</v>
+        <v>0.3280082643032074</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3235656917095184</v>
+        <v>0.3239587843418121</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3154765367507935</v>
+        <v>0.3158597946166992</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2507634162902832</v>
+        <v>0.2510680556297302</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2386296987533569</v>
+        <v>0.2389196008443832</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2264959812164307</v>
+        <v>0.2267711460590363</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2264959812164307</v>
+        <v>0.2267711460590363</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2224514186382294</v>
+        <v>0.222721666097641</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2103177011013031</v>
+        <v>0.210573211312294</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2103177011013031</v>
+        <v>0.210573211312294</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2103177011013031</v>
+        <v>0.210573211312294</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2022285610437393</v>
+        <v>0.2024742364883423</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1981839835643768</v>
+        <v>0.198424756526947</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1941394209861755</v>
+        <v>0.1943752616643906</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1900948435068131</v>
+        <v>0.1903257817029953</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1900948435068131</v>
+        <v>0.1903257817029953</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1739165633916855</v>
+        <v>0.1741278469562531</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1536937057971954</v>
+        <v>0.1538804173469544</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1456045657396317</v>
+        <v>0.1457814425230026</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1334708482027054</v>
+        <v>0.1336330026388168</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1334708482027054</v>
+        <v>0.1336330026388168</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1294262707233429</v>
+        <v>0.1295835077762604</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1253817081451416</v>
+        <v>0.1255340278148651</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1213371381163597</v>
+        <v>0.1214845404028893</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1213371381163597</v>
+        <v>0.1214845404028893</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1132479906082153</v>
+        <v>0.1133855730295181</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1132479906082153</v>
+        <v>0.1133855730295181</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1132479906082153</v>
+        <v>0.1133855730295181</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1011142805218697</v>
+        <v>0.1012371182441711</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09706971049308777</v>
+        <v>0.09718763083219528</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09706971049308777</v>
+        <v>0.09718763083219528</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09706971049308777</v>
+        <v>0.09718763083219528</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09302514046430588</v>
+        <v>0.09313815087080002</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08898056298494339</v>
+        <v>0.08908866345882416</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08898056298494339</v>
+        <v>0.08908866345882416</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08089142292737961</v>
+        <v>0.08098969608545303</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08089142292737961</v>
+        <v>0.08098969608545303</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08089142292737961</v>
+        <v>0.08098969608545303</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07684685289859772</v>
+        <v>0.07694020867347717</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07684685289859772</v>
+        <v>0.07694020867347717</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07280228286981583</v>
+        <v>0.07289072126150131</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07280228286981583</v>
+        <v>0.07289072126150131</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07280228286981583</v>
+        <v>0.07289072126150131</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07280228286981583</v>
+        <v>0.07289072126150131</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06875771284103394</v>
+        <v>0.06884124130010605</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06875771284103394</v>
+        <v>0.06884124130010605</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06471313536167145</v>
+        <v>0.06479175388813019</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06066856905817986</v>
+        <v>0.06074227020144463</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.06066856905817986</v>
+        <v>0.06074227020144463</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05662399530410767</v>
+        <v>0.05669278651475906</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05662399530410767</v>
+        <v>0.05669278651475906</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05257942527532578</v>
+        <v>0.0526433028280735</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04853485524654388</v>
+        <v>0.04859381541609764</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04853485524654388</v>
+        <v>0.04859381541609764</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.0404457114636898</v>
+        <v>0.04049484804272652</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.0404457114636898</v>
+        <v>0.04049484804272652</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03640114143490791</v>
+        <v>0.03644536063075066</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03640114143490791</v>
+        <v>0.03644536063075066</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03235656768083572</v>
+        <v>0.03239587694406509</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02831199765205383</v>
+        <v>0.02834639325737953</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.0202228557318449</v>
+        <v>0.02024742402136326</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.0202228557318449</v>
+        <v>0.02024742402136326</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01617828384041786</v>
+        <v>0.01619793847203255</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01617828384041786</v>
+        <v>0.01619793847203255</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.008089141920208931</v>
+        <v>0.008098969236016274</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.008089141920208931</v>
+        <v>0.008098969236016274</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008089141920208931</v>
+        <v>0.008098969236016274</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.39907646179199</c:v>
+                  <c:v>10.39486694335938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.904816627502441</c:v>
+                  <c:v>8.901212692260742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.867926120758057</c:v>
+                  <c:v>6.865146160125732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.954767227172852</c:v>
+                  <c:v>5.952356815338135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.972767353057861</c:v>
+                  <c:v>4.970754146575928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.745995998382568</c:v>
+                  <c:v>4.744074821472168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.592115879058838</c:v>
+                  <c:v>4.590256690979004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.46635890007019</c:v>
+                  <c:v>3.464955806732178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.101905345916748</c:v>
+                  <c:v>3.10064959526062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.887282609939575</c:v>
+                  <c:v>2.926592350006104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.520804166793823</c:v>
+                  <c:v>2.519783735275269</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.30618143081665</c:v>
+                  <c:v>2.305248022079468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.235315561294556</c:v>
+                  <c:v>2.234410762786865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.069286584854126</c:v>
+                  <c:v>2.068449020385742</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.016643285751343</c:v>
+                  <c:v>2.015827178955078</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.880985617637634</c:v>
+                  <c:v>1.880224227905273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.777723789215088</c:v>
+                  <c:v>1.777004241943359</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.692684650421143</c:v>
+                  <c:v>1.691999435424805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6521897315979</c:v>
+                  <c:v>1.651520967483521</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.368725776672363</c:v>
+                  <c:v>1.368171811103821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.356577396392822</c:v>
+                  <c:v>1.356028199195862</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9637773633003235</c:v>
+                  <c:v>0.9633872509002686</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9354309439659119</c:v>
+                  <c:v>0.9350523352622986</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8665897250175476</c:v>
+                  <c:v>0.8662389516830444</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8341938257217407</c:v>
+                  <c:v>0.8338561654090881</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7977485060691834</c:v>
+                  <c:v>0.7974255681037903</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7936990261077881</c:v>
+                  <c:v>0.793377697467804</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7936990261077881</c:v>
+                  <c:v>0.793377697467804</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7694020867347717</c:v>
+                  <c:v>0.7690906524658203</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7471299171447754</c:v>
+                  <c:v>0.7468274831771851</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7451052069664002</c:v>
+                  <c:v>0.7448036074638367</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7046103477478027</c:v>
+                  <c:v>0.7043251395225525</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6803134083747864</c:v>
+                  <c:v>0.6800380349159241</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6762639284133911</c:v>
+                  <c:v>0.6759902238845825</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6722144484519959</c:v>
+                  <c:v>0.6719423532485962</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6074227094650269</c:v>
+                  <c:v>0.6071768403053284</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5669278502464294</c:v>
+                  <c:v>0.5666983723640442</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5588288903236389</c:v>
+                  <c:v>0.5586026906967163</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5507299304008484</c:v>
+                  <c:v>0.5505070090293884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.461641252040863</c:v>
+                  <c:v>0.4614543914794922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4494928121566773</c:v>
+                  <c:v>0.4493108689785004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4049484729766846</c:v>
+                  <c:v>0.4047845602035523</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3766020834445953</c:v>
+                  <c:v>0.3764496445655823</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3563546538352966</c:v>
+                  <c:v>0.3562104105949402</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3442062139511108</c:v>
+                  <c:v>0.344066858291626</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3280082643032074</c:v>
+                  <c:v>0.3278754949569702</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3239587843418121</c:v>
+                  <c:v>0.3238276541233063</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3158597946166992</c:v>
+                  <c:v>0.315731942653656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2510680556297302</c:v>
+                  <c:v>0.2509664297103882</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2389196008443832</c:v>
+                  <c:v>0.2388228923082352</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2267711460590363</c:v>
+                  <c:v>0.2266793549060822</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2267711460590363</c:v>
+                  <c:v>0.2266793549060822</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.222721666097641</c:v>
+                  <c:v>0.222631499171257</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.210573211312294</c:v>
+                  <c:v>0.210487961769104</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.210573211312294</c:v>
+                  <c:v>0.210487961769104</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.210573211312294</c:v>
+                  <c:v>0.210487961769104</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2024742364883423</c:v>
+                  <c:v>0.2023922801017761</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.198424756526947</c:v>
+                  <c:v>0.198344424366951</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1943752616643906</c:v>
+                  <c:v>0.1942965835332871</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1903257817029953</c:v>
+                  <c:v>0.1902487426996231</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1903257817029953</c:v>
+                  <c:v>0.1902487426996231</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1741278469562531</c:v>
+                  <c:v>0.1740573644638062</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1538804173469544</c:v>
+                  <c:v>0.1538181304931641</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1457814425230026</c:v>
+                  <c:v>0.145722433924675</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1336330026388168</c:v>
+                  <c:v>0.133578896522522</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1336330026388168</c:v>
+                  <c:v>0.133578896522522</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1295835077762604</c:v>
+                  <c:v>0.129531055688858</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1255340278148651</c:v>
+                  <c:v>0.1254832148551941</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1214845404028893</c:v>
+                  <c:v>0.1214353665709496</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1214845404028893</c:v>
+                  <c:v>0.1214353665709496</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1133855730295181</c:v>
+                  <c:v>0.1133396774530411</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1133855730295181</c:v>
+                  <c:v>0.1133396774530411</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1133855730295181</c:v>
+                  <c:v>0.1133396774530411</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1012371182441711</c:v>
+                  <c:v>0.1011961400508881</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09718763083219528</c:v>
+                  <c:v>0.09714829176664352</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09718763083219528</c:v>
+                  <c:v>0.09714829176664352</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09718763083219528</c:v>
+                  <c:v>0.09714829176664352</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09313815087080002</c:v>
+                  <c:v>0.09310045093297958</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08908866345882416</c:v>
+                  <c:v>0.08905260264873505</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08908866345882416</c:v>
+                  <c:v>0.08905260264873505</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08098969608545303</c:v>
+                  <c:v>0.08095691353082657</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08098969608545303</c:v>
+                  <c:v>0.08095691353082657</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08098969608545303</c:v>
+                  <c:v>0.08095691353082657</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07694020867347717</c:v>
+                  <c:v>0.07690906524658203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07694020867347717</c:v>
+                  <c:v>0.07690906524658203</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07289072126150131</c:v>
+                  <c:v>0.07286121696233749</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07289072126150131</c:v>
+                  <c:v>0.07286121696233749</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07289072126150131</c:v>
+                  <c:v>0.07286121696233749</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07289072126150131</c:v>
+                  <c:v>0.07286121696233749</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06884124130010605</c:v>
+                  <c:v>0.06881337612867355</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06884124130010605</c:v>
+                  <c:v>0.06881337612867355</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06479175388813019</c:v>
+                  <c:v>0.06476552784442902</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06074227020144463</c:v>
+                  <c:v>0.06071768328547478</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.06074227020144463</c:v>
+                  <c:v>0.06071768328547478</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05669278651475906</c:v>
+                  <c:v>0.05666983872652054</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05669278651475906</c:v>
+                  <c:v>0.05666983872652054</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0526433028280735</c:v>
+                  <c:v>0.052621990442276</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04859381541609764</c:v>
+                  <c:v>0.04857414588332176</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04859381541609764</c:v>
+                  <c:v>0.04857414588332176</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.04049484804272652</c:v>
+                  <c:v>0.04047845676541328</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.04049484804272652</c:v>
+                  <c:v>0.04047845676541328</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03644536063075066</c:v>
+                  <c:v>0.03643060848116875</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03644536063075066</c:v>
+                  <c:v>0.03643060848116875</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03239587694406509</c:v>
+                  <c:v>0.03238276392221451</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02834639325737953</c:v>
+                  <c:v>0.02833491936326027</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.02024742402136326</c:v>
+                  <c:v>0.02023922838270664</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.02024742402136326</c:v>
+                  <c:v>0.02023922838270664</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01619793847203255</c:v>
+                  <c:v>0.01619138196110725</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01619793847203255</c:v>
+                  <c:v>0.01619138196110725</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.008098969236016274</c:v>
+                  <c:v>0.008095690980553627</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.008098969236016274</c:v>
+                  <c:v>0.008095690980553627</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008098969236016274</c:v>
+                  <c:v>0.008095690980553627</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1851,10 +1851,10 @@
         <v>3082</v>
       </c>
       <c r="D4" s="1">
-        <v>1426</v>
+        <v>1446</v>
       </c>
       <c r="E4" s="1">
-        <v>1416</v>
+        <v>1436</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.39907646179199</v>
+        <v>10.39486694335938</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.904816627502441</v>
+        <v>8.901212692260742</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>6.867926120758057</v>
+        <v>6.865146160125732</v>
       </c>
       <c r="C5" s="1">
         <v>3392</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>5.954767227172852</v>
+        <v>5.952356815338135</v>
       </c>
       <c r="C6" s="1">
         <v>2941</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.972767353057861</v>
+        <v>4.970754146575928</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.745995998382568</v>
+        <v>4.744074821472168</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.592115879058838</v>
+        <v>4.590256690979004</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>3.46635890007019</v>
+        <v>3.464955806732178</v>
       </c>
       <c r="C10" s="1">
         <v>1712</v>
@@ -2579,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.101905345916748</v>
+        <v>3.10064959526062</v>
       </c>
       <c r="C11" s="1">
         <v>1532</v>
@@ -2605,16 +2605,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.887282609939575</v>
+        <v>2.926592350006104</v>
       </c>
       <c r="C12" s="1">
-        <v>1426</v>
+        <v>1446</v>
       </c>
       <c r="D12" s="1">
         <v>3082</v>
       </c>
       <c r="E12" s="1">
-        <v>1416</v>
+        <v>1436</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>2.520804166793823</v>
+        <v>2.519783735275269</v>
       </c>
       <c r="C13" s="1">
         <v>1245</v>
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.30618143081665</v>
+        <v>2.305248022079468</v>
       </c>
       <c r="C14" s="1">
         <v>1139</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.235315561294556</v>
+        <v>2.234410762786865</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>2.069286584854126</v>
+        <v>2.068449020385742</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>2.016643285751343</v>
+        <v>2.015827178955078</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.880985617637634</v>
+        <v>1.880224227905273</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.777723789215088</v>
+        <v>1.777004241943359</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.692684650421143</v>
+        <v>1.691999435424805</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.6521897315979</v>
+        <v>1.651520967483521</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.368725776672363</v>
+        <v>1.368171811103821</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.356577396392822</v>
+        <v>1.356028199195862</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9637773633003235</v>
+        <v>0.9633872509002686</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9354309439659119</v>
+        <v>0.9350523352622986</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8665897250175476</v>
+        <v>0.8662389516830444</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8341938257217407</v>
+        <v>0.8338561654090881</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7977485060691834</v>
+        <v>0.7974255681037903</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7936990261077881</v>
+        <v>0.793377697467804</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7936990261077881</v>
+        <v>0.793377697467804</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7694020867347717</v>
+        <v>0.7690906524658203</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7471299171447754</v>
+        <v>0.7468274831771851</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7451052069664002</v>
+        <v>0.7448036074638367</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7046103477478027</v>
+        <v>0.7043251395225525</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6803134083747864</v>
+        <v>0.6800380349159241</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6762639284133911</v>
+        <v>0.6759902238845825</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6722144484519959</v>
+        <v>0.6719423532485962</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6074227094650269</v>
+        <v>0.6071768403053284</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5669278502464294</v>
+        <v>0.5666983723640442</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5588288903236389</v>
+        <v>0.5586026906967163</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5507299304008484</v>
+        <v>0.5505070090293884</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.461641252040863</v>
+        <v>0.4614543914794922</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4494928121566773</v>
+        <v>0.4493108689785004</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4049484729766846</v>
+        <v>0.4047845602035523</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3766020834445953</v>
+        <v>0.3764496445655823</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3563546538352966</v>
+        <v>0.3562104105949402</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3442062139511108</v>
+        <v>0.344066858291626</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3280082643032074</v>
+        <v>0.3278754949569702</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3239587843418121</v>
+        <v>0.3238276541233063</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3158597946166992</v>
+        <v>0.315731942653656</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2510680556297302</v>
+        <v>0.2509664297103882</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2389196008443832</v>
+        <v>0.2388228923082352</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2267711460590363</v>
+        <v>0.2266793549060822</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2267711460590363</v>
+        <v>0.2266793549060822</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.222721666097641</v>
+        <v>0.222631499171257</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.210573211312294</v>
+        <v>0.210487961769104</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.210573211312294</v>
+        <v>0.210487961769104</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.210573211312294</v>
+        <v>0.210487961769104</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2024742364883423</v>
+        <v>0.2023922801017761</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.198424756526947</v>
+        <v>0.198344424366951</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1943752616643906</v>
+        <v>0.1942965835332871</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1903257817029953</v>
+        <v>0.1902487426996231</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1903257817029953</v>
+        <v>0.1902487426996231</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1741278469562531</v>
+        <v>0.1740573644638062</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1538804173469544</v>
+        <v>0.1538181304931641</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1457814425230026</v>
+        <v>0.145722433924675</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1336330026388168</v>
+        <v>0.133578896522522</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1336330026388168</v>
+        <v>0.133578896522522</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1295835077762604</v>
+        <v>0.129531055688858</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1255340278148651</v>
+        <v>0.1254832148551941</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1214845404028893</v>
+        <v>0.1214353665709496</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1214845404028893</v>
+        <v>0.1214353665709496</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1133855730295181</v>
+        <v>0.1133396774530411</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1133855730295181</v>
+        <v>0.1133396774530411</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1133855730295181</v>
+        <v>0.1133396774530411</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1012371182441711</v>
+        <v>0.1011961400508881</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09718763083219528</v>
+        <v>0.09714829176664352</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09718763083219528</v>
+        <v>0.09714829176664352</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09718763083219528</v>
+        <v>0.09714829176664352</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09313815087080002</v>
+        <v>0.09310045093297958</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08908866345882416</v>
+        <v>0.08905260264873505</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08908866345882416</v>
+        <v>0.08905260264873505</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08098969608545303</v>
+        <v>0.08095691353082657</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08098969608545303</v>
+        <v>0.08095691353082657</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08098969608545303</v>
+        <v>0.08095691353082657</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07694020867347717</v>
+        <v>0.07690906524658203</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07694020867347717</v>
+        <v>0.07690906524658203</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07289072126150131</v>
+        <v>0.07286121696233749</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07289072126150131</v>
+        <v>0.07286121696233749</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07289072126150131</v>
+        <v>0.07286121696233749</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07289072126150131</v>
+        <v>0.07286121696233749</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06884124130010605</v>
+        <v>0.06881337612867355</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06884124130010605</v>
+        <v>0.06881337612867355</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06479175388813019</v>
+        <v>0.06476552784442902</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06074227020144463</v>
+        <v>0.06071768328547478</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.06074227020144463</v>
+        <v>0.06071768328547478</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05669278651475906</v>
+        <v>0.05666983872652054</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05669278651475906</v>
+        <v>0.05666983872652054</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.0526433028280735</v>
+        <v>0.052621990442276</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04859381541609764</v>
+        <v>0.04857414588332176</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04859381541609764</v>
+        <v>0.04857414588332176</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.04049484804272652</v>
+        <v>0.04047845676541328</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.04049484804272652</v>
+        <v>0.04047845676541328</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03644536063075066</v>
+        <v>0.03643060848116875</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03644536063075066</v>
+        <v>0.03643060848116875</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03239587694406509</v>
+        <v>0.03238276392221451</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02834639325737953</v>
+        <v>0.02833491936326027</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.02024742402136326</v>
+        <v>0.02023922838270664</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.02024742402136326</v>
+        <v>0.02023922838270664</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01619793847203255</v>
+        <v>0.01619138196110725</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01619793847203255</v>
+        <v>0.01619138196110725</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.008098969236016274</v>
+        <v>0.008095690980553627</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.008098969236016274</v>
+        <v>0.008095690980553627</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008098969236016274</v>
+        <v>0.008095690980553627</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -689,10 +689,10 @@
                   <c:v>printfa.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>application.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>app_ps2.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>application.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>uart.o</c:v>
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.39486694335938</c:v>
+                  <c:v>10.04557323455811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.901212692260742</c:v>
+                  <c:v>8.602108001708984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.865146160125732</c:v>
+                  <c:v>7.76497745513916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.952356815338135</c:v>
+                  <c:v>6.87894868850708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.970754146575928</c:v>
+                  <c:v>4.80372428894043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.744074821472168</c:v>
+                  <c:v>4.584661960601807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.590256690979004</c:v>
+                  <c:v>4.436012268066406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.464955806732178</c:v>
+                  <c:v>3.544115543365479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.10064959526062</c:v>
+                  <c:v>3.348524332046509</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.926592350006104</c:v>
+                  <c:v>2.9221351146698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.519783735275269</c:v>
+                  <c:v>2.896708250045776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.305248022079468</c:v>
+                  <c:v>2.22778582572937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.234410762786865</c:v>
+                  <c:v>2.159328699111939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.068449020385742</c:v>
+                  <c:v>1.99894380569458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.015827178955078</c:v>
+                  <c:v>1.948090076446533</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.880224227905273</c:v>
+                  <c:v>1.817043781280518</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.777004241943359</c:v>
+                  <c:v>1.717292189598084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.691999435424805</c:v>
+                  <c:v>1.635143876075745</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.651520967483521</c:v>
+                  <c:v>1.596025586128235</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.368171811103821</c:v>
+                  <c:v>1.322197675704956</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.356028199195862</c:v>
+                  <c:v>1.310462236404419</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9633872509002686</c:v>
+                  <c:v>0.931014895439148</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9350523352622986</c:v>
+                  <c:v>0.9036321043968201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8662389516830444</c:v>
+                  <c:v>0.8371310830116272</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8338561654090881</c:v>
+                  <c:v>0.8058364391326904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7974255681037903</c:v>
+                  <c:v>0.7706300020217896</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.793377697467804</c:v>
+                  <c:v>0.7667181491851807</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.793377697467804</c:v>
+                  <c:v>0.7667181491851807</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7690906524658203</c:v>
+                  <c:v>0.7432472109794617</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7468274831771851</c:v>
+                  <c:v>0.7217321395874023</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7448036074638367</c:v>
+                  <c:v>0.7197762727737427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7043251395225525</c:v>
+                  <c:v>0.6806579828262329</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6800380349159241</c:v>
+                  <c:v>0.6571869850158691</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6759902238845825</c:v>
+                  <c:v>0.653275191783905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6719423532485962</c:v>
+                  <c:v>0.6493633389472961</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6071768403053284</c:v>
+                  <c:v>0.5867741107940674</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5666983723640442</c:v>
+                  <c:v>0.5476558208465576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5586026906967163</c:v>
+                  <c:v>0.5398321747779846</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5505070090293884</c:v>
+                  <c:v>0.5320085287094116</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4614543914794922</c:v>
+                  <c:v>0.4459483325481415</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4493108689785004</c:v>
+                  <c:v>0.4342128336429596</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4047845602035523</c:v>
+                  <c:v>0.3911827504634857</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3764496445655823</c:v>
+                  <c:v>0.3637999594211578</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3562104105949402</c:v>
+                  <c:v>0.344240814447403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.344066858291626</c:v>
+                  <c:v>0.3325053155422211</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3278754949569702</c:v>
+                  <c:v>0.3168580234050751</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3238276541233063</c:v>
+                  <c:v>0.3129462003707886</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.315731942653656</c:v>
+                  <c:v>0.3051225244998932</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2509664297103882</c:v>
+                  <c:v>0.2425332963466644</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2388228923082352</c:v>
+                  <c:v>0.2307978123426437</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2266793549060822</c:v>
+                  <c:v>0.2190623283386231</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2266793549060822</c:v>
+                  <c:v>0.2190623283386231</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.222631499171257</c:v>
+                  <c:v>0.2151505053043366</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.210487961769104</c:v>
+                  <c:v>0.2034150213003159</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.210487961769104</c:v>
+                  <c:v>0.2034150213003159</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.210487961769104</c:v>
+                  <c:v>0.2034150213003159</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2023922801017761</c:v>
+                  <c:v>0.1955913752317429</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.198344424366951</c:v>
+                  <c:v>0.1916795372962952</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1942965835332871</c:v>
+                  <c:v>0.1877677142620087</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1902487426996231</c:v>
+                  <c:v>0.1838558912277222</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1902487426996231</c:v>
+                  <c:v>0.1838558912277222</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1740573644638062</c:v>
+                  <c:v>0.168208584189415</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1538181304931641</c:v>
+                  <c:v>0.1486494392156601</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.145722433924675</c:v>
+                  <c:v>0.1408257931470871</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.133578896522522</c:v>
+                  <c:v>0.1290903091430664</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.133578896522522</c:v>
+                  <c:v>0.1290903091430664</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.129531055688858</c:v>
+                  <c:v>0.1251784712076187</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1254832148551941</c:v>
+                  <c:v>0.1212666481733322</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1214353665709496</c:v>
+                  <c:v>0.1173548251390457</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1214353665709496</c:v>
+                  <c:v>0.1173548251390457</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1133396774530411</c:v>
+                  <c:v>0.1095311641693115</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1133396774530411</c:v>
+                  <c:v>0.1095311641693115</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1133396774530411</c:v>
+                  <c:v>0.1095311641693115</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1011961400508881</c:v>
+                  <c:v>0.09779568761587143</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09714829176664352</c:v>
+                  <c:v>0.09388385713100433</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09714829176664352</c:v>
+                  <c:v>0.09388385713100433</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09714829176664352</c:v>
+                  <c:v>0.09388385713100433</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09310045093297958</c:v>
+                  <c:v>0.08997203409671783</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08905260264873505</c:v>
+                  <c:v>0.08606020361185074</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08905260264873505</c:v>
+                  <c:v>0.08606020361185074</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08095691353082657</c:v>
+                  <c:v>0.07823655009269714</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08095691353082657</c:v>
+                  <c:v>0.07823655009269714</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08095691353082657</c:v>
+                  <c:v>0.07823655009269714</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07690906524658203</c:v>
+                  <c:v>0.07432471960783005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07690906524658203</c:v>
+                  <c:v>0.07432471960783005</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07286121696233749</c:v>
+                  <c:v>0.07041289657354355</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07286121696233749</c:v>
+                  <c:v>0.07041289657354355</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07286121696233749</c:v>
+                  <c:v>0.07041289657354355</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07286121696233749</c:v>
+                  <c:v>0.07041289657354355</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06881337612867355</c:v>
+                  <c:v>0.06650106608867645</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06881337612867355</c:v>
+                  <c:v>0.06650106608867645</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06476552784442902</c:v>
+                  <c:v>0.06258923560380936</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06071768328547478</c:v>
+                  <c:v>0.05867741256952286</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.06071768328547478</c:v>
+                  <c:v>0.05867741256952286</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05666983872652054</c:v>
+                  <c:v>0.05476558208465576</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05666983872652054</c:v>
+                  <c:v>0.05476558208465576</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.052621990442276</c:v>
+                  <c:v>0.05085375532507896</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04857414588332176</c:v>
+                  <c:v>0.04694192856550217</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04857414588332176</c:v>
+                  <c:v>0.04694192856550217</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.04047845676541328</c:v>
+                  <c:v>0.03911827504634857</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.04047845676541328</c:v>
+                  <c:v>0.03911827504634857</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03643060848116875</c:v>
+                  <c:v>0.03520644828677177</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03643060848116875</c:v>
+                  <c:v>0.03520644828677177</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03238276392221451</c:v>
+                  <c:v>0.03129461780190468</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02833491936326027</c:v>
+                  <c:v>0.02738279104232788</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.02023922838270664</c:v>
+                  <c:v>0.01955913752317429</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.02023922838270664</c:v>
+                  <c:v>0.01955913752317429</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01619138196110725</c:v>
+                  <c:v>0.01564730890095234</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01619138196110725</c:v>
+                  <c:v>0.01564730890095234</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.008095690980553627</c:v>
+                  <c:v>0.00782365445047617</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.008095690980553627</c:v>
+                  <c:v>0.00782365445047617</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008095690980553627</c:v>
+                  <c:v>0.00782365445047617</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1851,10 +1851,10 @@
         <v>3082</v>
       </c>
       <c r="D4" s="1">
-        <v>1446</v>
+        <v>1494</v>
       </c>
       <c r="E4" s="1">
-        <v>1436</v>
+        <v>1484</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>2941</v>
+        <v>3517</v>
       </c>
       <c r="E5" s="1">
-        <v>2916</v>
+        <v>3492</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1903,10 +1903,10 @@
         <v>1029</v>
       </c>
       <c r="D6" s="1">
-        <v>1245</v>
+        <v>1481</v>
       </c>
       <c r="E6" s="1">
-        <v>216</v>
+        <v>452</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>1532</v>
+        <v>1812</v>
       </c>
       <c r="E12" s="1">
-        <v>1480</v>
+        <v>1784</v>
       </c>
       <c r="F12" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>28</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.39486694335938</v>
+        <v>10.04557323455811</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.901212692260742</v>
+        <v>8.602108001708984</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>6.865146160125732</v>
+        <v>7.76497745513916</v>
       </c>
       <c r="C5" s="1">
-        <v>3392</v>
+        <v>3970</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>742</v>
       </c>
       <c r="F5" s="1">
-        <v>2650</v>
+        <v>3228</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>5.952356815338135</v>
+        <v>6.87894868850708</v>
       </c>
       <c r="C6" s="1">
-        <v>2941</v>
+        <v>3517</v>
       </c>
       <c r="D6" s="1">
         <v>1285</v>
       </c>
       <c r="E6" s="1">
-        <v>2916</v>
+        <v>3492</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.970754146575928</v>
+        <v>4.80372428894043</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.744074821472168</v>
+        <v>4.584661960601807</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.590256690979004</v>
+        <v>4.436012268066406</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2550,25 +2550,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3.464955806732178</v>
+        <v>3.544115543365479</v>
       </c>
       <c r="C10" s="1">
-        <v>1712</v>
+        <v>1812</v>
       </c>
       <c r="D10" s="1">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
-        <v>700</v>
+        <v>1784</v>
       </c>
       <c r="F10" s="1">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2576,25 +2576,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.10064959526062</v>
+        <v>3.348524332046509</v>
       </c>
       <c r="C11" s="1">
-        <v>1532</v>
+        <v>1712</v>
       </c>
       <c r="D11" s="1">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1">
-        <v>1480</v>
+        <v>700</v>
       </c>
       <c r="F11" s="1">
-        <v>24</v>
+        <v>870</v>
       </c>
       <c r="G11" s="1">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.926592350006104</v>
+        <v>2.9221351146698</v>
       </c>
       <c r="C12" s="1">
-        <v>1446</v>
+        <v>1494</v>
       </c>
       <c r="D12" s="1">
         <v>3082</v>
       </c>
       <c r="E12" s="1">
-        <v>1436</v>
+        <v>1484</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>2.519783735275269</v>
+        <v>2.896708250045776</v>
       </c>
       <c r="C13" s="1">
-        <v>1245</v>
+        <v>1481</v>
       </c>
       <c r="D13" s="1">
         <v>1029</v>
       </c>
       <c r="E13" s="1">
-        <v>216</v>
+        <v>452</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.305248022079468</v>
+        <v>2.22778582572937</v>
       </c>
       <c r="C14" s="1">
         <v>1139</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.234410762786865</v>
+        <v>2.159328699111939</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>2.068449020385742</v>
+        <v>1.99894380569458</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>2.015827178955078</v>
+        <v>1.948090076446533</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.880224227905273</v>
+        <v>1.817043781280518</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.777004241943359</v>
+        <v>1.717292189598084</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.691999435424805</v>
+        <v>1.635143876075745</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.651520967483521</v>
+        <v>1.596025586128235</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.368171811103821</v>
+        <v>1.322197675704956</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.356028199195862</v>
+        <v>1.310462236404419</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9633872509002686</v>
+        <v>0.931014895439148</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9350523352622986</v>
+        <v>0.9036321043968201</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8662389516830444</v>
+        <v>0.8371310830116272</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8338561654090881</v>
+        <v>0.8058364391326904</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7974255681037903</v>
+        <v>0.7706300020217896</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.793377697467804</v>
+        <v>0.7667181491851807</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.793377697467804</v>
+        <v>0.7667181491851807</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7690906524658203</v>
+        <v>0.7432472109794617</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7468274831771851</v>
+        <v>0.7217321395874023</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7448036074638367</v>
+        <v>0.7197762727737427</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7043251395225525</v>
+        <v>0.6806579828262329</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6800380349159241</v>
+        <v>0.6571869850158691</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6759902238845825</v>
+        <v>0.653275191783905</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6719423532485962</v>
+        <v>0.6493633389472961</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6071768403053284</v>
+        <v>0.5867741107940674</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5666983723640442</v>
+        <v>0.5476558208465576</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5586026906967163</v>
+        <v>0.5398321747779846</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5505070090293884</v>
+        <v>0.5320085287094116</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4614543914794922</v>
+        <v>0.4459483325481415</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4493108689785004</v>
+        <v>0.4342128336429596</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4047845602035523</v>
+        <v>0.3911827504634857</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3764496445655823</v>
+        <v>0.3637999594211578</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3562104105949402</v>
+        <v>0.344240814447403</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.344066858291626</v>
+        <v>0.3325053155422211</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3278754949569702</v>
+        <v>0.3168580234050751</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3238276541233063</v>
+        <v>0.3129462003707886</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.315731942653656</v>
+        <v>0.3051225244998932</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2509664297103882</v>
+        <v>0.2425332963466644</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2388228923082352</v>
+        <v>0.2307978123426437</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2266793549060822</v>
+        <v>0.2190623283386231</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2266793549060822</v>
+        <v>0.2190623283386231</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.222631499171257</v>
+        <v>0.2151505053043366</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.210487961769104</v>
+        <v>0.2034150213003159</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.210487961769104</v>
+        <v>0.2034150213003159</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.210487961769104</v>
+        <v>0.2034150213003159</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2023922801017761</v>
+        <v>0.1955913752317429</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.198344424366951</v>
+        <v>0.1916795372962952</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1942965835332871</v>
+        <v>0.1877677142620087</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1902487426996231</v>
+        <v>0.1838558912277222</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1902487426996231</v>
+        <v>0.1838558912277222</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1740573644638062</v>
+        <v>0.168208584189415</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1538181304931641</v>
+        <v>0.1486494392156601</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.145722433924675</v>
+        <v>0.1408257931470871</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.133578896522522</v>
+        <v>0.1290903091430664</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.133578896522522</v>
+        <v>0.1290903091430664</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.129531055688858</v>
+        <v>0.1251784712076187</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1254832148551941</v>
+        <v>0.1212666481733322</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1214353665709496</v>
+        <v>0.1173548251390457</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1214353665709496</v>
+        <v>0.1173548251390457</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1133396774530411</v>
+        <v>0.1095311641693115</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1133396774530411</v>
+        <v>0.1095311641693115</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1133396774530411</v>
+        <v>0.1095311641693115</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1011961400508881</v>
+        <v>0.09779568761587143</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09714829176664352</v>
+        <v>0.09388385713100433</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09714829176664352</v>
+        <v>0.09388385713100433</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09714829176664352</v>
+        <v>0.09388385713100433</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09310045093297958</v>
+        <v>0.08997203409671783</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08905260264873505</v>
+        <v>0.08606020361185074</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08905260264873505</v>
+        <v>0.08606020361185074</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08095691353082657</v>
+        <v>0.07823655009269714</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08095691353082657</v>
+        <v>0.07823655009269714</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08095691353082657</v>
+        <v>0.07823655009269714</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07690906524658203</v>
+        <v>0.07432471960783005</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07690906524658203</v>
+        <v>0.07432471960783005</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07286121696233749</v>
+        <v>0.07041289657354355</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07286121696233749</v>
+        <v>0.07041289657354355</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07286121696233749</v>
+        <v>0.07041289657354355</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07286121696233749</v>
+        <v>0.07041289657354355</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06881337612867355</v>
+        <v>0.06650106608867645</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06881337612867355</v>
+        <v>0.06650106608867645</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06476552784442902</v>
+        <v>0.06258923560380936</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06071768328547478</v>
+        <v>0.05867741256952286</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.06071768328547478</v>
+        <v>0.05867741256952286</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05666983872652054</v>
+        <v>0.05476558208465576</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05666983872652054</v>
+        <v>0.05476558208465576</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.052621990442276</v>
+        <v>0.05085375532507896</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04857414588332176</v>
+        <v>0.04694192856550217</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04857414588332176</v>
+        <v>0.04694192856550217</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.04047845676541328</v>
+        <v>0.03911827504634857</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.04047845676541328</v>
+        <v>0.03911827504634857</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03643060848116875</v>
+        <v>0.03520644828677177</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03643060848116875</v>
+        <v>0.03520644828677177</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03238276392221451</v>
+        <v>0.03129461780190468</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02833491936326027</v>
+        <v>0.02738279104232788</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.02023922838270664</v>
+        <v>0.01955913752317429</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.02023922838270664</v>
+        <v>0.01955913752317429</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01619138196110725</v>
+        <v>0.01564730890095234</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01619138196110725</v>
+        <v>0.01564730890095234</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.008095690980553627</v>
+        <v>0.00782365445047617</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.008095690980553627</v>
+        <v>0.00782365445047617</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008095690980553627</v>
+        <v>0.00782365445047617</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -543,58 +543,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>37.18515777587891</c:v>
+                  <c:v>37.18180084228516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.82341766357422</c:v>
+                  <c:v>27.82090568542481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.60061359405518</c:v>
+                  <c:v>11.59956645965576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.289518356323242</c:v>
+                  <c:v>9.288680076599121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.244379997253418</c:v>
+                  <c:v>9.243545532226563</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.058319091796875</c:v>
+                  <c:v>2.058133125305176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.281935572624207</c:v>
+                  <c:v>1.281819820404053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.324997752904892</c:v>
+                  <c:v>0.3249683976173401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2888868749141693</c:v>
+                  <c:v>0.2888607978820801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.252776026725769</c:v>
+                  <c:v>0.2617801129817963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1805543005466461</c:v>
+                  <c:v>0.1805379986763001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1805543005466461</c:v>
+                  <c:v>0.1805379986763001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08124943822622299</c:v>
+                  <c:v>0.08124209940433502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07222171872854233</c:v>
+                  <c:v>0.07221519947052002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03611085936427116</c:v>
+                  <c:v>0.03610759973526001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03611085936427116</c:v>
+                  <c:v>0.03610759973526001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03611085936427116</c:v>
+                  <c:v>0.03610759973526001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02708314545452595</c:v>
+                  <c:v>0.02708069980144501</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -695,10 +695,10 @@
                   <c:v>app_ps2.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>uart.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>function.o</c:v>
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.04557323455811</c:v>
+                  <c:v>10.01481914520264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.602108001708984</c:v>
+                  <c:v>8.575774192810059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.76497745513916</c:v>
+                  <c:v>7.873800754547119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.87894868850708</c:v>
+                  <c:v>6.935886383056641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.80372428894043</c:v>
+                  <c:v>4.789018154144287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.584661960601807</c:v>
+                  <c:v>4.570626258850098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.436012268066406</c:v>
+                  <c:v>4.422431945800781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.544115543365479</c:v>
+                  <c:v>3.574214220046997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.348524332046509</c:v>
+                  <c:v>3.338273048400879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9221351146698</c:v>
+                  <c:v>2.942438125610352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.896708250045776</c:v>
+                  <c:v>2.91318941116333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.22778582572937</c:v>
+                  <c:v>2.220965623855591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.159328699111939</c:v>
+                  <c:v>2.152718305587769</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.99894380569458</c:v>
+                  <c:v>1.99282431602478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.948090076446533</c:v>
+                  <c:v>1.942126154899597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.817043781280518</c:v>
+                  <c:v>1.81148111820221</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.717292189598084</c:v>
+                  <c:v>1.712034940719605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.635143876075745</c:v>
+                  <c:v>1.630138039588928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.596025586128235</c:v>
+                  <c:v>1.591139554977417</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.322197675704956</c:v>
+                  <c:v>1.318149924278259</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.310462236404419</c:v>
+                  <c:v>1.306450366973877</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.931014895439148</c:v>
+                  <c:v>0.9281647205352783</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9036321043968201</c:v>
+                  <c:v>0.9008657932281494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8371310830116272</c:v>
+                  <c:v>0.8345682621002197</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8058364391326904</c:v>
+                  <c:v>0.8033694624900818</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7706300020217896</c:v>
+                  <c:v>0.7682707905769348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7667181491851807</c:v>
+                  <c:v>0.7643709778785706</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7667181491851807</c:v>
+                  <c:v>0.7643709778785706</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7432472109794617</c:v>
+                  <c:v>0.7409718632698059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7217321395874023</c:v>
+                  <c:v>0.7195226550102234</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7197762727737427</c:v>
+                  <c:v>0.7175727486610413</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6806579828262329</c:v>
+                  <c:v>0.6785742044448853</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6571869850158691</c:v>
+                  <c:v>0.6551750898361206</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.653275191783905</c:v>
+                  <c:v>0.6512752771377564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6493633389472961</c:v>
+                  <c:v>0.6473754048347473</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5867741107940674</c:v>
+                  <c:v>0.5849777460098267</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5476558208465576</c:v>
+                  <c:v>0.5459792613983154</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5398321747779846</c:v>
+                  <c:v>0.5381795763969421</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5320085287094116</c:v>
+                  <c:v>0.5303798317909241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4459483325481415</c:v>
+                  <c:v>0.4445831179618835</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4342128336429596</c:v>
+                  <c:v>0.4328835606575012</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3911827504634857</c:v>
+                  <c:v>0.3899851739406586</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3637999594211578</c:v>
+                  <c:v>0.3626862168312073</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.344240814447403</c:v>
+                  <c:v>0.3431869447231293</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3325053155422211</c:v>
+                  <c:v>0.3314874172210693</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3168580234050751</c:v>
+                  <c:v>0.315887987613678</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3129462003707886</c:v>
+                  <c:v>0.3119881451129913</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3051225244998932</c:v>
+                  <c:v>0.3041884303092957</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2425332963466644</c:v>
+                  <c:v>0.2417908161878586</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2307978123426437</c:v>
+                  <c:v>0.2300912588834763</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2190623283386231</c:v>
+                  <c:v>0.2183917015790939</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2190623283386231</c:v>
+                  <c:v>0.2183917015790939</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2151505053043366</c:v>
+                  <c:v>0.2144918441772461</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2034150213003159</c:v>
+                  <c:v>0.2027922868728638</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2034150213003159</c:v>
+                  <c:v>0.2027922868728638</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2034150213003159</c:v>
+                  <c:v>0.2027922868728638</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1955913752317429</c:v>
+                  <c:v>0.1949925869703293</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1916795372962952</c:v>
+                  <c:v>0.1910927444696426</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1877677142620087</c:v>
+                  <c:v>0.1871928870677948</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1838558912277222</c:v>
+                  <c:v>0.183293029665947</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1838558912277222</c:v>
+                  <c:v>0.183293029665947</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.168208584189415</c:v>
+                  <c:v>0.167693629860878</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1486494392156601</c:v>
+                  <c:v>0.1481943726539612</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1408257931470871</c:v>
+                  <c:v>0.1403946578502655</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1290903091430664</c:v>
+                  <c:v>0.1286951154470444</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1290903091430664</c:v>
+                  <c:v>0.1286951154470444</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1251784712076187</c:v>
+                  <c:v>0.1247952580451965</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1212666481733322</c:v>
+                  <c:v>0.1208954080939293</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1173548251390457</c:v>
+                  <c:v>0.1169955506920815</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1173548251390457</c:v>
+                  <c:v>0.1169955506920815</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1095311641693115</c:v>
+                  <c:v>0.109195850789547</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1095311641693115</c:v>
+                  <c:v>0.109195850789547</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1095311641693115</c:v>
+                  <c:v>0.109195850789547</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09779568761587143</c:v>
+                  <c:v>0.09749629348516464</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09388385713100433</c:v>
+                  <c:v>0.0935964435338974</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09388385713100433</c:v>
+                  <c:v>0.0935964435338974</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09388385713100433</c:v>
+                  <c:v>0.0935964435338974</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08997203409671783</c:v>
+                  <c:v>0.08969659358263016</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08606020361185074</c:v>
+                  <c:v>0.08579673618078232</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08606020361185074</c:v>
+                  <c:v>0.08579673618078232</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07823655009269714</c:v>
+                  <c:v>0.07799703627824783</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07823655009269714</c:v>
+                  <c:v>0.07799703627824783</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07823655009269714</c:v>
+                  <c:v>0.07799703627824783</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07432471960783005</c:v>
+                  <c:v>0.07409718632698059</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07432471960783005</c:v>
+                  <c:v>0.07409718632698059</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07041289657354355</c:v>
+                  <c:v>0.07019732892513275</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07041289657354355</c:v>
+                  <c:v>0.07019732892513275</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07041289657354355</c:v>
+                  <c:v>0.07019732892513275</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07041289657354355</c:v>
+                  <c:v>0.07019732892513275</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06650106608867645</c:v>
+                  <c:v>0.06629747897386551</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06650106608867645</c:v>
+                  <c:v>0.06629747897386551</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06258923560380936</c:v>
+                  <c:v>0.06239762902259827</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05867741256952286</c:v>
+                  <c:v>0.05849777534604073</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05867741256952286</c:v>
+                  <c:v>0.05849777534604073</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05476558208465576</c:v>
+                  <c:v>0.05459792539477348</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05476558208465576</c:v>
+                  <c:v>0.05459792539477348</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05085375532507896</c:v>
+                  <c:v>0.05069807171821594</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04694192856550217</c:v>
+                  <c:v>0.0467982217669487</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04694192856550217</c:v>
+                  <c:v>0.0467982217669487</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03911827504634857</c:v>
+                  <c:v>0.03899851813912392</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03911827504634857</c:v>
+                  <c:v>0.03899851813912392</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03520644828677177</c:v>
+                  <c:v>0.03509866446256638</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03520644828677177</c:v>
+                  <c:v>0.03509866446256638</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03129461780190468</c:v>
+                  <c:v>0.03119881451129913</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02738279104232788</c:v>
+                  <c:v>0.02729896269738674</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01955913752317429</c:v>
+                  <c:v>0.01949925906956196</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01955913752317429</c:v>
+                  <c:v>0.01949925906956196</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01564730890095234</c:v>
+                  <c:v>0.01559940725564957</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01564730890095234</c:v>
+                  <c:v>0.01559940725564957</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.00782365445047617</c:v>
+                  <c:v>0.007799703627824783</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.00782365445047617</c:v>
+                  <c:v>0.007799703627824783</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.00782365445047617</c:v>
+                  <c:v>0.007799703627824783</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.18515777587891</v>
+        <v>37.18180084228516</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.82341766357422</v>
+        <v>27.82090568542481</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
@@ -1871,16 +1871,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.60061359405518</v>
+        <v>11.59956645965576</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>3517</v>
+        <v>3557</v>
       </c>
       <c r="E5" s="1">
-        <v>3492</v>
+        <v>3532</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1897,16 +1897,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.289518356323242</v>
+        <v>9.288680076599121</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
       </c>
       <c r="D6" s="1">
-        <v>1481</v>
+        <v>1509</v>
       </c>
       <c r="E6" s="1">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.244379997253418</v>
+        <v>9.243545532226563</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.058319091796875</v>
+        <v>2.058133125305176</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.281935572624207</v>
+        <v>1.281819820404053</v>
       </c>
       <c r="C9" s="1">
         <v>142</v>
@@ -2001,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.324997752904892</v>
+        <v>0.3249683976173401</v>
       </c>
       <c r="C10" s="1">
         <v>36</v>
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2888868749141693</v>
+        <v>0.2888607978820801</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -2053,22 +2053,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.252776026725769</v>
+        <v>0.2617801129817963</v>
       </c>
       <c r="C12" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>1812</v>
+        <v>1833</v>
       </c>
       <c r="E12" s="1">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1805543005466461</v>
+        <v>0.1805379986763001</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1805543005466461</v>
+        <v>0.1805379986763001</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08124943822622299</v>
+        <v>0.08124209940433502</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07222171872854233</v>
+        <v>0.07221519947052002</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03611085936427116</v>
+        <v>0.03610759973526001</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03611085936427116</v>
+        <v>0.03610759973526001</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03611085936427116</v>
+        <v>0.03610759973526001</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02708314545452595</v>
+        <v>0.02708069980144501</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.04557323455811</v>
+        <v>10.01481914520264</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.602108001708984</v>
+        <v>8.575774192810059</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>7.76497745513916</v>
+        <v>7.873800754547119</v>
       </c>
       <c r="C5" s="1">
-        <v>3970</v>
+        <v>4038</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>742</v>
       </c>
       <c r="F5" s="1">
-        <v>3228</v>
+        <v>3296</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.87894868850708</v>
+        <v>6.935886383056641</v>
       </c>
       <c r="C6" s="1">
-        <v>3517</v>
+        <v>3557</v>
       </c>
       <c r="D6" s="1">
         <v>1285</v>
       </c>
       <c r="E6" s="1">
-        <v>3492</v>
+        <v>3532</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.80372428894043</v>
+        <v>4.789018154144287</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.584661960601807</v>
+        <v>4.570626258850098</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.436012268066406</v>
+        <v>4.422431945800781</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,22 +2553,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3.544115543365479</v>
+        <v>3.574214220046997</v>
       </c>
       <c r="C10" s="1">
-        <v>1812</v>
+        <v>1833</v>
       </c>
       <c r="D10" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.348524332046509</v>
+        <v>3.338273048400879</v>
       </c>
       <c r="C11" s="1">
         <v>1712</v>
@@ -2602,54 +2602,54 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>2.9221351146698</v>
+        <v>2.942438125610352</v>
       </c>
       <c r="C12" s="1">
-        <v>1494</v>
+        <v>1509</v>
       </c>
       <c r="D12" s="1">
-        <v>3082</v>
+        <v>1029</v>
       </c>
       <c r="E12" s="1">
-        <v>1484</v>
+        <v>480</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
+        <v>1029</v>
       </c>
       <c r="H12" s="1">
-        <v>3072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.896708250045776</v>
+        <v>2.91318941116333</v>
       </c>
       <c r="C13" s="1">
-        <v>1481</v>
+        <v>1494</v>
       </c>
       <c r="D13" s="1">
-        <v>1029</v>
+        <v>3082</v>
       </c>
       <c r="E13" s="1">
-        <v>452</v>
+        <v>1484</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1029</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.22778582572937</v>
+        <v>2.220965623855591</v>
       </c>
       <c r="C14" s="1">
         <v>1139</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.159328699111939</v>
+        <v>2.152718305587769</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>1.99894380569458</v>
+        <v>1.99282431602478</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.948090076446533</v>
+        <v>1.942126154899597</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.817043781280518</v>
+        <v>1.81148111820221</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.717292189598084</v>
+        <v>1.712034940719605</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.635143876075745</v>
+        <v>1.630138039588928</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.596025586128235</v>
+        <v>1.591139554977417</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.322197675704956</v>
+        <v>1.318149924278259</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.310462236404419</v>
+        <v>1.306450366973877</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.931014895439148</v>
+        <v>0.9281647205352783</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9036321043968201</v>
+        <v>0.9008657932281494</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8371310830116272</v>
+        <v>0.8345682621002197</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8058364391326904</v>
+        <v>0.8033694624900818</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7706300020217896</v>
+        <v>0.7682707905769348</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7667181491851807</v>
+        <v>0.7643709778785706</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7667181491851807</v>
+        <v>0.7643709778785706</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7432472109794617</v>
+        <v>0.7409718632698059</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7217321395874023</v>
+        <v>0.7195226550102234</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7197762727737427</v>
+        <v>0.7175727486610413</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6806579828262329</v>
+        <v>0.6785742044448853</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6571869850158691</v>
+        <v>0.6551750898361206</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.653275191783905</v>
+        <v>0.6512752771377564</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6493633389472961</v>
+        <v>0.6473754048347473</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5867741107940674</v>
+        <v>0.5849777460098267</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5476558208465576</v>
+        <v>0.5459792613983154</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5398321747779846</v>
+        <v>0.5381795763969421</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5320085287094116</v>
+        <v>0.5303798317909241</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4459483325481415</v>
+        <v>0.4445831179618835</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4342128336429596</v>
+        <v>0.4328835606575012</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3911827504634857</v>
+        <v>0.3899851739406586</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3637999594211578</v>
+        <v>0.3626862168312073</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.344240814447403</v>
+        <v>0.3431869447231293</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3325053155422211</v>
+        <v>0.3314874172210693</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3168580234050751</v>
+        <v>0.315887987613678</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3129462003707886</v>
+        <v>0.3119881451129913</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3051225244998932</v>
+        <v>0.3041884303092957</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2425332963466644</v>
+        <v>0.2417908161878586</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2307978123426437</v>
+        <v>0.2300912588834763</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2190623283386231</v>
+        <v>0.2183917015790939</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2190623283386231</v>
+        <v>0.2183917015790939</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2151505053043366</v>
+        <v>0.2144918441772461</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2034150213003159</v>
+        <v>0.2027922868728638</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2034150213003159</v>
+        <v>0.2027922868728638</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2034150213003159</v>
+        <v>0.2027922868728638</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1955913752317429</v>
+        <v>0.1949925869703293</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1916795372962952</v>
+        <v>0.1910927444696426</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1877677142620087</v>
+        <v>0.1871928870677948</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1838558912277222</v>
+        <v>0.183293029665947</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1838558912277222</v>
+        <v>0.183293029665947</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.168208584189415</v>
+        <v>0.167693629860878</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1486494392156601</v>
+        <v>0.1481943726539612</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1408257931470871</v>
+        <v>0.1403946578502655</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1290903091430664</v>
+        <v>0.1286951154470444</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1290903091430664</v>
+        <v>0.1286951154470444</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1251784712076187</v>
+        <v>0.1247952580451965</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1212666481733322</v>
+        <v>0.1208954080939293</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1173548251390457</v>
+        <v>0.1169955506920815</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1173548251390457</v>
+        <v>0.1169955506920815</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1095311641693115</v>
+        <v>0.109195850789547</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1095311641693115</v>
+        <v>0.109195850789547</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1095311641693115</v>
+        <v>0.109195850789547</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09779568761587143</v>
+        <v>0.09749629348516464</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09388385713100433</v>
+        <v>0.0935964435338974</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09388385713100433</v>
+        <v>0.0935964435338974</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09388385713100433</v>
+        <v>0.0935964435338974</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08997203409671783</v>
+        <v>0.08969659358263016</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08606020361185074</v>
+        <v>0.08579673618078232</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08606020361185074</v>
+        <v>0.08579673618078232</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07823655009269714</v>
+        <v>0.07799703627824783</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07823655009269714</v>
+        <v>0.07799703627824783</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07823655009269714</v>
+        <v>0.07799703627824783</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07432471960783005</v>
+        <v>0.07409718632698059</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07432471960783005</v>
+        <v>0.07409718632698059</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07041289657354355</v>
+        <v>0.07019732892513275</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07041289657354355</v>
+        <v>0.07019732892513275</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07041289657354355</v>
+        <v>0.07019732892513275</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07041289657354355</v>
+        <v>0.07019732892513275</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06650106608867645</v>
+        <v>0.06629747897386551</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06650106608867645</v>
+        <v>0.06629747897386551</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06258923560380936</v>
+        <v>0.06239762902259827</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.05867741256952286</v>
+        <v>0.05849777534604073</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.05867741256952286</v>
+        <v>0.05849777534604073</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05476558208465576</v>
+        <v>0.05459792539477348</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05476558208465576</v>
+        <v>0.05459792539477348</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05085375532507896</v>
+        <v>0.05069807171821594</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04694192856550217</v>
+        <v>0.0467982217669487</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04694192856550217</v>
+        <v>0.0467982217669487</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.03911827504634857</v>
+        <v>0.03899851813912392</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.03911827504634857</v>
+        <v>0.03899851813912392</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03520644828677177</v>
+        <v>0.03509866446256638</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03520644828677177</v>
+        <v>0.03509866446256638</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03129461780190468</v>
+        <v>0.03119881451129913</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02738279104232788</v>
+        <v>0.02729896269738674</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01955913752317429</v>
+        <v>0.01949925906956196</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01955913752317429</v>
+        <v>0.01949925906956196</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01564730890095234</v>
+        <v>0.01559940725564957</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01564730890095234</v>
+        <v>0.01559940725564957</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.00782365445047617</v>
+        <v>0.007799703627824783</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.00782365445047617</v>
+        <v>0.007799703627824783</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.00782365445047617</v>
+        <v>0.007799703627824783</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -543,58 +543,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>37.18180084228516</c:v>
+                  <c:v>37.18515777587891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.82090568542481</c:v>
+                  <c:v>27.82341766357422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.59956645965576</c:v>
+                  <c:v>11.60061359405518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.288680076599121</c:v>
+                  <c:v>9.289518356323242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.243545532226563</c:v>
+                  <c:v>9.244379997253418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.058133125305176</c:v>
+                  <c:v>2.058319091796875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.281819820404053</c:v>
+                  <c:v>1.281935572624207</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3249683976173401</c:v>
+                  <c:v>0.324997752904892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2888607978820801</c:v>
+                  <c:v>0.2888868749141693</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2617801129817963</c:v>
+                  <c:v>0.252776026725769</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1805379986763001</c:v>
+                  <c:v>0.1805543005466461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1805379986763001</c:v>
+                  <c:v>0.1805543005466461</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08124209940433502</c:v>
+                  <c:v>0.08124943822622299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07221519947052002</c:v>
+                  <c:v>0.07222171872854233</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03610759973526001</c:v>
+                  <c:v>0.03611085936427116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03610759973526001</c:v>
+                  <c:v>0.03611085936427116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03610759973526001</c:v>
+                  <c:v>0.03611085936427116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02708069980144501</c:v>
+                  <c:v>0.02708314545452595</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.01481914520264</c:v>
+                  <c:v>10.02361488342285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.575774192810059</c:v>
+                  <c:v>8.583305358886719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.873800754547119</c:v>
+                  <c:v>7.880715847015381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.935886383056641</c:v>
+                  <c:v>6.941977977752686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.789018154144287</c:v>
+                  <c:v>4.793223857879639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.570626258850098</c:v>
+                  <c:v>4.574640274047852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.422431945800781</c:v>
+                  <c:v>4.426315784454346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.574214220046997</c:v>
+                  <c:v>3.536368846893311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.338273048400879</c:v>
+                  <c:v>3.341204881668091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.942438125610352</c:v>
+                  <c:v>2.945022344589233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.91318941116333</c:v>
+                  <c:v>2.915747880935669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.220965623855591</c:v>
+                  <c:v>2.176076889038086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.152718305587769</c:v>
+                  <c:v>2.154608726501465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.99282431602478</c:v>
+                  <c:v>1.994574427604675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.942126154899597</c:v>
+                  <c:v>1.94383180141449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.81148111820221</c:v>
+                  <c:v>1.813072085380554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.712034940719605</c:v>
+                  <c:v>1.713538527488709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.630138039588928</c:v>
+                  <c:v>1.631569743156433</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.591139554977417</c:v>
+                  <c:v>1.592536926269531</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.318149924278259</c:v>
+                  <c:v>1.319307565689087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.306450366973877</c:v>
+                  <c:v>1.307597756385803</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9281647205352783</c:v>
+                  <c:v>0.9289798736572266</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9008657932281494</c:v>
+                  <c:v>0.9016569256782532</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8345682621002197</c:v>
+                  <c:v>0.8353012204170227</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8033694624900818</c:v>
+                  <c:v>0.8040750026702881</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7682707905769348</c:v>
+                  <c:v>0.7689455151557922</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7643709778785706</c:v>
+                  <c:v>0.765042245388031</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7643709778785706</c:v>
+                  <c:v>0.765042245388031</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7409718632698059</c:v>
+                  <c:v>0.7416225671768189</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7195226550102234</c:v>
+                  <c:v>0.7201545834541321</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7175727486610413</c:v>
+                  <c:v>0.7182029485702515</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6785742044448853</c:v>
+                  <c:v>0.6791701912879944</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6551750898361206</c:v>
+                  <c:v>0.6557505130767822</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6512752771377564</c:v>
+                  <c:v>0.651847243309021</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6473754048347473</c:v>
+                  <c:v>0.6479439735412598</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5849777460098267</c:v>
+                  <c:v>0.5854915380477905</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5459792613983154</c:v>
+                  <c:v>0.5464587807655335</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5381795763969421</c:v>
+                  <c:v>0.5386521816253662</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5303798317909241</c:v>
+                  <c:v>0.5308456420898438</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4445831179618835</c:v>
+                  <c:v>0.4449735581874847</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4328835606575012</c:v>
+                  <c:v>0.4332637190818787</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3899851739406586</c:v>
+                  <c:v>0.3903276920318604</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3626862168312073</c:v>
+                  <c:v>0.363004744052887</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3431869447231293</c:v>
+                  <c:v>0.3434883654117584</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3314874172210693</c:v>
+                  <c:v>0.3317785263061523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.315887987613678</c:v>
+                  <c:v>0.316165417432785</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3119881451129913</c:v>
+                  <c:v>0.3122621476650238</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3041884303092957</c:v>
+                  <c:v>0.304455578327179</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2417908161878586</c:v>
+                  <c:v>0.2420031577348709</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2300912588834763</c:v>
+                  <c:v>0.230293333530426</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2183917015790939</c:v>
+                  <c:v>0.21858349442482</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2183917015790939</c:v>
+                  <c:v>0.21858349442482</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2144918441772461</c:v>
+                  <c:v>0.2146802246570587</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2027922868728638</c:v>
+                  <c:v>0.2029704004526138</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2027922868728638</c:v>
+                  <c:v>0.2029704004526138</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2027922868728638</c:v>
+                  <c:v>0.2029704004526138</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1949925869703293</c:v>
+                  <c:v>0.1951638460159302</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1910927444696426</c:v>
+                  <c:v>0.1912605613470078</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1871928870677948</c:v>
+                  <c:v>0.1873572915792465</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.183293029665947</c:v>
+                  <c:v>0.1834540069103241</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.183293029665947</c:v>
+                  <c:v>0.1834540069103241</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.167693629860878</c:v>
+                  <c:v>0.1678408980369568</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1481943726539612</c:v>
+                  <c:v>0.1483245193958283</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1403946578502655</c:v>
+                  <c:v>0.1405179649591446</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1286951154470444</c:v>
+                  <c:v>0.1288081407546997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1286951154470444</c:v>
+                  <c:v>0.1288081407546997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1247952580451965</c:v>
+                  <c:v>0.1249048560857773</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1208954080939293</c:v>
+                  <c:v>0.1210015788674355</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1169955506920815</c:v>
+                  <c:v>0.1170983016490936</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1169955506920815</c:v>
+                  <c:v>0.1170983016490936</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.109195850789547</c:v>
+                  <c:v>0.10929174721241</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.109195850789547</c:v>
+                  <c:v>0.10929174721241</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.109195850789547</c:v>
+                  <c:v>0.10929174721241</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09749629348516464</c:v>
+                  <c:v>0.09758192300796509</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0935964435338974</c:v>
+                  <c:v>0.09367864578962326</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0935964435338974</c:v>
+                  <c:v>0.09367864578962326</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0935964435338974</c:v>
+                  <c:v>0.09367864578962326</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08969659358263016</c:v>
+                  <c:v>0.08977536857128143</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08579673618078232</c:v>
+                  <c:v>0.08587209135293961</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08579673618078232</c:v>
+                  <c:v>0.08587209135293961</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07799703627824783</c:v>
+                  <c:v>0.07806553691625595</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07799703627824783</c:v>
+                  <c:v>0.07806553691625595</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07799703627824783</c:v>
+                  <c:v>0.07806553691625595</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07409718632698059</c:v>
+                  <c:v>0.07416225969791412</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07409718632698059</c:v>
+                  <c:v>0.07416225969791412</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07019732892513275</c:v>
+                  <c:v>0.0702589824795723</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07019732892513275</c:v>
+                  <c:v>0.0702589824795723</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07019732892513275</c:v>
+                  <c:v>0.0702589824795723</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07019732892513275</c:v>
+                  <c:v>0.0702589824795723</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06629747897386551</c:v>
+                  <c:v>0.06635570526123047</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06629747897386551</c:v>
+                  <c:v>0.06635570526123047</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06239762902259827</c:v>
+                  <c:v>0.06245242804288864</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05849777534604073</c:v>
+                  <c:v>0.05854915082454681</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05849777534604073</c:v>
+                  <c:v>0.05854915082454681</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05459792539477348</c:v>
+                  <c:v>0.05464587360620499</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05459792539477348</c:v>
+                  <c:v>0.05464587360620499</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05069807171821594</c:v>
+                  <c:v>0.05074260011315346</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0467982217669487</c:v>
+                  <c:v>0.04683932289481163</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0467982217669487</c:v>
+                  <c:v>0.04683932289481163</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03899851813912392</c:v>
+                  <c:v>0.03903276845812798</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03899851813912392</c:v>
+                  <c:v>0.03903276845812798</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03509866446256638</c:v>
+                  <c:v>0.03512949123978615</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03509866446256638</c:v>
+                  <c:v>0.03512949123978615</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03119881451129913</c:v>
+                  <c:v>0.03122621402144432</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02729896269738674</c:v>
+                  <c:v>0.02732293680310249</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01949925906956196</c:v>
+                  <c:v>0.01951638422906399</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01949925906956196</c:v>
+                  <c:v>0.01951638422906399</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01559940725564957</c:v>
+                  <c:v>0.01561310701072216</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01559940725564957</c:v>
+                  <c:v>0.01561310701072216</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.007799703627824783</c:v>
+                  <c:v>0.00780655350536108</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.007799703627824783</c:v>
+                  <c:v>0.00780655350536108</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.007799703627824783</c:v>
+                  <c:v>0.00780655350536108</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.18180084228516</v>
+        <v>37.18515777587891</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.82090568542481</v>
+        <v>27.82341766357422</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.59956645965576</v>
+        <v>11.60061359405518</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.288680076599121</v>
+        <v>9.289518356323242</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.243545532226563</v>
+        <v>9.244379997253418</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.058133125305176</v>
+        <v>2.058319091796875</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.281819820404053</v>
+        <v>1.281935572624207</v>
       </c>
       <c r="C9" s="1">
         <v>142</v>
@@ -2001,16 +2001,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.3249683976173401</v>
+        <v>0.324997752904892</v>
       </c>
       <c r="C10" s="1">
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>1139</v>
+        <v>1115</v>
       </c>
       <c r="E10" s="1">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2888607978820801</v>
+        <v>0.2888868749141693</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -2053,22 +2053,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2617801129817963</v>
+        <v>0.252776026725769</v>
       </c>
       <c r="C12" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>1833</v>
+        <v>1812</v>
       </c>
       <c r="E12" s="1">
-        <v>1804</v>
+        <v>1784</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1805379986763001</v>
+        <v>0.1805543005466461</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1805379986763001</v>
+        <v>0.1805543005466461</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08124209940433502</v>
+        <v>0.08124943822622299</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07221519947052002</v>
+        <v>0.07222171872854233</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03610759973526001</v>
+        <v>0.03611085936427116</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03610759973526001</v>
+        <v>0.03611085936427116</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03610759973526001</v>
+        <v>0.03611085936427116</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02708069980144501</v>
+        <v>0.02708314545452595</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.01481914520264</v>
+        <v>10.02361488342285</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.575774192810059</v>
+        <v>8.583305358886719</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>7.873800754547119</v>
+        <v>7.880715847015381</v>
       </c>
       <c r="C5" s="1">
         <v>4038</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.935886383056641</v>
+        <v>6.941977977752686</v>
       </c>
       <c r="C6" s="1">
         <v>3557</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.789018154144287</v>
+        <v>4.793223857879639</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.570626258850098</v>
+        <v>4.574640274047852</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.422431945800781</v>
+        <v>4.426315784454346</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,22 +2553,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3.574214220046997</v>
+        <v>3.536368846893311</v>
       </c>
       <c r="C10" s="1">
-        <v>1833</v>
+        <v>1812</v>
       </c>
       <c r="D10" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
-        <v>1804</v>
+        <v>1784</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.338273048400879</v>
+        <v>3.341204881668091</v>
       </c>
       <c r="C11" s="1">
         <v>1712</v>
@@ -2605,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>2.942438125610352</v>
+        <v>2.945022344589233</v>
       </c>
       <c r="C12" s="1">
         <v>1509</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.91318941116333</v>
+        <v>2.915747880935669</v>
       </c>
       <c r="C13" s="1">
         <v>1494</v>
@@ -2657,16 +2657,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.220965623855591</v>
+        <v>2.176076889038086</v>
       </c>
       <c r="C14" s="1">
-        <v>1139</v>
+        <v>1115</v>
       </c>
       <c r="D14" s="1">
         <v>36</v>
       </c>
       <c r="E14" s="1">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.152718305587769</v>
+        <v>2.154608726501465</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>1.99282431602478</v>
+        <v>1.994574427604675</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.942126154899597</v>
+        <v>1.94383180141449</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.81148111820221</v>
+        <v>1.813072085380554</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.712034940719605</v>
+        <v>1.713538527488709</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.630138039588928</v>
+        <v>1.631569743156433</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.591139554977417</v>
+        <v>1.592536926269531</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.318149924278259</v>
+        <v>1.319307565689087</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.306450366973877</v>
+        <v>1.307597756385803</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9281647205352783</v>
+        <v>0.9289798736572266</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9008657932281494</v>
+        <v>0.9016569256782532</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8345682621002197</v>
+        <v>0.8353012204170227</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8033694624900818</v>
+        <v>0.8040750026702881</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7682707905769348</v>
+        <v>0.7689455151557922</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7643709778785706</v>
+        <v>0.765042245388031</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7643709778785706</v>
+        <v>0.765042245388031</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7409718632698059</v>
+        <v>0.7416225671768189</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7195226550102234</v>
+        <v>0.7201545834541321</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7175727486610413</v>
+        <v>0.7182029485702515</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6785742044448853</v>
+        <v>0.6791701912879944</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6551750898361206</v>
+        <v>0.6557505130767822</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6512752771377564</v>
+        <v>0.651847243309021</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6473754048347473</v>
+        <v>0.6479439735412598</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5849777460098267</v>
+        <v>0.5854915380477905</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5459792613983154</v>
+        <v>0.5464587807655335</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5381795763969421</v>
+        <v>0.5386521816253662</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5303798317909241</v>
+        <v>0.5308456420898438</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4445831179618835</v>
+        <v>0.4449735581874847</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4328835606575012</v>
+        <v>0.4332637190818787</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3899851739406586</v>
+        <v>0.3903276920318604</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3626862168312073</v>
+        <v>0.363004744052887</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3431869447231293</v>
+        <v>0.3434883654117584</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3314874172210693</v>
+        <v>0.3317785263061523</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.315887987613678</v>
+        <v>0.316165417432785</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3119881451129913</v>
+        <v>0.3122621476650238</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3041884303092957</v>
+        <v>0.304455578327179</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2417908161878586</v>
+        <v>0.2420031577348709</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2300912588834763</v>
+        <v>0.230293333530426</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2183917015790939</v>
+        <v>0.21858349442482</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2183917015790939</v>
+        <v>0.21858349442482</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2144918441772461</v>
+        <v>0.2146802246570587</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2027922868728638</v>
+        <v>0.2029704004526138</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2027922868728638</v>
+        <v>0.2029704004526138</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2027922868728638</v>
+        <v>0.2029704004526138</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1949925869703293</v>
+        <v>0.1951638460159302</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1910927444696426</v>
+        <v>0.1912605613470078</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1871928870677948</v>
+        <v>0.1873572915792465</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.183293029665947</v>
+        <v>0.1834540069103241</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.183293029665947</v>
+        <v>0.1834540069103241</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.167693629860878</v>
+        <v>0.1678408980369568</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1481943726539612</v>
+        <v>0.1483245193958283</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1403946578502655</v>
+        <v>0.1405179649591446</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1286951154470444</v>
+        <v>0.1288081407546997</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1286951154470444</v>
+        <v>0.1288081407546997</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1247952580451965</v>
+        <v>0.1249048560857773</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1208954080939293</v>
+        <v>0.1210015788674355</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1169955506920815</v>
+        <v>0.1170983016490936</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1169955506920815</v>
+        <v>0.1170983016490936</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.109195850789547</v>
+        <v>0.10929174721241</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.109195850789547</v>
+        <v>0.10929174721241</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.109195850789547</v>
+        <v>0.10929174721241</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09749629348516464</v>
+        <v>0.09758192300796509</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.0935964435338974</v>
+        <v>0.09367864578962326</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0935964435338974</v>
+        <v>0.09367864578962326</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0935964435338974</v>
+        <v>0.09367864578962326</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08969659358263016</v>
+        <v>0.08977536857128143</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08579673618078232</v>
+        <v>0.08587209135293961</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08579673618078232</v>
+        <v>0.08587209135293961</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07799703627824783</v>
+        <v>0.07806553691625595</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07799703627824783</v>
+        <v>0.07806553691625595</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07799703627824783</v>
+        <v>0.07806553691625595</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07409718632698059</v>
+        <v>0.07416225969791412</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07409718632698059</v>
+        <v>0.07416225969791412</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07019732892513275</v>
+        <v>0.0702589824795723</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07019732892513275</v>
+        <v>0.0702589824795723</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07019732892513275</v>
+        <v>0.0702589824795723</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07019732892513275</v>
+        <v>0.0702589824795723</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06629747897386551</v>
+        <v>0.06635570526123047</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06629747897386551</v>
+        <v>0.06635570526123047</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06239762902259827</v>
+        <v>0.06245242804288864</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.05849777534604073</v>
+        <v>0.05854915082454681</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.05849777534604073</v>
+        <v>0.05854915082454681</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05459792539477348</v>
+        <v>0.05464587360620499</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05459792539477348</v>
+        <v>0.05464587360620499</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05069807171821594</v>
+        <v>0.05074260011315346</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.0467982217669487</v>
+        <v>0.04683932289481163</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.0467982217669487</v>
+        <v>0.04683932289481163</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.03899851813912392</v>
+        <v>0.03903276845812798</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.03899851813912392</v>
+        <v>0.03903276845812798</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03509866446256638</v>
+        <v>0.03512949123978615</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03509866446256638</v>
+        <v>0.03512949123978615</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03119881451129913</v>
+        <v>0.03122621402144432</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02729896269738674</v>
+        <v>0.02732293680310249</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01949925906956196</v>
+        <v>0.01951638422906399</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01949925906956196</v>
+        <v>0.01951638422906399</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01559940725564957</v>
+        <v>0.01561310701072216</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01559940725564957</v>
+        <v>0.01561310701072216</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.007799703627824783</v>
+        <v>0.00780655350536108</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.007799703627824783</v>
+        <v>0.00780655350536108</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.007799703627824783</v>
+        <v>0.00780655350536108</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.02361488342285</c:v>
+                  <c:v>10.02204990386963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.583305358886719</c:v>
+                  <c:v>8.581965446472168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.880715847015381</c:v>
+                  <c:v>7.879485607147217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.941977977752686</c:v>
+                  <c:v>6.94089412689209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.793223857879639</c:v>
+                  <c:v>4.792475700378418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.574640274047852</c:v>
+                  <c:v>4.573926448822022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.426315784454346</c:v>
+                  <c:v>4.425624847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.536368846893311</c:v>
+                  <c:v>3.551427364349365</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.341204881668091</c:v>
+                  <c:v>3.340683460235596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.945022344589233</c:v>
+                  <c:v>2.944562673568726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.915747880935669</c:v>
+                  <c:v>2.915292501449585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.176076889038086</c:v>
+                  <c:v>2.175737142562866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.154608726501465</c:v>
+                  <c:v>2.154272556304932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.994574427604675</c:v>
+                  <c:v>1.994263052940369</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.94383180141449</c:v>
+                  <c:v>1.943528413772583</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.813072085380554</c:v>
+                  <c:v>1.812789082527161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.713538527488709</c:v>
+                  <c:v>1.713271021842957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.631569743156433</c:v>
+                  <c:v>1.631314992904663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.592536926269531</c:v>
+                  <c:v>1.592288374900818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.319307565689087</c:v>
+                  <c:v>1.319101572036743</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.307597756385803</c:v>
+                  <c:v>1.307393550872803</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9289798736572266</c:v>
+                  <c:v>0.928834855556488</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9016569256782532</c:v>
+                  <c:v>0.9015161991119385</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8353012204170227</c:v>
+                  <c:v>0.8351708650588989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8040750026702881</c:v>
+                  <c:v>0.8039494752883911</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7689455151557922</c:v>
+                  <c:v>0.7688254714012146</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.765042245388031</c:v>
+                  <c:v>0.7649227976799011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.765042245388031</c:v>
+                  <c:v>0.7649227976799011</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7416225671768189</c:v>
+                  <c:v>0.741506814956665</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7201545834541321</c:v>
+                  <c:v>0.7200421690940857</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7182029485702515</c:v>
+                  <c:v>0.718090832233429</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6791701912879944</c:v>
+                  <c:v>0.679064154624939</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6557505130767822</c:v>
+                  <c:v>0.6556481122970581</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.651847243309021</c:v>
+                  <c:v>0.6517454385757446</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6479439735412598</c:v>
+                  <c:v>0.6478428244590759</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5854915380477905</c:v>
+                  <c:v>0.5854001045227051</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5464587807655335</c:v>
+                  <c:v>0.5463734269142151</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5386521816253662</c:v>
+                  <c:v>0.5385681390762329</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5308456420898438</c:v>
+                  <c:v>0.530762791633606</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4449735581874847</c:v>
+                  <c:v>0.444904088973999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4332637190818787</c:v>
+                  <c:v>0.433196097612381</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3903276920318604</c:v>
+                  <c:v>0.3902667462825775</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.363004744052887</c:v>
+                  <c:v>0.362948089838028</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3434883654117584</c:v>
+                  <c:v>0.343434751033783</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3317785263061523</c:v>
+                  <c:v>0.3317267298698425</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.316165417432785</c:v>
+                  <c:v>0.316116064786911</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3122621476650238</c:v>
+                  <c:v>0.3122133910655975</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.304455578327179</c:v>
+                  <c:v>0.304408073425293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2420031577348709</c:v>
+                  <c:v>0.2419653832912445</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.230293333530426</c:v>
+                  <c:v>0.2302573770284653</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.21858349442482</c:v>
+                  <c:v>0.2185493856668472</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.21858349442482</c:v>
+                  <c:v>0.2185493856668472</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2146802246570587</c:v>
+                  <c:v>0.2146467119455338</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2029704004526138</c:v>
+                  <c:v>0.2029387056827545</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2029704004526138</c:v>
+                  <c:v>0.2029387056827545</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2029704004526138</c:v>
+                  <c:v>0.2029387056827545</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1951638460159302</c:v>
+                  <c:v>0.1951333731412888</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1912605613470078</c:v>
+                  <c:v>0.1912306994199753</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1873572915792465</c:v>
+                  <c:v>0.187328040599823</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1834540069103241</c:v>
+                  <c:v>0.1834253668785095</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1834540069103241</c:v>
+                  <c:v>0.1834253668785095</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1678408980369568</c:v>
+                  <c:v>0.167814701795578</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1483245193958283</c:v>
+                  <c:v>0.148301362991333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1405179649591446</c:v>
+                  <c:v>0.1404960304498673</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1288081407546997</c:v>
+                  <c:v>0.128788024187088</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1288081407546997</c:v>
+                  <c:v>0.128788024187088</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1249048560857773</c:v>
+                  <c:v>0.1248853579163551</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1210015788674355</c:v>
+                  <c:v>0.1209826916456223</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1170983016490936</c:v>
+                  <c:v>0.1170800253748894</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1170983016490936</c:v>
+                  <c:v>0.1170800253748894</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.10929174721241</c:v>
+                  <c:v>0.1092746928334236</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.10929174721241</c:v>
+                  <c:v>0.1092746928334236</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.10929174721241</c:v>
+                  <c:v>0.1092746928334236</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09758192300796509</c:v>
+                  <c:v>0.09756668657064438</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09367864578962326</c:v>
+                  <c:v>0.0936640202999115</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09367864578962326</c:v>
+                  <c:v>0.0936640202999115</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09367864578962326</c:v>
+                  <c:v>0.0936640202999115</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08977536857128143</c:v>
+                  <c:v>0.08976135402917862</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08587209135293961</c:v>
+                  <c:v>0.08585868775844574</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08587209135293961</c:v>
+                  <c:v>0.08585868775844574</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07806553691625595</c:v>
+                  <c:v>0.07805334776639938</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07806553691625595</c:v>
+                  <c:v>0.07805334776639938</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07806553691625595</c:v>
+                  <c:v>0.07805334776639938</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07416225969791412</c:v>
+                  <c:v>0.0741506814956665</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07416225969791412</c:v>
+                  <c:v>0.0741506814956665</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0702589824795723</c:v>
+                  <c:v>0.07024801522493362</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0702589824795723</c:v>
+                  <c:v>0.07024801522493362</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0702589824795723</c:v>
+                  <c:v>0.07024801522493362</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0702589824795723</c:v>
+                  <c:v>0.07024801522493362</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06635570526123047</c:v>
+                  <c:v>0.06634534895420075</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06635570526123047</c:v>
+                  <c:v>0.06634534895420075</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06245242804288864</c:v>
+                  <c:v>0.06244267895817757</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05854915082454681</c:v>
+                  <c:v>0.05854001268744469</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05854915082454681</c:v>
+                  <c:v>0.05854001268744469</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05464587360620499</c:v>
+                  <c:v>0.05463734641671181</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05464587360620499</c:v>
+                  <c:v>0.05463734641671181</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05074260011315346</c:v>
+                  <c:v>0.05073467642068863</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04683932289481163</c:v>
+                  <c:v>0.04683201014995575</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04683932289481163</c:v>
+                  <c:v>0.04683201014995575</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03903276845812798</c:v>
+                  <c:v>0.03902667388319969</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03903276845812798</c:v>
+                  <c:v>0.03902667388319969</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03512949123978615</c:v>
+                  <c:v>0.03512400761246681</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03512949123978615</c:v>
+                  <c:v>0.03512400761246681</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03122621402144432</c:v>
+                  <c:v>0.03122133947908878</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02732293680310249</c:v>
+                  <c:v>0.0273186732083559</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01951638422906399</c:v>
+                  <c:v>0.01951333694159985</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01951638422906399</c:v>
+                  <c:v>0.01951333694159985</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01561310701072216</c:v>
+                  <c:v>0.01561066973954439</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01561310701072216</c:v>
+                  <c:v>0.01561066973954439</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.00780655350536108</c:v>
+                  <c:v>0.007805334869772196</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.00780655350536108</c:v>
+                  <c:v>0.007805334869772196</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.00780655350536108</c:v>
+                  <c:v>0.007805334869772196</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -2059,10 +2059,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="E12" s="1">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.02361488342285</v>
+        <v>10.02204990386963</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.583305358886719</v>
+        <v>8.581965446472168</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>7.880715847015381</v>
+        <v>7.879485607147217</v>
       </c>
       <c r="C5" s="1">
         <v>4038</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.941977977752686</v>
+        <v>6.94089412689209</v>
       </c>
       <c r="C6" s="1">
         <v>3557</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.793223857879639</v>
+        <v>4.792475700378418</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.574640274047852</v>
+        <v>4.573926448822022</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.426315784454346</v>
+        <v>4.425624847412109</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2553,16 +2553,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>3.536368846893311</v>
+        <v>3.551427364349365</v>
       </c>
       <c r="C10" s="1">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="D10" s="1">
         <v>28</v>
       </c>
       <c r="E10" s="1">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.341204881668091</v>
+        <v>3.340683460235596</v>
       </c>
       <c r="C11" s="1">
         <v>1712</v>
@@ -2605,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>2.945022344589233</v>
+        <v>2.944562673568726</v>
       </c>
       <c r="C12" s="1">
         <v>1509</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.915747880935669</v>
+        <v>2.915292501449585</v>
       </c>
       <c r="C13" s="1">
         <v>1494</v>
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.176076889038086</v>
+        <v>2.175737142562866</v>
       </c>
       <c r="C14" s="1">
         <v>1115</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.154608726501465</v>
+        <v>2.154272556304932</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>1.994574427604675</v>
+        <v>1.994263052940369</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.94383180141449</v>
+        <v>1.943528413772583</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.813072085380554</v>
+        <v>1.812789082527161</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.713538527488709</v>
+        <v>1.713271021842957</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.631569743156433</v>
+        <v>1.631314992904663</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.592536926269531</v>
+        <v>1.592288374900818</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.319307565689087</v>
+        <v>1.319101572036743</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.307597756385803</v>
+        <v>1.307393550872803</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9289798736572266</v>
+        <v>0.928834855556488</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9016569256782532</v>
+        <v>0.9015161991119385</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8353012204170227</v>
+        <v>0.8351708650588989</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8040750026702881</v>
+        <v>0.8039494752883911</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7689455151557922</v>
+        <v>0.7688254714012146</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.765042245388031</v>
+        <v>0.7649227976799011</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.765042245388031</v>
+        <v>0.7649227976799011</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7416225671768189</v>
+        <v>0.741506814956665</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7201545834541321</v>
+        <v>0.7200421690940857</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7182029485702515</v>
+        <v>0.718090832233429</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6791701912879944</v>
+        <v>0.679064154624939</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6557505130767822</v>
+        <v>0.6556481122970581</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.651847243309021</v>
+        <v>0.6517454385757446</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6479439735412598</v>
+        <v>0.6478428244590759</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5854915380477905</v>
+        <v>0.5854001045227051</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5464587807655335</v>
+        <v>0.5463734269142151</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5386521816253662</v>
+        <v>0.5385681390762329</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5308456420898438</v>
+        <v>0.530762791633606</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4449735581874847</v>
+        <v>0.444904088973999</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4332637190818787</v>
+        <v>0.433196097612381</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3903276920318604</v>
+        <v>0.3902667462825775</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.363004744052887</v>
+        <v>0.362948089838028</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3434883654117584</v>
+        <v>0.343434751033783</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3317785263061523</v>
+        <v>0.3317267298698425</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.316165417432785</v>
+        <v>0.316116064786911</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3122621476650238</v>
+        <v>0.3122133910655975</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.304455578327179</v>
+        <v>0.304408073425293</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2420031577348709</v>
+        <v>0.2419653832912445</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.230293333530426</v>
+        <v>0.2302573770284653</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.21858349442482</v>
+        <v>0.2185493856668472</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.21858349442482</v>
+        <v>0.2185493856668472</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2146802246570587</v>
+        <v>0.2146467119455338</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2029704004526138</v>
+        <v>0.2029387056827545</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2029704004526138</v>
+        <v>0.2029387056827545</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2029704004526138</v>
+        <v>0.2029387056827545</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1951638460159302</v>
+        <v>0.1951333731412888</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1912605613470078</v>
+        <v>0.1912306994199753</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1873572915792465</v>
+        <v>0.187328040599823</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1834540069103241</v>
+        <v>0.1834253668785095</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1834540069103241</v>
+        <v>0.1834253668785095</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1678408980369568</v>
+        <v>0.167814701795578</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1483245193958283</v>
+        <v>0.148301362991333</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1405179649591446</v>
+        <v>0.1404960304498673</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1288081407546997</v>
+        <v>0.128788024187088</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1288081407546997</v>
+        <v>0.128788024187088</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1249048560857773</v>
+        <v>0.1248853579163551</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1210015788674355</v>
+        <v>0.1209826916456223</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1170983016490936</v>
+        <v>0.1170800253748894</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1170983016490936</v>
+        <v>0.1170800253748894</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.10929174721241</v>
+        <v>0.1092746928334236</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.10929174721241</v>
+        <v>0.1092746928334236</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.10929174721241</v>
+        <v>0.1092746928334236</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09758192300796509</v>
+        <v>0.09756668657064438</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09367864578962326</v>
+        <v>0.0936640202999115</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09367864578962326</v>
+        <v>0.0936640202999115</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09367864578962326</v>
+        <v>0.0936640202999115</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08977536857128143</v>
+        <v>0.08976135402917862</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08587209135293961</v>
+        <v>0.08585868775844574</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08587209135293961</v>
+        <v>0.08585868775844574</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07806553691625595</v>
+        <v>0.07805334776639938</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07806553691625595</v>
+        <v>0.07805334776639938</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07806553691625595</v>
+        <v>0.07805334776639938</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07416225969791412</v>
+        <v>0.0741506814956665</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07416225969791412</v>
+        <v>0.0741506814956665</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.0702589824795723</v>
+        <v>0.07024801522493362</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.0702589824795723</v>
+        <v>0.07024801522493362</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.0702589824795723</v>
+        <v>0.07024801522493362</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.0702589824795723</v>
+        <v>0.07024801522493362</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06635570526123047</v>
+        <v>0.06634534895420075</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06635570526123047</v>
+        <v>0.06634534895420075</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06245242804288864</v>
+        <v>0.06244267895817757</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.05854915082454681</v>
+        <v>0.05854001268744469</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.05854915082454681</v>
+        <v>0.05854001268744469</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05464587360620499</v>
+        <v>0.05463734641671181</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05464587360620499</v>
+        <v>0.05463734641671181</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05074260011315346</v>
+        <v>0.05073467642068863</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04683932289481163</v>
+        <v>0.04683201014995575</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04683932289481163</v>
+        <v>0.04683201014995575</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.03903276845812798</v>
+        <v>0.03902667388319969</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.03903276845812798</v>
+        <v>0.03902667388319969</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03512949123978615</v>
+        <v>0.03512400761246681</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03512949123978615</v>
+        <v>0.03512400761246681</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03122621402144432</v>
+        <v>0.03122133947908878</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02732293680310249</v>
+        <v>0.0273186732083559</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01951638422906399</v>
+        <v>0.01951333694159985</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01951638422906399</v>
+        <v>0.01951333694159985</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01561310701072216</v>
+        <v>0.01561066973954439</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01561310701072216</v>
+        <v>0.01561066973954439</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.00780655350536108</v>
+        <v>0.007805334869772196</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.00780655350536108</v>
+        <v>0.007805334869772196</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.00780655350536108</v>
+        <v>0.007805334869772196</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -44,10 +44,10 @@
     <t>function.o</t>
   </si>
   <si>
+    <t>application.o</t>
+  </si>
+  <si>
     <t>action.o</t>
-  </si>
-  <si>
-    <t>application.o</t>
   </si>
   <si>
     <t>system_stm32f10x.o</t>
@@ -501,10 +501,10 @@
                   <c:v>function.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>application.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>action.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>application.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>system_stm32f10x.o</c:v>
@@ -543,58 +543,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>37.18515777587891</c:v>
+                  <c:v>37.15497207641602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.82341766357422</c:v>
+                  <c:v>27.80082893371582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.60061359405518</c:v>
+                  <c:v>11.59119606018066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.289518356323242</c:v>
+                  <c:v>9.281977653503418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.244379997253418</c:v>
+                  <c:v>9.236875534057617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.058319091796875</c:v>
+                  <c:v>2.056648015975952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.281935572624207</c:v>
+                  <c:v>1.280894875526428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.324997752904892</c:v>
+                  <c:v>0.3608154356479645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2888868749141693</c:v>
+                  <c:v>0.2976727485656738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.252776026725769</c:v>
+                  <c:v>0.2886523604393005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1805543005466461</c:v>
+                  <c:v>0.1804077178239822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1805543005466461</c:v>
+                  <c:v>0.1804077178239822</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08124943822622299</c:v>
+                  <c:v>0.08118347823619843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07222171872854233</c:v>
+                  <c:v>0.07216309010982513</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03611085936427116</c:v>
+                  <c:v>0.03608154505491257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03611085936427116</c:v>
+                  <c:v>0.03608154505491257</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03611085936427116</c:v>
+                  <c:v>0.03608154505491257</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02708314545452595</c:v>
+                  <c:v>0.02706115879118443</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1016,340 +1016,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.02204990386963</c:v>
+                  <c:v>9.956575393676758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.581965446472168</c:v>
+                  <c:v>8.525899887084961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.879485607147217</c:v>
+                  <c:v>7.828008651733398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.94089412689209</c:v>
+                  <c:v>6.895548820495606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.792475700378418</c:v>
+                  <c:v>4.761166095733643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.573926448822022</c:v>
+                  <c:v>4.544044494628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.425624847412109</c:v>
+                  <c:v>4.396712303161621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.551427364349365</c:v>
+                  <c:v>3.739531755447388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.340683460235596</c:v>
+                  <c:v>3.318858623504639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.944562673568726</c:v>
+                  <c:v>2.925325632095337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.915292501449585</c:v>
+                  <c:v>2.896246910095215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.175737142562866</c:v>
+                  <c:v>2.603520393371582</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.154272556304932</c:v>
+                  <c:v>2.140198469161987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.994263052940369</c:v>
+                  <c:v>1.981234550476074</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.943528413772583</c:v>
+                  <c:v>1.93083131313324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.812789082527161</c:v>
+                  <c:v>1.800945997238159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.713271021842957</c:v>
+                  <c:v>1.702078223228455</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.631314992904663</c:v>
+                  <c:v>1.620657563209534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.592288374900818</c:v>
+                  <c:v>1.581885814666748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.319101572036743</c:v>
+                  <c:v>1.310483813285828</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.307393550872803</c:v>
+                  <c:v>1.298852324485779</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.928834855556488</c:v>
+                  <c:v>0.9227667450904846</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9015161991119385</c:v>
+                  <c:v>0.8956265449523926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8351708650588989</c:v>
+                  <c:v>0.8297146558761597</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8039494752883911</c:v>
+                  <c:v>0.798697292804718</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7688254714012146</c:v>
+                  <c:v>0.763802707195282</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7649227976799011</c:v>
+                  <c:v>0.7599255442619324</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7649227976799011</c:v>
+                  <c:v>0.7599255442619324</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.741506814956665</c:v>
+                  <c:v>0.7366625070571899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7200421690940857</c:v>
+                  <c:v>0.7153381109237671</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.718090832233429</c:v>
+                  <c:v>0.7133995294570923</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.679064154624939</c:v>
+                  <c:v>0.6746277809143066</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6556481122970581</c:v>
+                  <c:v>0.6513647437095642</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6517454385757446</c:v>
+                  <c:v>0.6474875807762146</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6478428244590759</c:v>
+                  <c:v>0.643610417842865</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5854001045227051</c:v>
+                  <c:v>0.5815756916999817</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5463734269142151</c:v>
+                  <c:v>0.542803943157196</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5385681390762329</c:v>
+                  <c:v>0.5350496172904968</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.530762791633606</c:v>
+                  <c:v>0.5272952914237976</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.444904088973999</c:v>
+                  <c:v>0.4419975280761719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.433196097612381</c:v>
+                  <c:v>0.4303660094738007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3902667462825775</c:v>
+                  <c:v>0.3877171277999878</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.362948089838028</c:v>
+                  <c:v>0.3605769276618958</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.343434751033783</c:v>
+                  <c:v>0.3411910533905029</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3317267298698425</c:v>
+                  <c:v>0.3295595645904541</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.316116064786911</c:v>
+                  <c:v>0.3140508830547333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3122133910655975</c:v>
+                  <c:v>0.3101736903190613</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.304408073425293</c:v>
+                  <c:v>0.3024193644523621</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2419653832912445</c:v>
+                  <c:v>0.2403846085071564</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2302573770284653</c:v>
+                  <c:v>0.2287531048059464</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2185493856668472</c:v>
+                  <c:v>0.2171215862035751</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2185493856668472</c:v>
+                  <c:v>0.2171215862035751</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2146467119455338</c:v>
+                  <c:v>0.2132444232702255</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2029387056827545</c:v>
+                  <c:v>0.2016129046678543</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2029387056827545</c:v>
+                  <c:v>0.2016129046678543</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2029387056827545</c:v>
+                  <c:v>0.2016129046678543</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1951333731412888</c:v>
+                  <c:v>0.1938585638999939</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1912306994199753</c:v>
+                  <c:v>0.1899813860654831</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.187328040599823</c:v>
+                  <c:v>0.1861042231321335</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1834253668785095</c:v>
+                  <c:v>0.1822270452976227</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1834253668785095</c:v>
+                  <c:v>0.1822270452976227</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.167814701795578</c:v>
+                  <c:v>0.1667183637619019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.148301362991333</c:v>
+                  <c:v>0.1473325043916702</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1404960304498673</c:v>
+                  <c:v>0.1395781636238098</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.128788024187088</c:v>
+                  <c:v>0.1279466450214386</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.128788024187088</c:v>
+                  <c:v>0.1279466450214386</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1248853579163551</c:v>
+                  <c:v>0.124069482088089</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1209826916456223</c:v>
+                  <c:v>0.1201923042535782</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1170800253748894</c:v>
+                  <c:v>0.116315133869648</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1170800253748894</c:v>
+                  <c:v>0.116315133869648</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1092746928334236</c:v>
+                  <c:v>0.1085607931017876</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1092746928334236</c:v>
+                  <c:v>0.1085607931017876</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1092746928334236</c:v>
+                  <c:v>0.1085607931017876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09756668657064438</c:v>
+                  <c:v>0.09692928194999695</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0936640202999115</c:v>
+                  <c:v>0.09305211156606674</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0936640202999115</c:v>
+                  <c:v>0.09305211156606674</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0936640202999115</c:v>
+                  <c:v>0.09305211156606674</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08976135402917862</c:v>
+                  <c:v>0.08917494118213654</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08585868775844574</c:v>
+                  <c:v>0.08529776334762573</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08585868775844574</c:v>
+                  <c:v>0.08529776334762573</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07805334776639938</c:v>
+                  <c:v>0.07754342257976532</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07805334776639938</c:v>
+                  <c:v>0.07754342257976532</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07805334776639938</c:v>
+                  <c:v>0.07754342257976532</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0741506814956665</c:v>
+                  <c:v>0.07366625219583511</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0741506814956665</c:v>
+                  <c:v>0.07366625219583511</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07024801522493362</c:v>
+                  <c:v>0.06978908181190491</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07024801522493362</c:v>
+                  <c:v>0.06978908181190491</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07024801522493362</c:v>
+                  <c:v>0.06978908181190491</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07024801522493362</c:v>
+                  <c:v>0.06978908181190491</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06634534895420075</c:v>
+                  <c:v>0.0659119114279747</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.06634534895420075</c:v>
+                  <c:v>0.0659119114279747</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06244267895817757</c:v>
+                  <c:v>0.0620347410440445</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05854001268744469</c:v>
+                  <c:v>0.05815756693482399</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05854001268744469</c:v>
+                  <c:v>0.05815756693482399</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05463734641671181</c:v>
+                  <c:v>0.05428039655089378</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05463734641671181</c:v>
+                  <c:v>0.05428039655089378</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05073467642068863</c:v>
+                  <c:v>0.05040322616696358</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04683201014995575</c:v>
+                  <c:v>0.04652605578303337</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04683201014995575</c:v>
+                  <c:v>0.04652605578303337</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03902667388319969</c:v>
+                  <c:v>0.03877171128988266</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03902667388319969</c:v>
+                  <c:v>0.03877171128988266</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.03512400761246681</c:v>
+                  <c:v>0.03489454090595245</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.03512400761246681</c:v>
+                  <c:v>0.03489454090595245</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.03122133947908878</c:v>
+                  <c:v>0.03101737052202225</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0273186732083559</c:v>
+                  <c:v>0.02714019827544689</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01951333694159985</c:v>
+                  <c:v>0.01938585564494133</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01951333694159985</c:v>
+                  <c:v>0.01938585564494133</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01561066973954439</c:v>
+                  <c:v>0.01550868526101112</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01561066973954439</c:v>
+                  <c:v>0.01550868526101112</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.007805334869772196</c:v>
+                  <c:v>0.007754342630505562</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.007805334869772196</c:v>
+                  <c:v>0.007754342630505562</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.007805334869772196</c:v>
+                  <c:v>0.007754342630505562</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.18515777587891</v>
+        <v>37.15497207641602</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.82341766357422</v>
+        <v>27.80082893371582</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.60061359405518</v>
+        <v>11.59119606018066</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.289518356323242</v>
+        <v>9.281977653503418</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.244379997253418</v>
+        <v>9.236875534057617</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.058319091796875</v>
+        <v>2.056648015975952</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.281935572624207</v>
+        <v>1.280894875526428</v>
       </c>
       <c r="C9" s="1">
         <v>142</v>
@@ -2001,22 +2001,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.324997752904892</v>
+        <v>0.3608154356479645</v>
       </c>
       <c r="C10" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1115</v>
+        <v>1343</v>
       </c>
       <c r="E10" s="1">
-        <v>980</v>
+        <v>1204</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
       </c>
       <c r="G10" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2027,22 +2027,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2888868749141693</v>
+        <v>0.2976727485656738</v>
       </c>
       <c r="C11" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>412</v>
+        <v>1929</v>
       </c>
       <c r="E11" s="1">
-        <v>380</v>
+        <v>1896</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.252776026725769</v>
+        <v>0.2886523604393005</v>
       </c>
       <c r="C12" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>1820</v>
+        <v>412</v>
       </c>
       <c r="E12" s="1">
-        <v>1792</v>
+        <v>380</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1805543005466461</v>
+        <v>0.1804077178239822</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1805543005466461</v>
+        <v>0.1804077178239822</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08124943822622299</v>
+        <v>0.08118347823619843</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07222171872854233</v>
+        <v>0.07216309010982513</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03611085936427116</v>
+        <v>0.03608154505491257</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03611085936427116</v>
+        <v>0.03608154505491257</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03611085936427116</v>
+        <v>0.03608154505491257</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02708314545452595</v>
+        <v>0.02706115879118443</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>10.02204990386963</v>
+        <v>9.956575393676758</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.581965446472168</v>
+        <v>8.525899887084961</v>
       </c>
       <c r="C4" s="1">
         <v>4398</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>7.879485607147217</v>
+        <v>7.828008651733398</v>
       </c>
       <c r="C5" s="1">
         <v>4038</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6.94089412689209</v>
+        <v>6.895548820495606</v>
       </c>
       <c r="C6" s="1">
         <v>3557</v>
@@ -2475,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.792475700378418</v>
+        <v>4.761166095733643</v>
       </c>
       <c r="C7" s="1">
         <v>2456</v>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.573926448822022</v>
+        <v>4.544044494628906</v>
       </c>
       <c r="C8" s="1">
         <v>2344</v>
@@ -2527,7 +2527,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.425624847412109</v>
+        <v>4.396712303161621</v>
       </c>
       <c r="C9" s="1">
         <v>2268</v>
@@ -2550,25 +2550,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3.551427364349365</v>
+        <v>3.739531755447388</v>
       </c>
       <c r="C10" s="1">
-        <v>1820</v>
+        <v>1929</v>
       </c>
       <c r="D10" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
-        <v>1792</v>
+        <v>1896</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.340683460235596</v>
+        <v>3.318858623504639</v>
       </c>
       <c r="C11" s="1">
         <v>1712</v>
@@ -2605,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>2.944562673568726</v>
+        <v>2.925325632095337</v>
       </c>
       <c r="C12" s="1">
         <v>1509</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.915292501449585</v>
+        <v>2.896246910095215</v>
       </c>
       <c r="C13" s="1">
         <v>1494</v>
@@ -2657,22 +2657,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.175737142562866</v>
+        <v>2.603520393371582</v>
       </c>
       <c r="C14" s="1">
-        <v>1115</v>
+        <v>1343</v>
       </c>
       <c r="D14" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>980</v>
+        <v>1204</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
       </c>
       <c r="G14" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.154272556304932</v>
+        <v>2.140198469161987</v>
       </c>
       <c r="C15" s="1">
         <v>1104</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>1.994263052940369</v>
+        <v>1.981234550476074</v>
       </c>
       <c r="C16" s="1">
         <v>1022</v>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.943528413772583</v>
+        <v>1.93083131313324</v>
       </c>
       <c r="C17" s="1">
         <v>996</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>1.812789082527161</v>
+        <v>1.800945997238159</v>
       </c>
       <c r="C18" s="1">
         <v>929</v>
@@ -2787,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.713271021842957</v>
+        <v>1.702078223228455</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.631314992904663</v>
+        <v>1.620657563209534</v>
       </c>
       <c r="C20" s="1">
         <v>836</v>
@@ -2839,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.592288374900818</v>
+        <v>1.581885814666748</v>
       </c>
       <c r="C21" s="1">
         <v>816</v>
@@ -2865,7 +2865,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.319101572036743</v>
+        <v>1.310483813285828</v>
       </c>
       <c r="C22" s="1">
         <v>676</v>
@@ -2891,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.307393550872803</v>
+        <v>1.298852324485779</v>
       </c>
       <c r="C23" s="1">
         <v>670</v>
@@ -2917,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.928834855556488</v>
+        <v>0.9227667450904846</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2943,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9015161991119385</v>
+        <v>0.8956265449523926</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8351708650588989</v>
+        <v>0.8297146558761597</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8039494752883911</v>
+        <v>0.798697292804718</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7688254714012146</v>
+        <v>0.763802707195282</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7649227976799011</v>
+        <v>0.7599255442619324</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7649227976799011</v>
+        <v>0.7599255442619324</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3099,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>0.741506814956665</v>
+        <v>0.7366625070571899</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7200421690940857</v>
+        <v>0.7153381109237671</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>0.718090832233429</v>
+        <v>0.7133995294570923</v>
       </c>
       <c r="C33" s="1">
         <v>368</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.679064154624939</v>
+        <v>0.6746277809143066</v>
       </c>
       <c r="C34" s="1">
         <v>348</v>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6556481122970581</v>
+        <v>0.6513647437095642</v>
       </c>
       <c r="C35" s="1">
         <v>336</v>
@@ -3229,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6517454385757446</v>
+        <v>0.6474875807762146</v>
       </c>
       <c r="C36" s="1">
         <v>334</v>
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6478428244590759</v>
+        <v>0.643610417842865</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3281,7 +3281,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5854001045227051</v>
+        <v>0.5815756916999817</v>
       </c>
       <c r="C38" s="1">
         <v>300</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5463734269142151</v>
+        <v>0.542803943157196</v>
       </c>
       <c r="C39" s="1">
         <v>280</v>
@@ -3333,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5385681390762329</v>
+        <v>0.5350496172904968</v>
       </c>
       <c r="C40" s="1">
         <v>276</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.530762791633606</v>
+        <v>0.5272952914237976</v>
       </c>
       <c r="C41" s="1">
         <v>272</v>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.444904088973999</v>
+        <v>0.4419975280761719</v>
       </c>
       <c r="C42" s="1">
         <v>228</v>
@@ -3411,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>0.433196097612381</v>
+        <v>0.4303660094738007</v>
       </c>
       <c r="C43" s="1">
         <v>222</v>
@@ -3437,7 +3437,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3902667462825775</v>
+        <v>0.3877171277999878</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3463,7 +3463,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.362948089838028</v>
+        <v>0.3605769276618958</v>
       </c>
       <c r="C45" s="1">
         <v>186</v>
@@ -3489,7 +3489,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.343434751033783</v>
+        <v>0.3411910533905029</v>
       </c>
       <c r="C46" s="1">
         <v>176</v>
@@ -3515,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3317267298698425</v>
+        <v>0.3295595645904541</v>
       </c>
       <c r="C47" s="1">
         <v>170</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.316116064786911</v>
+        <v>0.3140508830547333</v>
       </c>
       <c r="C48" s="1">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3122133910655975</v>
+        <v>0.3101736903190613</v>
       </c>
       <c r="C49" s="1">
         <v>160</v>
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.304408073425293</v>
+        <v>0.3024193644523621</v>
       </c>
       <c r="C50" s="1">
         <v>156</v>
@@ -3619,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2419653832912445</v>
+        <v>0.2403846085071564</v>
       </c>
       <c r="C51" s="1">
         <v>124</v>
@@ -3645,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2302573770284653</v>
+        <v>0.2287531048059464</v>
       </c>
       <c r="C52" s="1">
         <v>118</v>
@@ -3671,7 +3671,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2185493856668472</v>
+        <v>0.2171215862035751</v>
       </c>
       <c r="C53" s="1">
         <v>112</v>
@@ -3697,7 +3697,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2185493856668472</v>
+        <v>0.2171215862035751</v>
       </c>
       <c r="C54" s="1">
         <v>112</v>
@@ -3723,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2146467119455338</v>
+        <v>0.2132444232702255</v>
       </c>
       <c r="C55" s="1">
         <v>110</v>
@@ -3749,7 +3749,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2029387056827545</v>
+        <v>0.2016129046678543</v>
       </c>
       <c r="C56" s="1">
         <v>104</v>
@@ -3775,7 +3775,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2029387056827545</v>
+        <v>0.2016129046678543</v>
       </c>
       <c r="C57" s="1">
         <v>104</v>
@@ -3801,7 +3801,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2029387056827545</v>
+        <v>0.2016129046678543</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -3827,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1951333731412888</v>
+        <v>0.1938585638999939</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -3853,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1912306994199753</v>
+        <v>0.1899813860654831</v>
       </c>
       <c r="C60" s="1">
         <v>98</v>
@@ -3879,7 +3879,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.187328040599823</v>
+        <v>0.1861042231321335</v>
       </c>
       <c r="C61" s="1">
         <v>96</v>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1834253668785095</v>
+        <v>0.1822270452976227</v>
       </c>
       <c r="C62" s="1">
         <v>94</v>
@@ -3931,7 +3931,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1834253668785095</v>
+        <v>0.1822270452976227</v>
       </c>
       <c r="C63" s="1">
         <v>94</v>
@@ -3957,7 +3957,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.167814701795578</v>
+        <v>0.1667183637619019</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -3983,7 +3983,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.148301362991333</v>
+        <v>0.1473325043916702</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1404960304498673</v>
+        <v>0.1395781636238098</v>
       </c>
       <c r="C66" s="1">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.128788024187088</v>
+        <v>0.1279466450214386</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -4061,7 +4061,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.128788024187088</v>
+        <v>0.1279466450214386</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -4087,7 +4087,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1248853579163551</v>
+        <v>0.124069482088089</v>
       </c>
       <c r="C69" s="1">
         <v>64</v>
@@ -4113,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1209826916456223</v>
+        <v>0.1201923042535782</v>
       </c>
       <c r="C70" s="1">
         <v>62</v>
@@ -4139,7 +4139,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1170800253748894</v>
+        <v>0.116315133869648</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -4165,7 +4165,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1170800253748894</v>
+        <v>0.116315133869648</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -4191,7 +4191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1092746928334236</v>
+        <v>0.1085607931017876</v>
       </c>
       <c r="C73" s="1">
         <v>56</v>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1092746928334236</v>
+        <v>0.1085607931017876</v>
       </c>
       <c r="C74" s="1">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1092746928334236</v>
+        <v>0.1085607931017876</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4269,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09756668657064438</v>
+        <v>0.09692928194999695</v>
       </c>
       <c r="C76" s="1">
         <v>50</v>
@@ -4295,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.0936640202999115</v>
+        <v>0.09305211156606674</v>
       </c>
       <c r="C77" s="1">
         <v>48</v>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0936640202999115</v>
+        <v>0.09305211156606674</v>
       </c>
       <c r="C78" s="1">
         <v>48</v>
@@ -4347,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0936640202999115</v>
+        <v>0.09305211156606674</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4373,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08976135402917862</v>
+        <v>0.08917494118213654</v>
       </c>
       <c r="C80" s="1">
         <v>46</v>
@@ -4399,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08585868775844574</v>
+        <v>0.08529776334762573</v>
       </c>
       <c r="C81" s="1">
         <v>44</v>
@@ -4425,7 +4425,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08585868775844574</v>
+        <v>0.08529776334762573</v>
       </c>
       <c r="C82" s="1">
         <v>44</v>
@@ -4451,7 +4451,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07805334776639938</v>
+        <v>0.07754342257976532</v>
       </c>
       <c r="C83" s="1">
         <v>40</v>
@@ -4477,7 +4477,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07805334776639938</v>
+        <v>0.07754342257976532</v>
       </c>
       <c r="C84" s="1">
         <v>40</v>
@@ -4503,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07805334776639938</v>
+        <v>0.07754342257976532</v>
       </c>
       <c r="C85" s="1">
         <v>40</v>
@@ -4529,7 +4529,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.0741506814956665</v>
+        <v>0.07366625219583511</v>
       </c>
       <c r="C86" s="1">
         <v>38</v>
@@ -4555,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.0741506814956665</v>
+        <v>0.07366625219583511</v>
       </c>
       <c r="C87" s="1">
         <v>38</v>
@@ -4581,7 +4581,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07024801522493362</v>
+        <v>0.06978908181190491</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -4607,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07024801522493362</v>
+        <v>0.06978908181190491</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07024801522493362</v>
+        <v>0.06978908181190491</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07024801522493362</v>
+        <v>0.06978908181190491</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4685,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06634534895420075</v>
+        <v>0.0659119114279747</v>
       </c>
       <c r="C92" s="1">
         <v>34</v>
@@ -4711,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.06634534895420075</v>
+        <v>0.0659119114279747</v>
       </c>
       <c r="C93" s="1">
         <v>34</v>
@@ -4737,7 +4737,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.06244267895817757</v>
+        <v>0.0620347410440445</v>
       </c>
       <c r="C94" s="1">
         <v>32</v>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.05854001268744469</v>
+        <v>0.05815756693482399</v>
       </c>
       <c r="C95" s="1">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.05854001268744469</v>
+        <v>0.05815756693482399</v>
       </c>
       <c r="C96" s="1">
         <v>30</v>
@@ -4815,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05463734641671181</v>
+        <v>0.05428039655089378</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -4841,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05463734641671181</v>
+        <v>0.05428039655089378</v>
       </c>
       <c r="C98" s="1">
         <v>28</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05073467642068863</v>
+        <v>0.05040322616696358</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04683201014995575</v>
+        <v>0.04652605578303337</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -4919,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.04683201014995575</v>
+        <v>0.04652605578303337</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -4945,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.03902667388319969</v>
+        <v>0.03877171128988266</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.03902667388319969</v>
+        <v>0.03877171128988266</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.03512400761246681</v>
+        <v>0.03489454090595245</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.03512400761246681</v>
+        <v>0.03489454090595245</v>
       </c>
       <c r="C105" s="1">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>0.03122133947908878</v>
+        <v>0.03101737052202225</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
@@ -5075,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.0273186732083559</v>
+        <v>0.02714019827544689</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01951333694159985</v>
+        <v>0.01938585564494133</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01951333694159985</v>
+        <v>0.01938585564494133</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5153,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01561066973954439</v>
+        <v>0.01550868526101112</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5179,7 +5179,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01561066973954439</v>
+        <v>0.01550868526101112</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>0.007805334869772196</v>
+        <v>0.007754342630505562</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>0.007805334869772196</v>
+        <v>0.007754342630505562</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5257,7 +5257,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.007805334869772196</v>
+        <v>0.007754342630505562</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
   <si>
     <t>Project</t>
   </si>
@@ -74,24 +74,21 @@
     <t>timer.o</t>
   </si>
   <si>
+    <t>oled.o</t>
+  </si>
+  <si>
+    <t>printfa.o</t>
+  </si>
+  <si>
+    <t>mf_w.l</t>
+  </si>
+  <si>
+    <t>kinematics.o</t>
+  </si>
+  <si>
     <t>m_ws.l</t>
   </si>
   <si>
-    <t>oled.o</t>
-  </si>
-  <si>
-    <t>mf_w.l</t>
-  </si>
-  <si>
-    <t>kinematics.o</t>
-  </si>
-  <si>
-    <t>printfa.o</t>
-  </si>
-  <si>
-    <t>rred.o</t>
-  </si>
-  <si>
     <t>soft_i2c.o</t>
   </si>
   <si>
@@ -137,15 +134,9 @@
     <t>_scanf_int.o</t>
   </si>
   <si>
-    <t>cos_i.o</t>
-  </si>
-  <si>
     <t>stm32f10x_tim.o</t>
   </si>
   <si>
-    <t>sin_i.o</t>
-  </si>
-  <si>
     <t>dmul.o</t>
   </si>
   <si>
@@ -158,24 +149,12 @@
     <t>fadd.o</t>
   </si>
   <si>
-    <t>poly.o</t>
-  </si>
-  <si>
-    <t>dsqrt.o</t>
-  </si>
-  <si>
-    <t>sin.o</t>
-  </si>
-  <si>
-    <t>cos.o</t>
+    <t>global.o</t>
   </si>
   <si>
     <t>fdiv.o</t>
   </si>
   <si>
-    <t>global.o</t>
-  </si>
-  <si>
     <t>stm32f10x_spi.o</t>
   </si>
   <si>
@@ -212,9 +191,6 @@
     <t>__dczerorl2.o</t>
   </si>
   <si>
-    <t>sqrt.o</t>
-  </si>
-  <si>
     <t>sys.o</t>
   </si>
   <si>
@@ -227,9 +203,6 @@
     <t>_sgetc.o</t>
   </si>
   <si>
-    <t>dfixi.o</t>
-  </si>
-  <si>
     <t>frnd.o</t>
   </si>
   <si>
@@ -257,9 +230,6 @@
     <t>gy33t.o</t>
   </si>
   <si>
-    <t>dscalb.o</t>
-  </si>
-  <si>
     <t>uidiv.o</t>
   </si>
   <si>
@@ -272,9 +242,6 @@
     <t>scanf_char.o</t>
   </si>
   <si>
-    <t>fpclassify.o</t>
-  </si>
-  <si>
     <t>f2d.o</t>
   </si>
   <si>
@@ -293,12 +260,6 @@
     <t>init.o</t>
   </si>
   <si>
-    <t>dflti.o</t>
-  </si>
-  <si>
-    <t>dunder.o</t>
-  </si>
-  <si>
     <t>llushr.o</t>
   </si>
   <si>
@@ -312,9 +273,6 @@
   </si>
   <si>
     <t>funder.o</t>
-  </si>
-  <si>
-    <t>dfltui.o</t>
   </si>
   <si>
     <t>fscalb.o</t>
@@ -473,9 +431,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$115</c:f>
+              <c:f>ram_percent!$A$3:$A$101</c:f>
               <c:strCache>
-                <c:ptCount val="113"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>spi_flash.o</c:v>
                 </c:pt>
@@ -530,7 +488,7 @@
                 <c:pt idx="17">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="98">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -538,65 +496,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$115</c:f>
+              <c:f>ram_percent!$B$3:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>37.15497207641602</c:v>
+                  <c:v>37.33683776855469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.80082893371582</c:v>
+                  <c:v>27.93691062927246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.59119606018066</c:v>
+                  <c:v>11.64793300628662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.281977653503418</c:v>
+                  <c:v>9.327410697937012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.236875534057617</c:v>
+                  <c:v>9.282088279724121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.056648015975952</c:v>
+                  <c:v>2.066715002059937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.280894875526428</c:v>
+                  <c:v>0.7976794838905335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3608154356479645</c:v>
+                  <c:v>0.3625815808773041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2976727485656738</c:v>
+                  <c:v>0.2991298139095306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2886523604393005</c:v>
+                  <c:v>0.2900652587413788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1804077178239822</c:v>
+                  <c:v>0.181290790438652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1804077178239822</c:v>
+                  <c:v>0.181290790438652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08118347823619843</c:v>
+                  <c:v>0.08158085495233536</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07216309010982513</c:v>
+                  <c:v>0.0725163146853447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03608154505491257</c:v>
+                  <c:v>0.03625815734267235</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03608154505491257</c:v>
+                  <c:v>0.03625815734267235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03608154505491257</c:v>
+                  <c:v>0.03625815734267235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02706115879118443</c:v>
-                </c:pt>
-                <c:pt idx="112">
+                  <c:v>0.02719361893832684</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -664,20 +622,20 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$115</c:f>
+              <c:f>flash_percent!$A$3:$A$101</c:f>
               <c:strCache>
-                <c:ptCount val="113"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>m_ws.l</c:v>
+                  <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>oled.o</c:v>
+                  <c:v>protocol.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>protocol.o</c:v>
+                  <c:v>printfa.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>mf_w.l</c:v>
@@ -686,7 +644,7 @@
                   <c:v>kinematics.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>printfa.o</c:v>
+                  <c:v>m_ws.l</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>application.o</c:v>
@@ -704,34 +662,34 @@
                   <c:v>function.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>rred.o</c:v>
+                  <c:v>soft_i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>soft_i2c.o</c:v>
+                  <c:v>pwmservo.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>pwmservo.o</c:v>
+                  <c:v>spi_flash.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>spi_flash.o</c:v>
+                  <c:v>scanf_fp.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>scanf_fp.o</c:v>
+                  <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>stm32f10x_rcc.o</c:v>
+                  <c:v>_scanf.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>_scanf.o</c:v>
+                  <c:v>atan2f.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>atan2f.o</c:v>
+                  <c:v>stm32f10x_usart.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>stm32f10x_usart.o</c:v>
+                  <c:v>stm32f10x_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>stm32f10x_gpio.o</c:v>
+                  <c:v>ps2.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>joystick.o</c:v>
@@ -758,252 +716,210 @@
                   <c:v>timer.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>ps2.o</c:v>
+                  <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>system_stm32f10x.o</c:v>
+                  <c:v>ultrasonic.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>ultrasonic.o</c:v>
+                  <c:v>dadd.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>dadd.o</c:v>
+                  <c:v>_scanf_int.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>_scanf_int.o</c:v>
+                  <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>cos_i.o</c:v>
+                  <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>stm32f10x_tim.o</c:v>
+                  <c:v>dmul.o</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>sin_i.o</c:v>
+                  <c:v>ddiv.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>startup_stm32f10x_md.o</c:v>
+                  <c:v>systick.o</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>dmul.o</c:v>
+                  <c:v>depilogue.o</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>ddiv.o</c:v>
+                  <c:v>fadd.o</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>systick.o</c:v>
+                  <c:v>global.o</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>depilogue.o</c:v>
+                  <c:v>fdiv.o</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>fadd.o</c:v>
+                  <c:v>stm32f10x_spi.o</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>poly.o</c:v>
+                  <c:v>misc.o</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>dsqrt.o</c:v>
+                  <c:v>fepilogue.o</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>sin.o</c:v>
+                  <c:v>ctype_c.o</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>cos.o</c:v>
+                  <c:v>key.o</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>fdiv.o</c:v>
+                  <c:v>beep.o</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>global.o</c:v>
+                  <c:v>fmul.o</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>stm32f10x_spi.o</c:v>
+                  <c:v>uldiv.o</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>misc.o</c:v>
+                  <c:v>dcmp4.o</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>fepilogue.o</c:v>
+                  <c:v>fsqrt.o</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>ctype_c.o</c:v>
+                  <c:v>rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>key.o</c:v>
+                  <c:v>__dczerorl2.o</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>beep.o</c:v>
+                  <c:v>sys.o</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>fmul.o</c:v>
+                  <c:v>fmin.o</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>uldiv.o</c:v>
+                  <c:v>fmax.o</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>dcmp4.o</c:v>
+                  <c:v>_sgetc.o</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>fsqrt.o</c:v>
+                  <c:v>frnd.o</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>rcc.o</c:v>
+                  <c:v>servopid.o</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>__dczerorl2.o</c:v>
+                  <c:v>d2f.o</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>sqrt.o</c:v>
+                  <c:v>__0sscanf.o</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>sys.o</c:v>
+                  <c:v>led.o</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>fmin.o</c:v>
+                  <c:v>ffixi.o</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>fmax.o</c:v>
+                  <c:v>dfixul.o</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>_sgetc.o</c:v>
+                  <c:v>cdrcmple.o</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>dfixi.o</c:v>
+                  <c:v>gy33t.o</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>frnd.o</c:v>
+                  <c:v>uidiv.o</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>servopid.o</c:v>
+                  <c:v>sqrtf.o</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>d2f.o</c:v>
+                  <c:v>ffixui.o</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>__0sscanf.o</c:v>
+                  <c:v>scanf_char.o</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>led.o</c:v>
+                  <c:v>f2d.o</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>ffixi.o</c:v>
+                  <c:v>fpclassifyf.o</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>dfixul.o</c:v>
+                  <c:v>memseta.o</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>cdrcmple.o</c:v>
+                  <c:v>memcpya.o</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>gy33t.o</c:v>
+                  <c:v>llsshr.o</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>dscalb.o</c:v>
+                  <c:v>init.o</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>uidiv.o</c:v>
+                  <c:v>llushr.o</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>sqrtf.o</c:v>
+                  <c:v>llshl.o</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>ffixui.o</c:v>
+                  <c:v>handlers.o</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>scanf_char.o</c:v>
+                  <c:v>_chval.o</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>fpclassify.o</c:v>
+                  <c:v>funder.o</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>f2d.o</c:v>
+                  <c:v>fscalb.o</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>fpclassifyf.o</c:v>
+                  <c:v>dfltul.o</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>memseta.o</c:v>
+                  <c:v>cfrcmple.o</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>memcpya.o</c:v>
+                  <c:v>cfcmple.o</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>llsshr.o</c:v>
+                  <c:v>fflti.o</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>init.o</c:v>
+                  <c:v>strcpy.o</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>dflti.o</c:v>
+                  <c:v>errno.o</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>dunder.o</c:v>
+                  <c:v>strlen.o</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>llushr.o</c:v>
+                  <c:v>ffltui.o</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>llshl.o</c:v>
+                  <c:v>isspace_c.o</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>handlers.o</c:v>
+                  <c:v>entry9a.o</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>_chval.o</c:v>
+                  <c:v>entry2.o</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>funder.o</c:v>
+                  <c:v>stdout.o</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>dfltui.o</c:v>
+                  <c:v>entry5.o</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>fscalb.o</c:v>
+                  <c:v>entry12b.o</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>dfltul.o</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>cfrcmple.o</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>cfcmple.o</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>fflti.o</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>strcpy.o</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>errno.o</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>strlen.o</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>ffltui.o</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>isspace_c.o</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>entry9a.o</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>entry2.o</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>stdout.o</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>entry5.o</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>entry12b.o</c:v>
-                </c:pt>
-                <c:pt idx="112">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1011,347 +927,305 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$115</c:f>
+              <c:f>flash_percent!$B$3:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>9.956575393676758</c:v>
+                  <c:v>11.11808681488037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.525899887084961</c:v>
+                  <c:v>8.897067070007324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.828008651733398</c:v>
+                  <c:v>7.769238948822022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.895548820495606</c:v>
+                  <c:v>4.909622192382813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.761166095733643</c:v>
+                  <c:v>4.602229595184326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.544044494628906</c:v>
+                  <c:v>4.554605484008789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.396712303161621</c:v>
+                  <c:v>4.506981372833252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.739531755447388</c:v>
+                  <c:v>4.175776481628418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.318858623504639</c:v>
+                  <c:v>3.656239748001099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.925325632095337</c:v>
+                  <c:v>3.309881925582886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.896246910095215</c:v>
+                  <c:v>3.234116315841675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.603520393371582</c:v>
+                  <c:v>2.76003885269165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.140198469161987</c:v>
+                  <c:v>2.212360620498657</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.981234550476074</c:v>
+                  <c:v>2.156077384948731</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.93083131313324</c:v>
+                  <c:v>2.011040210723877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.800945997238159</c:v>
+                  <c:v>1.900638580322266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.702078223228455</c:v>
+                  <c:v>1.809719681739807</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.620657563209534</c:v>
+                  <c:v>1.766424894332886</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.581885814666748</c:v>
+                  <c:v>1.463361859321594</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.310483813285828</c:v>
+                  <c:v>1.450373411178589</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.298852324485779</c:v>
+                  <c:v>1.030414581298828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9227667450904846</c:v>
+                  <c:v>1.004437685012817</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8956265449523926</c:v>
+                  <c:v>1.000108242034912</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8297146558761597</c:v>
+                  <c:v>0.9265071749687195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.798697292804718</c:v>
+                  <c:v>0.8918713927268982</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.763802707195282</c:v>
+                  <c:v>0.8529061675071716</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7599255442619324</c:v>
+                  <c:v>0.8485766649246216</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7599255442619324</c:v>
+                  <c:v>0.8485766649246216</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7366625070571899</c:v>
+                  <c:v>0.8225998282432556</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7153381109237671</c:v>
+                  <c:v>0.7987877726554871</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7133995294570923</c:v>
+                  <c:v>0.753328263759613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6746277809143066</c:v>
+                  <c:v>0.7273514270782471</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6513647437095642</c:v>
+                  <c:v>0.7230219841003418</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6474875807762146</c:v>
+                  <c:v>0.7186924815177918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.643610417842865</c:v>
+                  <c:v>0.6061261892318726</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5815756916999817</c:v>
+                  <c:v>0.5888082981109619</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.542803943157196</c:v>
+                  <c:v>0.4935598969459534</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5350496172904968</c:v>
+                  <c:v>0.4805714786052704</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5272952914237976</c:v>
+                  <c:v>0.4329472780227661</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4419975280761719</c:v>
+                  <c:v>0.4026409685611725</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4303660094738007</c:v>
+                  <c:v>0.3809936046600342</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3877171277999878</c:v>
+                  <c:v>0.2857452034950256</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3605769276618958</c:v>
+                  <c:v>0.268427312374115</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3411910533905029</c:v>
+                  <c:v>0.242450475692749</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3295595645904541</c:v>
+                  <c:v>0.242450475692749</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3140508830547333</c:v>
+                  <c:v>0.2381210029125214</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3101736903190613</c:v>
+                  <c:v>0.2251325845718384</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3024193644523621</c:v>
+                  <c:v>0.2251325845718384</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2403846085071564</c:v>
+                  <c:v>0.2251325845718384</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2287531048059464</c:v>
+                  <c:v>0.2164736390113831</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2171215862035751</c:v>
+                  <c:v>0.2121441662311554</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2171215862035751</c:v>
+                  <c:v>0.2078146934509277</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2132444232702255</c:v>
+                  <c:v>0.2034852206707001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2016129046678543</c:v>
+                  <c:v>0.2034852206707001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2016129046678543</c:v>
+                  <c:v>0.1861673295497894</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2016129046678543</c:v>
+                  <c:v>0.1558610200881958</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1938585638999939</c:v>
+                  <c:v>0.1428726017475128</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1899813860654831</c:v>
+                  <c:v>0.1428726017475128</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1861042231321335</c:v>
+                  <c:v>0.1385431289672852</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1822270452976227</c:v>
+                  <c:v>0.1298841834068298</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1822270452976227</c:v>
+                  <c:v>0.1298841834068298</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1667183637619019</c:v>
+                  <c:v>0.1212252378463745</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1473325043916702</c:v>
+                  <c:v>0.1212252378463745</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1395781636238098</c:v>
+                  <c:v>0.1212252378463745</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1279466450214386</c:v>
+                  <c:v>0.1082368195056915</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1279466450214386</c:v>
+                  <c:v>0.1039073467254639</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.124069482088089</c:v>
+                  <c:v>0.1039073467254639</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1201923042535782</c:v>
+                  <c:v>0.1039073467254639</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.116315133869648</c:v>
+                  <c:v>0.09524840116500855</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.116315133869648</c:v>
+                  <c:v>0.09524840116500855</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1085607931017876</c:v>
+                  <c:v>0.08658945560455322</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1085607931017876</c:v>
+                  <c:v>0.08658945560455322</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1085607931017876</c:v>
+                  <c:v>0.08225998282432556</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09692928194999695</c:v>
+                  <c:v>0.08225998282432556</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09305211156606674</c:v>
+                  <c:v>0.0779305100440979</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09305211156606674</c:v>
+                  <c:v>0.0779305100440979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09305211156606674</c:v>
+                  <c:v>0.0779305100440979</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08917494118213654</c:v>
+                  <c:v>0.0779305100440979</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08529776334762573</c:v>
+                  <c:v>0.06927156448364258</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08529776334762573</c:v>
+                  <c:v>0.06494209170341492</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07754342257976532</c:v>
+                  <c:v>0.06494209170341492</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07754342257976532</c:v>
+                  <c:v>0.06061261892318726</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07754342257976532</c:v>
+                  <c:v>0.06061261892318726</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07366625219583511</c:v>
+                  <c:v>0.05195367336273193</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07366625219583511</c:v>
+                  <c:v>0.05195367336273193</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.06978908181190491</c:v>
+                  <c:v>0.04329472780227661</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06978908181190491</c:v>
+                  <c:v>0.04329472780227661</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06978908181190491</c:v>
+                  <c:v>0.03896525502204895</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.06978908181190491</c:v>
+                  <c:v>0.03896525502204895</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0659119114279747</c:v>
+                  <c:v>0.03463578224182129</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0659119114279747</c:v>
+                  <c:v>0.03030630946159363</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0620347410440445</c:v>
+                  <c:v>0.02164736390113831</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05815756693482399</c:v>
+                  <c:v>0.02164736390113831</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05815756693482399</c:v>
+                  <c:v>0.01731789112091065</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05428039655089378</c:v>
+                  <c:v>0.01731789112091065</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05428039655089378</c:v>
+                  <c:v>0.008658945560455322</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05040322616696358</c:v>
+                  <c:v>0.008658945560455322</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04652605578303337</c:v>
+                  <c:v>0.008658945560455322</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.04652605578303337</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.03877171128988266</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.03877171128988266</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.03489454090595245</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.03489454090595245</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.03101737052202225</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.02714019827544689</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.01938585564494133</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.01938585564494133</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.01550868526101112</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.01550868526101112</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.007754342630505562</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.007754342630505562</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.007754342630505562</c:v>
-                </c:pt>
-                <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1456,8 +1330,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H115" totalsRowCount="1">
-  <autoFilter ref="A2:H114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H101" totalsRowCount="1">
+  <autoFilter ref="A2:H100"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1473,8 +1347,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H115" totalsRowCount="1">
-  <autoFilter ref="A2:H114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H101" totalsRowCount="1">
+  <autoFilter ref="A2:H100"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1774,7 +1648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1790,28 +1664,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1819,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.15497207641602</v>
+        <v>37.33683776855469</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1845,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.80082893371582</v>
+        <v>27.93691062927246</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
@@ -1871,16 +1745,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.59119606018066</v>
+        <v>11.64793300628662</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>3557</v>
+        <v>3589</v>
       </c>
       <c r="E5" s="1">
-        <v>3532</v>
+        <v>3564</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1897,16 +1771,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.281977653503418</v>
+        <v>9.327410697937012</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
       </c>
       <c r="D6" s="1">
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="E6" s="1">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1923,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.236875534057617</v>
+        <v>9.282088279724121</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1949,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.056648015975952</v>
+        <v>2.066715002059937</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1975,22 +1849,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.280894875526428</v>
+        <v>0.7976794838905335</v>
       </c>
       <c r="C9" s="1">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="E9" s="1">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="F9" s="1">
-        <v>870</v>
+        <v>645</v>
       </c>
       <c r="G9" s="1">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -2001,16 +1875,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.3608154356479645</v>
+        <v>0.3625815808773041</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1343</v>
+        <v>1275</v>
       </c>
       <c r="E10" s="1">
-        <v>1204</v>
+        <v>1136</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -2027,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2976727485656738</v>
+        <v>0.2991298139095306</v>
       </c>
       <c r="C11" s="1">
         <v>33</v>
@@ -2053,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2886523604393005</v>
+        <v>0.2900652587413788</v>
       </c>
       <c r="C12" s="1">
         <v>32</v>
@@ -2079,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1804077178239822</v>
+        <v>0.181290790438652</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -2105,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1804077178239822</v>
+        <v>0.181290790438652</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2131,19 +2005,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08118347823619843</v>
+        <v>0.08158085495233536</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="E15" s="1">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2157,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07216309010982513</v>
+        <v>0.0725163146853447</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2183,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03608154505491257</v>
+        <v>0.03625815734267235</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2209,7 +2083,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03608154505491257</v>
+        <v>0.03625815734267235</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2235,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03608154505491257</v>
+        <v>0.03625815734267235</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2261,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02706115879118443</v>
+        <v>0.02719361893832684</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2282,35 +2156,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C101">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D115">
+      <c r="D101">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E101">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F101">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G101">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H115">
+      <c r="H101">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2326,7 +2200,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2342,28 +2216,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2371,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>9.956575393676758</v>
+        <v>11.11808681488037</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2397,19 +2271,19 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.525899887084961</v>
+        <v>8.897067070007324</v>
       </c>
       <c r="C4" s="1">
-        <v>4398</v>
+        <v>4110</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>4078</v>
+        <v>746</v>
       </c>
       <c r="F4" s="1">
-        <v>320</v>
+        <v>3364</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2420,54 +2294,54 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>7.828008651733398</v>
+        <v>7.769238948822022</v>
       </c>
       <c r="C5" s="1">
-        <v>4038</v>
+        <v>3589</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="E5" s="1">
-        <v>742</v>
+        <v>3564</v>
       </c>
       <c r="F5" s="1">
-        <v>3296</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>6.895548820495606</v>
+        <v>4.909622192382813</v>
       </c>
       <c r="C6" s="1">
-        <v>3557</v>
+        <v>2268</v>
       </c>
       <c r="D6" s="1">
-        <v>1285</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>3532</v>
+        <v>2268</v>
       </c>
       <c r="F6" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2475,16 +2349,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.761166095733643</v>
+        <v>4.602229595184326</v>
       </c>
       <c r="C7" s="1">
-        <v>2456</v>
+        <v>2126</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2456</v>
+        <v>2126</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2501,16 +2375,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.544044494628906</v>
+        <v>4.554605484008789</v>
       </c>
       <c r="C8" s="1">
-        <v>2344</v>
+        <v>2104</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2200</v>
+        <v>1960</v>
       </c>
       <c r="F8" s="1">
         <v>144</v>
@@ -2527,19 +2401,19 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.396712303161621</v>
+        <v>4.506981372833252</v>
       </c>
       <c r="C9" s="1">
-        <v>2268</v>
+        <v>2082</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>2268</v>
+        <v>2050</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2553,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3.739531755447388</v>
+        <v>4.175776481628418</v>
       </c>
       <c r="C10" s="1">
         <v>1929</v>
@@ -2579,22 +2453,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.318858623504639</v>
+        <v>3.656239748001099</v>
       </c>
       <c r="C11" s="1">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="D11" s="1">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="F11" s="1">
-        <v>870</v>
+        <v>645</v>
       </c>
       <c r="G11" s="1">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2605,16 +2479,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>2.925325632095337</v>
+        <v>3.309881925582886</v>
       </c>
       <c r="C12" s="1">
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="D12" s="1">
         <v>1029</v>
       </c>
       <c r="E12" s="1">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2631,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.896246910095215</v>
+        <v>3.234116315841675</v>
       </c>
       <c r="C13" s="1">
         <v>1494</v>
@@ -2657,16 +2531,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.603520393371582</v>
+        <v>2.76003885269165</v>
       </c>
       <c r="C14" s="1">
-        <v>1343</v>
+        <v>1275</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1204</v>
+        <v>1136</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
@@ -2683,19 +2557,19 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.140198469161987</v>
+        <v>2.212360620498657</v>
       </c>
       <c r="C15" s="1">
-        <v>1104</v>
+        <v>1022</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>904</v>
+        <v>1022</v>
       </c>
       <c r="F15" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2706,103 +2580,103 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.981234550476074</v>
+        <v>2.156077384948731</v>
       </c>
       <c r="C16" s="1">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E16" s="1">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1.93083131313324</v>
+        <v>2.011040210723877</v>
       </c>
       <c r="C17" s="1">
-        <v>996</v>
+        <v>929</v>
       </c>
       <c r="D17" s="1">
-        <v>228</v>
+        <v>4119</v>
       </c>
       <c r="E17" s="1">
-        <v>992</v>
+        <v>924</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
-        <v>224</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.800945997238159</v>
+        <v>1.900638580322266</v>
       </c>
       <c r="C18" s="1">
-        <v>929</v>
+        <v>878</v>
       </c>
       <c r="D18" s="1">
-        <v>4119</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>4114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>1.702078223228455</v>
+        <v>1.809719681739807</v>
       </c>
       <c r="C19" s="1">
-        <v>878</v>
+        <v>836</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>878</v>
+        <v>816</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2810,16 +2684,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.620657563209534</v>
+        <v>1.766424894332886</v>
       </c>
       <c r="C20" s="1">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="D20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>816</v>
@@ -2828,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2839,16 +2713,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.581885814666748</v>
+        <v>1.463361859321594</v>
       </c>
       <c r="C21" s="1">
-        <v>816</v>
+        <v>676</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>816</v>
+        <v>676</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2865,16 +2739,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.310483813285828</v>
+        <v>1.450373411178589</v>
       </c>
       <c r="C22" s="1">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2891,16 +2765,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.298852324485779</v>
+        <v>1.030414581298828</v>
       </c>
       <c r="C23" s="1">
-        <v>670</v>
+        <v>476</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>670</v>
+        <v>476</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2914,36 +2788,36 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9227667450904846</v>
+        <v>1.004437685012817</v>
       </c>
       <c r="C24" s="1">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8956265449523926</v>
+        <v>1.000108242034912</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2966,10 +2840,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8297146558761597</v>
+        <v>0.9265071749687195</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2995,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.798697292804718</v>
+        <v>0.8918713927268982</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -3018,10 +2892,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.763802707195282</v>
+        <v>0.8529061675071716</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -3044,10 +2918,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7599255442619324</v>
+        <v>0.8485766649246216</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -3070,10 +2944,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7599255442619324</v>
+        <v>0.8485766649246216</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -3096,10 +2970,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7366625070571899</v>
+        <v>0.8225998282432556</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -3125,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7153381109237671</v>
+        <v>0.7987877726554871</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3148,51 +3022,51 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7133995294570923</v>
+        <v>0.753328263759613</v>
       </c>
       <c r="C33" s="1">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D33" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6746277809143066</v>
+        <v>0.7273514270782471</v>
       </c>
       <c r="C34" s="1">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D34" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3203,16 +3077,16 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6513647437095642</v>
+        <v>0.7230219841003418</v>
       </c>
       <c r="C35" s="1">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3229,16 +3103,16 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6474875807762146</v>
+        <v>0.7186924815177918</v>
       </c>
       <c r="C36" s="1">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3255,16 +3129,16 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.643610417842865</v>
+        <v>0.6061261892318726</v>
       </c>
       <c r="C37" s="1">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3278,45 +3152,45 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5815756916999817</v>
+        <v>0.5888082981109619</v>
       </c>
       <c r="C38" s="1">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E38" s="1">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.542803943157196</v>
+        <v>0.4935598969459534</v>
       </c>
       <c r="C39" s="1">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3330,22 +3204,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5350496172904968</v>
+        <v>0.4805714786052704</v>
       </c>
       <c r="C40" s="1">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F40" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3356,45 +3230,45 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5272952914237976</v>
+        <v>0.4329472780227661</v>
       </c>
       <c r="C41" s="1">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1">
-        <v>1024</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4419975280761719</v>
+        <v>0.4026409685611725</v>
       </c>
       <c r="C42" s="1">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3408,19 +3282,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4303660094738007</v>
+        <v>0.3809936046600342</v>
       </c>
       <c r="C43" s="1">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3434,25 +3308,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3877171277999878</v>
+        <v>0.2857452034950256</v>
       </c>
       <c r="C44" s="1">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -3463,16 +3337,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3605769276618958</v>
+        <v>0.268427312374115</v>
       </c>
       <c r="C45" s="1">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3489,16 +3363,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3411910533905029</v>
+        <v>0.242450475692749</v>
       </c>
       <c r="C46" s="1">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3515,16 +3389,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3295595645904541</v>
+        <v>0.242450475692749</v>
       </c>
       <c r="C47" s="1">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3541,16 +3415,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3140508830547333</v>
+        <v>0.2381210029125214</v>
       </c>
       <c r="C48" s="1">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3567,19 +3441,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3101736903190613</v>
+        <v>0.2251325845718384</v>
       </c>
       <c r="C49" s="1">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -3593,16 +3467,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3024193644523621</v>
+        <v>0.2251325845718384</v>
       </c>
       <c r="C50" s="1">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3619,16 +3493,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2403846085071564</v>
+        <v>0.2251325845718384</v>
       </c>
       <c r="C51" s="1">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3645,16 +3519,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2287531048059464</v>
+        <v>0.2164736390113831</v>
       </c>
       <c r="C52" s="1">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3671,16 +3545,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2171215862035751</v>
+        <v>0.2121441662311554</v>
       </c>
       <c r="C53" s="1">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3697,16 +3571,16 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2171215862035751</v>
+        <v>0.2078146934509277</v>
       </c>
       <c r="C54" s="1">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3723,16 +3597,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2132444232702255</v>
+        <v>0.2034852206707001</v>
       </c>
       <c r="C55" s="1">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3749,19 +3623,19 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2016129046678543</v>
+        <v>0.2034852206707001</v>
       </c>
       <c r="C56" s="1">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F56" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -3775,16 +3649,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2016129046678543</v>
+        <v>0.1861673295497894</v>
       </c>
       <c r="C57" s="1">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3801,16 +3675,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2016129046678543</v>
+        <v>0.1558610200881958</v>
       </c>
       <c r="C58" s="1">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3827,16 +3701,16 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1938585638999939</v>
+        <v>0.1428726017475128</v>
       </c>
       <c r="C59" s="1">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3853,16 +3727,16 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1899813860654831</v>
+        <v>0.1428726017475128</v>
       </c>
       <c r="C60" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3879,16 +3753,16 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1861042231321335</v>
+        <v>0.1385431289672852</v>
       </c>
       <c r="C61" s="1">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3905,16 +3779,16 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1822270452976227</v>
+        <v>0.1298841834068298</v>
       </c>
       <c r="C62" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3931,16 +3805,16 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1822270452976227</v>
+        <v>0.1298841834068298</v>
       </c>
       <c r="C63" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3957,16 +3831,16 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1667183637619019</v>
+        <v>0.1212252378463745</v>
       </c>
       <c r="C64" s="1">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3983,16 +3857,16 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1473325043916702</v>
+        <v>0.1212252378463745</v>
       </c>
       <c r="C65" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4009,16 +3883,16 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1395781636238098</v>
+        <v>0.1212252378463745</v>
       </c>
       <c r="C66" s="1">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4035,16 +3909,16 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1279466450214386</v>
+        <v>0.1082368195056915</v>
       </c>
       <c r="C67" s="1">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4061,16 +3935,16 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1279466450214386</v>
+        <v>0.1039073467254639</v>
       </c>
       <c r="C68" s="1">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4087,16 +3961,16 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.124069482088089</v>
+        <v>0.1039073467254639</v>
       </c>
       <c r="C69" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4113,16 +3987,16 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1201923042535782</v>
+        <v>0.1039073467254639</v>
       </c>
       <c r="C70" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4139,16 +4013,16 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.116315133869648</v>
+        <v>0.09524840116500855</v>
       </c>
       <c r="C71" s="1">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4165,16 +4039,16 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.116315133869648</v>
+        <v>0.09524840116500855</v>
       </c>
       <c r="C72" s="1">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4191,16 +4065,16 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1085607931017876</v>
+        <v>0.08658945560455322</v>
       </c>
       <c r="C73" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4217,16 +4091,16 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1085607931017876</v>
+        <v>0.08658945560455322</v>
       </c>
       <c r="C74" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4243,16 +4117,16 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1085607931017876</v>
+        <v>0.08225998282432556</v>
       </c>
       <c r="C75" s="1">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4269,16 +4143,16 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09692928194999695</v>
+        <v>0.08225998282432556</v>
       </c>
       <c r="C76" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4295,16 +4169,16 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09305211156606674</v>
+        <v>0.0779305100440979</v>
       </c>
       <c r="C77" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4321,16 +4195,16 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09305211156606674</v>
+        <v>0.0779305100440979</v>
       </c>
       <c r="C78" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4347,16 +4221,16 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09305211156606674</v>
+        <v>0.0779305100440979</v>
       </c>
       <c r="C79" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4373,16 +4247,16 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08917494118213654</v>
+        <v>0.0779305100440979</v>
       </c>
       <c r="C80" s="1">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4399,16 +4273,16 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08529776334762573</v>
+        <v>0.06927156448364258</v>
       </c>
       <c r="C81" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4425,16 +4299,16 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08529776334762573</v>
+        <v>0.06494209170341492</v>
       </c>
       <c r="C82" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4451,16 +4325,16 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07754342257976532</v>
+        <v>0.06494209170341492</v>
       </c>
       <c r="C83" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4477,16 +4351,16 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07754342257976532</v>
+        <v>0.06061261892318726</v>
       </c>
       <c r="C84" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4503,16 +4377,16 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07754342257976532</v>
+        <v>0.06061261892318726</v>
       </c>
       <c r="C85" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4529,16 +4403,16 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07366625219583511</v>
+        <v>0.05195367336273193</v>
       </c>
       <c r="C86" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4555,16 +4429,16 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07366625219583511</v>
+        <v>0.05195367336273193</v>
       </c>
       <c r="C87" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4581,16 +4455,16 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.06978908181190491</v>
+        <v>0.04329472780227661</v>
       </c>
       <c r="C88" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4607,16 +4481,16 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06978908181190491</v>
+        <v>0.04329472780227661</v>
       </c>
       <c r="C89" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4633,16 +4507,16 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06978908181190491</v>
+        <v>0.03896525502204895</v>
       </c>
       <c r="C90" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4659,16 +4533,16 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.06978908181190491</v>
+        <v>0.03896525502204895</v>
       </c>
       <c r="C91" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4682,25 +4556,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B92" s="2">
-        <v>0.0659119114279747</v>
+        <v>0.03463578224182129</v>
       </c>
       <c r="C92" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -4708,19 +4582,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.0659119114279747</v>
+        <v>0.03030630946159363</v>
       </c>
       <c r="C93" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -4734,19 +4608,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.0620347410440445</v>
+        <v>0.02164736390113831</v>
       </c>
       <c r="C94" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -4760,19 +4634,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.05815756693482399</v>
+        <v>0.02164736390113831</v>
       </c>
       <c r="C95" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4786,19 +4660,19 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.05815756693482399</v>
+        <v>0.01731789112091065</v>
       </c>
       <c r="C96" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -4812,19 +4686,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05428039655089378</v>
+        <v>0.01731789112091065</v>
       </c>
       <c r="C97" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -4838,25 +4712,25 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05428039655089378</v>
+        <v>0.008658945560455322</v>
       </c>
       <c r="C98" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E98" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -4864,19 +4738,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05040322616696358</v>
+        <v>0.008658945560455322</v>
       </c>
       <c r="C99" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -4890,423 +4764,59 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.008658945560455322</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2">
-        <v>0.04652605578303337</v>
-      </c>
-      <c r="C100" s="1">
-        <v>24</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <v>24</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0.04652605578303337</v>
-      </c>
-      <c r="C101" s="1">
-        <v>24</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>24</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="2">
-        <v>0.03877171128988266</v>
-      </c>
-      <c r="C102" s="1">
-        <v>20</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>20</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0.03877171128988266</v>
-      </c>
-      <c r="C103" s="1">
-        <v>20</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>20</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="2">
-        <v>0.03489454090595245</v>
-      </c>
-      <c r="C104" s="1">
-        <v>18</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>18</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="2">
-        <v>0.03489454090595245</v>
-      </c>
-      <c r="C105" s="1">
-        <v>18</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1">
-        <v>18</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" s="2">
-        <v>0.03101737052202225</v>
-      </c>
-      <c r="C106" s="1">
-        <v>16</v>
-      </c>
-      <c r="D106" s="1">
-        <v>4</v>
-      </c>
-      <c r="E106" s="1">
-        <v>12</v>
-      </c>
-      <c r="F106" s="1">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
-        <v>4</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2">
-        <v>0.02714019827544689</v>
-      </c>
-      <c r="C107" s="1">
-        <v>14</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>14</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2">
-        <v>0.01938585564494133</v>
-      </c>
-      <c r="C108" s="1">
-        <v>10</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>10</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2">
-        <v>0.01938585564494133</v>
-      </c>
-      <c r="C109" s="1">
-        <v>10</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>10</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2">
-        <v>0.01550868526101112</v>
-      </c>
-      <c r="C110" s="1">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1">
-        <v>8</v>
-      </c>
-      <c r="F110" s="1">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2">
-        <v>0.01550868526101112</v>
-      </c>
-      <c r="C111" s="1">
-        <v>8</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>8</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="2">
-        <v>0.007754342630505562</v>
-      </c>
-      <c r="C112" s="1">
-        <v>4</v>
-      </c>
-      <c r="D112" s="1">
-        <v>4</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1">
-        <v>4</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2">
-        <v>0.007754342630505562</v>
-      </c>
-      <c r="C113" s="1">
-        <v>4</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1">
-        <v>4</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2">
-        <v>0.007754342630505562</v>
-      </c>
-      <c r="C114" s="1">
-        <v>4</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1">
-        <v>4</v>
-      </c>
-      <c r="F114" s="1">
-        <v>0</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
+      <c r="B101">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C101">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D115">
+      <c r="D101">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E101">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F101">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G101">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H115">
+      <c r="H101">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -932,298 +932,298 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>11.11808681488037</c:v>
+                  <c:v>11.11135196685791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.897067070007324</c:v>
+                  <c:v>8.891676902770996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.769238948822022</c:v>
+                  <c:v>7.764533042907715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.909622192382813</c:v>
+                  <c:v>4.9066481590271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.602229595184326</c:v>
+                  <c:v>4.599442005157471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.554605484008789</c:v>
+                  <c:v>4.551846504211426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.506981372833252</c:v>
+                  <c:v>4.504251003265381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.175776481628418</c:v>
+                  <c:v>4.17324686050415</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.656239748001099</c:v>
+                  <c:v>3.654025077819824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.309881925582886</c:v>
+                  <c:v>3.307877063751221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.234116315841675</c:v>
+                  <c:v>3.232157230377197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.76003885269165</c:v>
+                  <c:v>2.818943023681641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.212360620498657</c:v>
+                  <c:v>2.211020469665527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.156077384948731</c:v>
+                  <c:v>2.154771327972412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.011040210723877</c:v>
+                  <c:v>2.009821891784668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.900638580322266</c:v>
+                  <c:v>1.899487257003784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.809719681739807</c:v>
+                  <c:v>1.808623433113098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.766424894332886</c:v>
+                  <c:v>1.765354871749878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.463361859321594</c:v>
+                  <c:v>1.462475419044495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.450373411178589</c:v>
+                  <c:v>1.4494948387146</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.030414581298828</c:v>
+                  <c:v>1.02979040145874</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.004437685012817</c:v>
+                  <c:v>1.00382924079895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.000108242034912</c:v>
+                  <c:v>0.999502420425415</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9265071749687195</c:v>
+                  <c:v>0.9259459376335144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8918713927268982</c:v>
+                  <c:v>0.8913311362266541</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8529061675071716</c:v>
+                  <c:v>0.8523895144462585</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8485766649246216</c:v>
+                  <c:v>0.8480626344680786</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8485766649246216</c:v>
+                  <c:v>0.8480626344680786</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8225998282432556</c:v>
+                  <c:v>0.8221015334129334</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7987877726554871</c:v>
+                  <c:v>0.7983039021492004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.753328263759613</c:v>
+                  <c:v>0.7528719305992127</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7273514270782471</c:v>
+                  <c:v>0.7269108295440674</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7230219841003418</c:v>
+                  <c:v>0.7225840091705322</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7186924815177918</c:v>
+                  <c:v>0.7182571291923523</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6061261892318726</c:v>
+                  <c:v>0.6057590246200562</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5888082981109619</c:v>
+                  <c:v>0.588451623916626</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4935598969459534</c:v>
+                  <c:v>0.49326092004776</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4805714786052704</c:v>
+                  <c:v>0.4802803695201874</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4329472780227661</c:v>
+                  <c:v>0.4326850175857544</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4026409685611725</c:v>
+                  <c:v>0.4023970663547516</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3809936046600342</c:v>
+                  <c:v>0.3807628154754639</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2857452034950256</c:v>
+                  <c:v>0.2855721116065979</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.268427312374115</c:v>
+                  <c:v>0.2682647109031677</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.242450475692749</c:v>
+                  <c:v>0.2423036098480225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.242450475692749</c:v>
+                  <c:v>0.2423036098480225</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2381210029125214</c:v>
+                  <c:v>0.2379767596721649</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2251325845718384</c:v>
+                  <c:v>0.2249962091445923</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2251325845718384</c:v>
+                  <c:v>0.2249962091445923</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2251325845718384</c:v>
+                  <c:v>0.2249962091445923</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2164736390113831</c:v>
+                  <c:v>0.2163425087928772</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2121441662311554</c:v>
+                  <c:v>0.2120156586170197</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2078146934509277</c:v>
+                  <c:v>0.2076888084411621</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2034852206707001</c:v>
+                  <c:v>0.2033619582653046</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2034852206707001</c:v>
+                  <c:v>0.2033619582653046</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1861673295497894</c:v>
+                  <c:v>0.1860545575618744</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1558610200881958</c:v>
+                  <c:v>0.1557666063308716</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1428726017475128</c:v>
+                  <c:v>0.142786055803299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1428726017475128</c:v>
+                  <c:v>0.142786055803299</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1385431289672852</c:v>
+                  <c:v>0.1384592056274414</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1298841834068298</c:v>
+                  <c:v>0.1298055052757263</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1298841834068298</c:v>
+                  <c:v>0.1298055052757263</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1212252378463745</c:v>
+                  <c:v>0.1211518049240112</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1212252378463745</c:v>
+                  <c:v>0.1211518049240112</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1212252378463745</c:v>
+                  <c:v>0.1211518049240112</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1082368195056915</c:v>
+                  <c:v>0.1081712543964386</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1039073467254639</c:v>
+                  <c:v>0.1038444042205811</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1039073467254639</c:v>
+                  <c:v>0.1038444042205811</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1039073467254639</c:v>
+                  <c:v>0.1038444042205811</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.09524840116500855</c:v>
+                  <c:v>0.09519070386886597</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.09524840116500855</c:v>
+                  <c:v>0.09519070386886597</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.08658945560455322</c:v>
+                  <c:v>0.08653700351715088</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.08658945560455322</c:v>
+                  <c:v>0.08653700351715088</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.08225998282432556</c:v>
+                  <c:v>0.08221015334129334</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.08225998282432556</c:v>
+                  <c:v>0.08221015334129334</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0779305100440979</c:v>
+                  <c:v>0.07788330316543579</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0779305100440979</c:v>
+                  <c:v>0.07788330316543579</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0779305100440979</c:v>
+                  <c:v>0.07788330316543579</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0779305100440979</c:v>
+                  <c:v>0.07788330316543579</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.06927156448364258</c:v>
+                  <c:v>0.0692296028137207</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.06494209170341492</c:v>
+                  <c:v>0.06490275263786316</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.06494209170341492</c:v>
+                  <c:v>0.06490275263786316</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06061261892318726</c:v>
+                  <c:v>0.06057590246200562</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06061261892318726</c:v>
+                  <c:v>0.06057590246200562</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.05195367336273193</c:v>
+                  <c:v>0.05192220211029053</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.05195367336273193</c:v>
+                  <c:v>0.05192220211029053</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04329472780227661</c:v>
+                  <c:v>0.04326850175857544</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04329472780227661</c:v>
+                  <c:v>0.04326850175857544</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.03896525502204895</c:v>
+                  <c:v>0.0389416515827179</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.03896525502204895</c:v>
+                  <c:v>0.0389416515827179</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.03463578224182129</c:v>
+                  <c:v>0.03461480140686035</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03030630946159363</c:v>
+                  <c:v>0.03028795123100281</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02164736390113831</c:v>
+                  <c:v>0.02163425087928772</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.02164736390113831</c:v>
+                  <c:v>0.02163425087928772</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01731789112091065</c:v>
+                  <c:v>0.01730740070343018</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01731789112091065</c:v>
+                  <c:v>0.01730740070343018</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.008658945560455322</c:v>
+                  <c:v>0.008653700351715088</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.008658945560455322</c:v>
+                  <c:v>0.008653700351715088</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.008658945560455322</c:v>
+                  <c:v>0.008653700351715088</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -1881,10 +1881,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1275</v>
+        <v>1303</v>
       </c>
       <c r="E10" s="1">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -2245,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>11.11808681488037</v>
+        <v>11.11135196685791</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2271,7 +2271,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.897067070007324</v>
+        <v>8.891676902770996</v>
       </c>
       <c r="C4" s="1">
         <v>4110</v>
@@ -2297,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>7.769238948822022</v>
+        <v>7.764533042907715</v>
       </c>
       <c r="C5" s="1">
         <v>3589</v>
@@ -2323,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>4.909622192382813</v>
+        <v>4.9066481590271</v>
       </c>
       <c r="C6" s="1">
         <v>2268</v>
@@ -2349,7 +2349,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.602229595184326</v>
+        <v>4.599442005157471</v>
       </c>
       <c r="C7" s="1">
         <v>2126</v>
@@ -2375,7 +2375,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.554605484008789</v>
+        <v>4.551846504211426</v>
       </c>
       <c r="C8" s="1">
         <v>2104</v>
@@ -2401,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.506981372833252</v>
+        <v>4.504251003265381</v>
       </c>
       <c r="C9" s="1">
         <v>2082</v>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>4.175776481628418</v>
+        <v>4.17324686050415</v>
       </c>
       <c r="C10" s="1">
         <v>1929</v>
@@ -2453,7 +2453,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.656239748001099</v>
+        <v>3.654025077819824</v>
       </c>
       <c r="C11" s="1">
         <v>1689</v>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>3.309881925582886</v>
+        <v>3.307877063751221</v>
       </c>
       <c r="C12" s="1">
         <v>1529</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>3.234116315841675</v>
+        <v>3.232157230377197</v>
       </c>
       <c r="C13" s="1">
         <v>1494</v>
@@ -2531,16 +2531,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.76003885269165</v>
+        <v>2.818943023681641</v>
       </c>
       <c r="C14" s="1">
-        <v>1275</v>
+        <v>1303</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
@@ -2557,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.212360620498657</v>
+        <v>2.211020469665527</v>
       </c>
       <c r="C15" s="1">
         <v>1022</v>
@@ -2583,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>2.156077384948731</v>
+        <v>2.154771327972412</v>
       </c>
       <c r="C16" s="1">
         <v>996</v>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>2.011040210723877</v>
+        <v>2.009821891784668</v>
       </c>
       <c r="C17" s="1">
         <v>929</v>
@@ -2635,7 +2635,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.900638580322266</v>
+        <v>1.899487257003784</v>
       </c>
       <c r="C18" s="1">
         <v>878</v>
@@ -2661,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>1.809719681739807</v>
+        <v>1.808623433113098</v>
       </c>
       <c r="C19" s="1">
         <v>836</v>
@@ -2687,7 +2687,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.766424894332886</v>
+        <v>1.765354871749878</v>
       </c>
       <c r="C20" s="1">
         <v>816</v>
@@ -2713,7 +2713,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.463361859321594</v>
+        <v>1.462475419044495</v>
       </c>
       <c r="C21" s="1">
         <v>676</v>
@@ -2739,7 +2739,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.450373411178589</v>
+        <v>1.4494948387146</v>
       </c>
       <c r="C22" s="1">
         <v>670</v>
@@ -2765,7 +2765,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.030414581298828</v>
+        <v>1.02979040145874</v>
       </c>
       <c r="C23" s="1">
         <v>476</v>
@@ -2791,7 +2791,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="2">
-        <v>1.004437685012817</v>
+        <v>1.00382924079895</v>
       </c>
       <c r="C24" s="1">
         <v>464</v>
@@ -2817,7 +2817,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>1.000108242034912</v>
+        <v>0.999502420425415</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2843,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9265071749687195</v>
+        <v>0.9259459376335144</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2869,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8918713927268982</v>
+        <v>0.8913311362266541</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -2895,7 +2895,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8529061675071716</v>
+        <v>0.8523895144462585</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -2921,7 +2921,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8485766649246216</v>
+        <v>0.8480626344680786</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -2947,7 +2947,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8485766649246216</v>
+        <v>0.8480626344680786</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -2973,7 +2973,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8225998282432556</v>
+        <v>0.8221015334129334</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -2999,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7987877726554871</v>
+        <v>0.7983039021492004</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="2">
-        <v>0.753328263759613</v>
+        <v>0.7528719305992127</v>
       </c>
       <c r="C33" s="1">
         <v>348</v>
@@ -3051,7 +3051,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7273514270782471</v>
+        <v>0.7269108295440674</v>
       </c>
       <c r="C34" s="1">
         <v>336</v>
@@ -3077,7 +3077,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.7230219841003418</v>
+        <v>0.7225840091705322</v>
       </c>
       <c r="C35" s="1">
         <v>334</v>
@@ -3103,7 +3103,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.7186924815177918</v>
+        <v>0.7182571291923523</v>
       </c>
       <c r="C36" s="1">
         <v>332</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6061261892318726</v>
+        <v>0.6057590246200562</v>
       </c>
       <c r="C37" s="1">
         <v>280</v>
@@ -3155,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5888082981109619</v>
+        <v>0.588451623916626</v>
       </c>
       <c r="C38" s="1">
         <v>272</v>
@@ -3181,7 +3181,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4935598969459534</v>
+        <v>0.49326092004776</v>
       </c>
       <c r="C39" s="1">
         <v>228</v>
@@ -3207,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4805714786052704</v>
+        <v>0.4802803695201874</v>
       </c>
       <c r="C40" s="1">
         <v>222</v>
@@ -3233,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4329472780227661</v>
+        <v>0.4326850175857544</v>
       </c>
       <c r="C41" s="1">
         <v>200</v>
@@ -3259,7 +3259,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4026409685611725</v>
+        <v>0.4023970663547516</v>
       </c>
       <c r="C42" s="1">
         <v>186</v>
@@ -3285,7 +3285,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3809936046600342</v>
+        <v>0.3807628154754639</v>
       </c>
       <c r="C43" s="1">
         <v>176</v>
@@ -3311,7 +3311,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2857452034950256</v>
+        <v>0.2855721116065979</v>
       </c>
       <c r="C44" s="1">
         <v>132</v>
@@ -3337,7 +3337,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.268427312374115</v>
+        <v>0.2682647109031677</v>
       </c>
       <c r="C45" s="1">
         <v>124</v>
@@ -3363,7 +3363,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.242450475692749</v>
+        <v>0.2423036098480225</v>
       </c>
       <c r="C46" s="1">
         <v>112</v>
@@ -3389,7 +3389,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.242450475692749</v>
+        <v>0.2423036098480225</v>
       </c>
       <c r="C47" s="1">
         <v>112</v>
@@ -3415,7 +3415,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2381210029125214</v>
+        <v>0.2379767596721649</v>
       </c>
       <c r="C48" s="1">
         <v>110</v>
@@ -3441,7 +3441,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2251325845718384</v>
+        <v>0.2249962091445923</v>
       </c>
       <c r="C49" s="1">
         <v>104</v>
@@ -3467,7 +3467,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2251325845718384</v>
+        <v>0.2249962091445923</v>
       </c>
       <c r="C50" s="1">
         <v>104</v>
@@ -3493,7 +3493,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2251325845718384</v>
+        <v>0.2249962091445923</v>
       </c>
       <c r="C51" s="1">
         <v>104</v>
@@ -3519,7 +3519,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2164736390113831</v>
+        <v>0.2163425087928772</v>
       </c>
       <c r="C52" s="1">
         <v>100</v>
@@ -3545,7 +3545,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2121441662311554</v>
+        <v>0.2120156586170197</v>
       </c>
       <c r="C53" s="1">
         <v>98</v>
@@ -3571,7 +3571,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2078146934509277</v>
+        <v>0.2076888084411621</v>
       </c>
       <c r="C54" s="1">
         <v>96</v>
@@ -3597,7 +3597,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2034852206707001</v>
+        <v>0.2033619582653046</v>
       </c>
       <c r="C55" s="1">
         <v>94</v>
@@ -3623,7 +3623,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2034852206707001</v>
+        <v>0.2033619582653046</v>
       </c>
       <c r="C56" s="1">
         <v>94</v>
@@ -3649,7 +3649,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1861673295497894</v>
+        <v>0.1860545575618744</v>
       </c>
       <c r="C57" s="1">
         <v>86</v>
@@ -3675,7 +3675,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1558610200881958</v>
+        <v>0.1557666063308716</v>
       </c>
       <c r="C58" s="1">
         <v>72</v>
@@ -3701,7 +3701,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1428726017475128</v>
+        <v>0.142786055803299</v>
       </c>
       <c r="C59" s="1">
         <v>66</v>
@@ -3727,7 +3727,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1428726017475128</v>
+        <v>0.142786055803299</v>
       </c>
       <c r="C60" s="1">
         <v>66</v>
@@ -3753,7 +3753,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1385431289672852</v>
+        <v>0.1384592056274414</v>
       </c>
       <c r="C61" s="1">
         <v>64</v>
@@ -3779,7 +3779,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1298841834068298</v>
+        <v>0.1298055052757263</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3805,7 +3805,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1298841834068298</v>
+        <v>0.1298055052757263</v>
       </c>
       <c r="C63" s="1">
         <v>60</v>
@@ -3831,7 +3831,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1212252378463745</v>
+        <v>0.1211518049240112</v>
       </c>
       <c r="C64" s="1">
         <v>56</v>
@@ -3857,7 +3857,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1212252378463745</v>
+        <v>0.1211518049240112</v>
       </c>
       <c r="C65" s="1">
         <v>56</v>
@@ -3883,7 +3883,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1212252378463745</v>
+        <v>0.1211518049240112</v>
       </c>
       <c r="C66" s="1">
         <v>56</v>
@@ -3909,7 +3909,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1082368195056915</v>
+        <v>0.1081712543964386</v>
       </c>
       <c r="C67" s="1">
         <v>50</v>
@@ -3935,7 +3935,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1039073467254639</v>
+        <v>0.1038444042205811</v>
       </c>
       <c r="C68" s="1">
         <v>48</v>
@@ -3961,7 +3961,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1039073467254639</v>
+        <v>0.1038444042205811</v>
       </c>
       <c r="C69" s="1">
         <v>48</v>
@@ -3987,7 +3987,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1039073467254639</v>
+        <v>0.1038444042205811</v>
       </c>
       <c r="C70" s="1">
         <v>48</v>
@@ -4013,7 +4013,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.09524840116500855</v>
+        <v>0.09519070386886597</v>
       </c>
       <c r="C71" s="1">
         <v>44</v>
@@ -4039,7 +4039,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.09524840116500855</v>
+        <v>0.09519070386886597</v>
       </c>
       <c r="C72" s="1">
         <v>44</v>
@@ -4065,7 +4065,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.08658945560455322</v>
+        <v>0.08653700351715088</v>
       </c>
       <c r="C73" s="1">
         <v>40</v>
@@ -4091,7 +4091,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.08658945560455322</v>
+        <v>0.08653700351715088</v>
       </c>
       <c r="C74" s="1">
         <v>40</v>
@@ -4117,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.08225998282432556</v>
+        <v>0.08221015334129334</v>
       </c>
       <c r="C75" s="1">
         <v>38</v>
@@ -4143,7 +4143,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.08225998282432556</v>
+        <v>0.08221015334129334</v>
       </c>
       <c r="C76" s="1">
         <v>38</v>
@@ -4169,7 +4169,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.0779305100440979</v>
+        <v>0.07788330316543579</v>
       </c>
       <c r="C77" s="1">
         <v>36</v>
@@ -4195,7 +4195,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0779305100440979</v>
+        <v>0.07788330316543579</v>
       </c>
       <c r="C78" s="1">
         <v>36</v>
@@ -4221,7 +4221,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0779305100440979</v>
+        <v>0.07788330316543579</v>
       </c>
       <c r="C79" s="1">
         <v>36</v>
@@ -4247,7 +4247,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.0779305100440979</v>
+        <v>0.07788330316543579</v>
       </c>
       <c r="C80" s="1">
         <v>36</v>
@@ -4273,7 +4273,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.06927156448364258</v>
+        <v>0.0692296028137207</v>
       </c>
       <c r="C81" s="1">
         <v>32</v>
@@ -4299,7 +4299,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.06494209170341492</v>
+        <v>0.06490275263786316</v>
       </c>
       <c r="C82" s="1">
         <v>30</v>
@@ -4325,7 +4325,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.06494209170341492</v>
+        <v>0.06490275263786316</v>
       </c>
       <c r="C83" s="1">
         <v>30</v>
@@ -4351,7 +4351,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.06061261892318726</v>
+        <v>0.06057590246200562</v>
       </c>
       <c r="C84" s="1">
         <v>28</v>
@@ -4377,7 +4377,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06061261892318726</v>
+        <v>0.06057590246200562</v>
       </c>
       <c r="C85" s="1">
         <v>28</v>
@@ -4403,7 +4403,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.05195367336273193</v>
+        <v>0.05192220211029053</v>
       </c>
       <c r="C86" s="1">
         <v>24</v>
@@ -4429,7 +4429,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.05195367336273193</v>
+        <v>0.05192220211029053</v>
       </c>
       <c r="C87" s="1">
         <v>24</v>
@@ -4455,7 +4455,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.04329472780227661</v>
+        <v>0.04326850175857544</v>
       </c>
       <c r="C88" s="1">
         <v>20</v>
@@ -4481,7 +4481,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.04329472780227661</v>
+        <v>0.04326850175857544</v>
       </c>
       <c r="C89" s="1">
         <v>20</v>
@@ -4507,7 +4507,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.03896525502204895</v>
+        <v>0.0389416515827179</v>
       </c>
       <c r="C90" s="1">
         <v>18</v>
@@ -4533,7 +4533,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.03896525502204895</v>
+        <v>0.0389416515827179</v>
       </c>
       <c r="C91" s="1">
         <v>18</v>
@@ -4559,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="B92" s="2">
-        <v>0.03463578224182129</v>
+        <v>0.03461480140686035</v>
       </c>
       <c r="C92" s="1">
         <v>16</v>
@@ -4585,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03030630946159363</v>
+        <v>0.03028795123100281</v>
       </c>
       <c r="C93" s="1">
         <v>14</v>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.02164736390113831</v>
+        <v>0.02163425087928772</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
@@ -4637,7 +4637,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.02164736390113831</v>
+        <v>0.02163425087928772</v>
       </c>
       <c r="C95" s="1">
         <v>10</v>
@@ -4663,7 +4663,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.01731789112091065</v>
+        <v>0.01730740070343018</v>
       </c>
       <c r="C96" s="1">
         <v>8</v>
@@ -4689,7 +4689,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.01731789112091065</v>
+        <v>0.01730740070343018</v>
       </c>
       <c r="C97" s="1">
         <v>8</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="B98" s="2">
-        <v>0.008658945560455322</v>
+        <v>0.008653700351715088</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -4741,7 +4741,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>0.008658945560455322</v>
+        <v>0.008653700351715088</v>
       </c>
       <c r="C99" s="1">
         <v>4</v>
@@ -4767,7 +4767,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>0.008658945560455322</v>
+        <v>0.008653700351715088</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -501,58 +501,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>37.33683776855469</c:v>
+                  <c:v>37.32668685913086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.93691062927246</c:v>
+                  <c:v>27.9293155670166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.64793300628662</c:v>
+                  <c:v>11.64476680755615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.327410697937012</c:v>
+                  <c:v>9.324875831604004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.282088279724121</c:v>
+                  <c:v>9.27956485748291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.066715002059937</c:v>
+                  <c:v>2.066153049468994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7976794838905335</c:v>
+                  <c:v>0.7974626421928406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3625815808773041</c:v>
+                  <c:v>0.3624829947948456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2991298139095306</c:v>
+                  <c:v>0.2990484833717346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2900652587413788</c:v>
+                  <c:v>0.2899864017963409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.181290790438652</c:v>
+                  <c:v>0.1812414973974228</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.181290790438652</c:v>
+                  <c:v>0.1812414973974228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08158085495233536</c:v>
+                  <c:v>0.1087449043989182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0725163146853447</c:v>
+                  <c:v>0.07249660044908524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03625815734267235</c:v>
+                  <c:v>0.03624830022454262</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03625815734267235</c:v>
+                  <c:v>0.03624830022454262</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03625815734267235</c:v>
+                  <c:v>0.03624830022454262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02719361893832684</c:v>
+                  <c:v>0.02718622609972954</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -671,25 +671,25 @@
                   <c:v>spi_flash.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>ps2.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>scanf_fp.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>atan2f.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>stm32f10x_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>stm32f10x_gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ps2.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>joystick.o</c:v>
@@ -932,298 +932,298 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>11.11135196685791</c:v>
+                  <c:v>11.09143543243408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.891676902770996</c:v>
+                  <c:v>8.728890419006348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.764533042907715</c:v>
+                  <c:v>7.707424640655518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9066481590271</c:v>
+                  <c:v>4.897853374481201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.599442005157471</c:v>
+                  <c:v>4.591197490692139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.551846504211426</c:v>
+                  <c:v>4.54368782043457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.504251003265381</c:v>
+                  <c:v>4.496177673339844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.17324686050415</c:v>
+                  <c:v>3.707942724227905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.654025077819824</c:v>
+                  <c:v>3.656113624572754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.307877063751221</c:v>
+                  <c:v>3.258756875991821</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.232157230377197</c:v>
+                  <c:v>3.226363658905029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.818943023681641</c:v>
+                  <c:v>2.753422975540161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.211020469665527</c:v>
+                  <c:v>2.207057476043701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.154771327972412</c:v>
+                  <c:v>2.150909185409546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.009821891784668</c:v>
+                  <c:v>2.006219387054443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.899487257003784</c:v>
+                  <c:v>1.924156665802002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.808623433113098</c:v>
+                  <c:v>1.896082639694214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.765354871749878</c:v>
+                  <c:v>1.805381536483765</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.462475419044495</c:v>
+                  <c:v>1.762190699577332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4494948387146</c:v>
+                  <c:v>1.459854006767273</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.02979040145874</c:v>
+                  <c:v>1.44689667224884</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.00382924079895</c:v>
+                  <c:v>1.027944564819336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.999502420425415</c:v>
+                  <c:v>0.9977108836174011</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9259459376335144</c:v>
+                  <c:v>0.9242862462997437</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8913311362266541</c:v>
+                  <c:v>0.8897334933280945</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8523895144462585</c:v>
+                  <c:v>0.850861668586731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8480626344680786</c:v>
+                  <c:v>0.8465425372123718</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8480626344680786</c:v>
+                  <c:v>0.8465425372123718</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8221015334129334</c:v>
+                  <c:v>0.8206279873847961</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7983039021492004</c:v>
+                  <c:v>0.7968729734420776</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7528719305992127</c:v>
+                  <c:v>0.7515224814414978</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7269108295440674</c:v>
+                  <c:v>0.7256079316139221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7225840091705322</c:v>
+                  <c:v>0.721288800239563</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7182571291923523</c:v>
+                  <c:v>0.7169697284698486</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6057590246200562</c:v>
+                  <c:v>0.6046732664108276</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.588451623916626</c:v>
+                  <c:v>0.5873968601226807</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.49326092004776</c:v>
+                  <c:v>0.4923768043518066</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4802803695201874</c:v>
+                  <c:v>0.4794194996356964</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4326850175857544</c:v>
+                  <c:v>0.4319094717502594</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4023970663547516</c:v>
+                  <c:v>0.401675820350647</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3807628154754639</c:v>
+                  <c:v>0.3800803422927856</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2855721116065979</c:v>
+                  <c:v>0.2850602567195892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2682647109031677</c:v>
+                  <c:v>0.2677838802337647</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2423036098480225</c:v>
+                  <c:v>0.2418693006038666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2423036098480225</c:v>
+                  <c:v>0.2418693006038666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2379767596721649</c:v>
+                  <c:v>0.237550213932991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2249962091445923</c:v>
+                  <c:v>0.224592924118042</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2249962091445923</c:v>
+                  <c:v>0.224592924118042</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2249962091445923</c:v>
+                  <c:v>0.224592924118042</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2163425087928772</c:v>
+                  <c:v>0.2159547358751297</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2120156586170197</c:v>
+                  <c:v>0.211635634303093</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2076888084411621</c:v>
+                  <c:v>0.2073165476322174</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2033619582653046</c:v>
+                  <c:v>0.2029974460601807</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2033619582653046</c:v>
+                  <c:v>0.2029974460601807</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1860545575618744</c:v>
+                  <c:v>0.1857210695743561</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1557666063308716</c:v>
+                  <c:v>0.1554874032735825</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.142786055803299</c:v>
+                  <c:v>0.1425301283597946</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.142786055803299</c:v>
+                  <c:v>0.1425301283597946</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1384592056274414</c:v>
+                  <c:v>0.1382110267877579</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1298055052757263</c:v>
+                  <c:v>0.1295728385448456</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1298055052757263</c:v>
+                  <c:v>0.1295728385448456</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1211518049240112</c:v>
+                  <c:v>0.1209346503019333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1211518049240112</c:v>
+                  <c:v>0.1209346503019333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1211518049240112</c:v>
+                  <c:v>0.1209346503019333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1081712543964386</c:v>
+                  <c:v>0.1079773679375649</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1038444042205811</c:v>
+                  <c:v>0.1036582738161087</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1038444042205811</c:v>
+                  <c:v>0.1036582738161087</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1038444042205811</c:v>
+                  <c:v>0.1036582738161087</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.09519070386886597</c:v>
+                  <c:v>0.09502008557319641</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.09519070386886597</c:v>
+                  <c:v>0.09502008557319641</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.08653700351715088</c:v>
+                  <c:v>0.08638189733028412</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.08653700351715088</c:v>
+                  <c:v>0.08638189733028412</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.08221015334129334</c:v>
+                  <c:v>0.08206280320882797</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.08221015334129334</c:v>
+                  <c:v>0.08206280320882797</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.07788330316543579</c:v>
+                  <c:v>0.07774370163679123</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.07788330316543579</c:v>
+                  <c:v>0.07774370163679123</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.07788330316543579</c:v>
+                  <c:v>0.07774370163679123</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.07788330316543579</c:v>
+                  <c:v>0.07774370163679123</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0692296028137207</c:v>
+                  <c:v>0.06910551339387894</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.06490275263786316</c:v>
+                  <c:v>0.06478641927242279</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.06490275263786316</c:v>
+                  <c:v>0.06478641927242279</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06057590246200562</c:v>
+                  <c:v>0.06046732515096664</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06057590246200562</c:v>
+                  <c:v>0.06046732515096664</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.05192220211029053</c:v>
+                  <c:v>0.05182913690805435</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.05192220211029053</c:v>
+                  <c:v>0.05182913690805435</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04326850175857544</c:v>
+                  <c:v>0.04319094866514206</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04326850175857544</c:v>
+                  <c:v>0.04319094866514206</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0389416515827179</c:v>
+                  <c:v>0.03887185081839562</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0389416515827179</c:v>
+                  <c:v>0.03887185081839562</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.03461480140686035</c:v>
+                  <c:v>0.03455275669693947</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03028795123100281</c:v>
+                  <c:v>0.03023366257548332</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02163425087928772</c:v>
+                  <c:v>0.02159547433257103</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.02163425087928772</c:v>
+                  <c:v>0.02159547433257103</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01730740070343018</c:v>
+                  <c:v>0.01727637834846973</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01730740070343018</c:v>
+                  <c:v>0.01727637834846973</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.008653700351715088</c:v>
+                  <c:v>0.008638189174234867</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.008653700351715088</c:v>
+                  <c:v>0.008638189174234867</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.008653700351715088</c:v>
+                  <c:v>0.008638189174234867</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.33683776855469</v>
+        <v>37.32668685913086</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.93691062927246</v>
+        <v>27.9293155670166</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
@@ -1745,16 +1745,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.64793300628662</v>
+        <v>11.64476680755615</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>3589</v>
+        <v>3569</v>
       </c>
       <c r="E5" s="1">
-        <v>3564</v>
+        <v>3544</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1771,16 +1771,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.327410697937012</v>
+        <v>9.324875831604004</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
       </c>
       <c r="D6" s="1">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="E6" s="1">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.282088279724121</v>
+        <v>9.27956485748291</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1823,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.066715002059937</v>
+        <v>2.066153049468994</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1849,16 +1849,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.7976794838905335</v>
+        <v>0.7974626421928406</v>
       </c>
       <c r="C9" s="1">
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="E9" s="1">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="F9" s="1">
         <v>645</v>
@@ -1875,16 +1875,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.3625815808773041</v>
+        <v>0.3624829947948456</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1303</v>
+        <v>1275</v>
       </c>
       <c r="E10" s="1">
-        <v>1164</v>
+        <v>1136</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -1901,16 +1901,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2991298139095306</v>
+        <v>0.2990484833717346</v>
       </c>
       <c r="C11" s="1">
         <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>1929</v>
+        <v>1717</v>
       </c>
       <c r="E11" s="1">
-        <v>1896</v>
+        <v>1684</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2900652587413788</v>
+        <v>0.2899864017963409</v>
       </c>
       <c r="C12" s="1">
         <v>32</v>
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.181290790438652</v>
+        <v>0.1812414973974228</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -1979,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.181290790438652</v>
+        <v>0.1812414973974228</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2005,22 +2005,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08158085495233536</v>
+        <v>0.1087449043989182</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>464</v>
+        <v>891</v>
       </c>
       <c r="E15" s="1">
-        <v>444</v>
+        <v>848</v>
       </c>
       <c r="F15" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <v>9</v>
@@ -2031,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.0725163146853447</v>
+        <v>0.07249660044908524</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03625815734267235</v>
+        <v>0.03624830022454262</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2083,7 +2083,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03625815734267235</v>
+        <v>0.03624830022454262</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2109,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03625815734267235</v>
+        <v>0.03624830022454262</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2135,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02719361893832684</v>
+        <v>0.02718622609972954</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2245,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>11.11135196685791</v>
+        <v>11.09143543243408</v>
       </c>
       <c r="C3" s="1">
         <v>5136</v>
@@ -2271,10 +2271,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.891676902770996</v>
+        <v>8.728890419006348</v>
       </c>
       <c r="C4" s="1">
-        <v>4110</v>
+        <v>4042</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>746</v>
       </c>
       <c r="F4" s="1">
-        <v>3364</v>
+        <v>3296</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2297,16 +2297,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>7.764533042907715</v>
+        <v>7.707424640655518</v>
       </c>
       <c r="C5" s="1">
-        <v>3589</v>
+        <v>3569</v>
       </c>
       <c r="D5" s="1">
         <v>1285</v>
       </c>
       <c r="E5" s="1">
-        <v>3564</v>
+        <v>3544</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -2323,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>4.9066481590271</v>
+        <v>4.897853374481201</v>
       </c>
       <c r="C6" s="1">
         <v>2268</v>
@@ -2349,7 +2349,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.599442005157471</v>
+        <v>4.591197490692139</v>
       </c>
       <c r="C7" s="1">
         <v>2126</v>
@@ -2375,7 +2375,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.551846504211426</v>
+        <v>4.54368782043457</v>
       </c>
       <c r="C8" s="1">
         <v>2104</v>
@@ -2401,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.504251003265381</v>
+        <v>4.496177673339844</v>
       </c>
       <c r="C9" s="1">
         <v>2082</v>
@@ -2427,16 +2427,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>4.17324686050415</v>
+        <v>3.707942724227905</v>
       </c>
       <c r="C10" s="1">
-        <v>1929</v>
+        <v>1717</v>
       </c>
       <c r="D10" s="1">
         <v>33</v>
       </c>
       <c r="E10" s="1">
-        <v>1896</v>
+        <v>1684</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3.654025077819824</v>
+        <v>3.656113624572754</v>
       </c>
       <c r="C11" s="1">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="D11" s="1">
         <v>88</v>
       </c>
       <c r="E11" s="1">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="F11" s="1">
         <v>645</v>
@@ -2479,16 +2479,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>3.307877063751221</v>
+        <v>3.258756875991821</v>
       </c>
       <c r="C12" s="1">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="D12" s="1">
         <v>1029</v>
       </c>
       <c r="E12" s="1">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>3.232157230377197</v>
+        <v>3.226363658905029</v>
       </c>
       <c r="C13" s="1">
         <v>1494</v>
@@ -2531,16 +2531,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.818943023681641</v>
+        <v>2.753422975540161</v>
       </c>
       <c r="C14" s="1">
-        <v>1303</v>
+        <v>1275</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1164</v>
+        <v>1136</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
@@ -2557,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.211020469665527</v>
+        <v>2.207057476043701</v>
       </c>
       <c r="C15" s="1">
         <v>1022</v>
@@ -2583,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>2.154771327972412</v>
+        <v>2.150909185409546</v>
       </c>
       <c r="C16" s="1">
         <v>996</v>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>2.009821891784668</v>
+        <v>2.006219387054443</v>
       </c>
       <c r="C17" s="1">
         <v>929</v>
@@ -2632,51 +2632,51 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>1.899487257003784</v>
+        <v>1.924156665802002</v>
       </c>
       <c r="C18" s="1">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>878</v>
+        <v>848</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.808623433113098</v>
+        <v>1.896082639694214</v>
       </c>
       <c r="C19" s="1">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="D19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>816</v>
+        <v>878</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2684,16 +2684,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>1.765354871749878</v>
+        <v>1.805381536483765</v>
       </c>
       <c r="C20" s="1">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>816</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2710,19 +2710,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1.462475419044495</v>
+        <v>1.762190699577332</v>
       </c>
       <c r="C21" s="1">
-        <v>676</v>
+        <v>816</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>676</v>
+        <v>816</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2736,19 +2736,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.4494948387146</v>
+        <v>1.459854006767273</v>
       </c>
       <c r="C22" s="1">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.02979040145874</v>
+        <v>1.44689667224884</v>
       </c>
       <c r="C23" s="1">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2788,28 +2788,28 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.00382924079895</v>
+        <v>1.027944564819336</v>
       </c>
       <c r="C24" s="1">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D24" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="F24" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2817,7 +2817,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.999502420425415</v>
+        <v>0.9977108836174011</v>
       </c>
       <c r="C25" s="1">
         <v>462</v>
@@ -2843,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9259459376335144</v>
+        <v>0.9242862462997437</v>
       </c>
       <c r="C26" s="1">
         <v>428</v>
@@ -2869,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8913311362266541</v>
+        <v>0.8897334933280945</v>
       </c>
       <c r="C27" s="1">
         <v>412</v>
@@ -2895,7 +2895,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8523895144462585</v>
+        <v>0.850861668586731</v>
       </c>
       <c r="C28" s="1">
         <v>394</v>
@@ -2921,7 +2921,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8480626344680786</v>
+        <v>0.8465425372123718</v>
       </c>
       <c r="C29" s="1">
         <v>392</v>
@@ -2947,7 +2947,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8480626344680786</v>
+        <v>0.8465425372123718</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -2973,7 +2973,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8221015334129334</v>
+        <v>0.8206279873847961</v>
       </c>
       <c r="C31" s="1">
         <v>380</v>
@@ -2999,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7983039021492004</v>
+        <v>0.7968729734420776</v>
       </c>
       <c r="C32" s="1">
         <v>369</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7528719305992127</v>
+        <v>0.7515224814414978</v>
       </c>
       <c r="C33" s="1">
         <v>348</v>
@@ -3051,7 +3051,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7269108295440674</v>
+        <v>0.7256079316139221</v>
       </c>
       <c r="C34" s="1">
         <v>336</v>
@@ -3077,7 +3077,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.7225840091705322</v>
+        <v>0.721288800239563</v>
       </c>
       <c r="C35" s="1">
         <v>334</v>
@@ -3103,7 +3103,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.7182571291923523</v>
+        <v>0.7169697284698486</v>
       </c>
       <c r="C36" s="1">
         <v>332</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6057590246200562</v>
+        <v>0.6046732664108276</v>
       </c>
       <c r="C37" s="1">
         <v>280</v>
@@ -3155,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>0.588451623916626</v>
+        <v>0.5873968601226807</v>
       </c>
       <c r="C38" s="1">
         <v>272</v>
@@ -3181,7 +3181,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>0.49326092004776</v>
+        <v>0.4923768043518066</v>
       </c>
       <c r="C39" s="1">
         <v>228</v>
@@ -3207,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4802803695201874</v>
+        <v>0.4794194996356964</v>
       </c>
       <c r="C40" s="1">
         <v>222</v>
@@ -3233,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4326850175857544</v>
+        <v>0.4319094717502594</v>
       </c>
       <c r="C41" s="1">
         <v>200</v>
@@ -3259,7 +3259,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4023970663547516</v>
+        <v>0.401675820350647</v>
       </c>
       <c r="C42" s="1">
         <v>186</v>
@@ -3285,7 +3285,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3807628154754639</v>
+        <v>0.3800803422927856</v>
       </c>
       <c r="C43" s="1">
         <v>176</v>
@@ -3311,7 +3311,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2855721116065979</v>
+        <v>0.2850602567195892</v>
       </c>
       <c r="C44" s="1">
         <v>132</v>
@@ -3337,7 +3337,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2682647109031677</v>
+        <v>0.2677838802337647</v>
       </c>
       <c r="C45" s="1">
         <v>124</v>
@@ -3363,7 +3363,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2423036098480225</v>
+        <v>0.2418693006038666</v>
       </c>
       <c r="C46" s="1">
         <v>112</v>
@@ -3389,7 +3389,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2423036098480225</v>
+        <v>0.2418693006038666</v>
       </c>
       <c r="C47" s="1">
         <v>112</v>
@@ -3415,7 +3415,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2379767596721649</v>
+        <v>0.237550213932991</v>
       </c>
       <c r="C48" s="1">
         <v>110</v>
@@ -3441,7 +3441,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2249962091445923</v>
+        <v>0.224592924118042</v>
       </c>
       <c r="C49" s="1">
         <v>104</v>
@@ -3467,7 +3467,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2249962091445923</v>
+        <v>0.224592924118042</v>
       </c>
       <c r="C50" s="1">
         <v>104</v>
@@ -3493,7 +3493,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2249962091445923</v>
+        <v>0.224592924118042</v>
       </c>
       <c r="C51" s="1">
         <v>104</v>
@@ -3519,7 +3519,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2163425087928772</v>
+        <v>0.2159547358751297</v>
       </c>
       <c r="C52" s="1">
         <v>100</v>
@@ -3545,7 +3545,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2120156586170197</v>
+        <v>0.211635634303093</v>
       </c>
       <c r="C53" s="1">
         <v>98</v>
@@ -3571,7 +3571,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2076888084411621</v>
+        <v>0.2073165476322174</v>
       </c>
       <c r="C54" s="1">
         <v>96</v>
@@ -3597,7 +3597,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2033619582653046</v>
+        <v>0.2029974460601807</v>
       </c>
       <c r="C55" s="1">
         <v>94</v>
@@ -3623,7 +3623,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2033619582653046</v>
+        <v>0.2029974460601807</v>
       </c>
       <c r="C56" s="1">
         <v>94</v>
@@ -3649,7 +3649,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1860545575618744</v>
+        <v>0.1857210695743561</v>
       </c>
       <c r="C57" s="1">
         <v>86</v>
@@ -3675,7 +3675,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1557666063308716</v>
+        <v>0.1554874032735825</v>
       </c>
       <c r="C58" s="1">
         <v>72</v>
@@ -3701,7 +3701,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.142786055803299</v>
+        <v>0.1425301283597946</v>
       </c>
       <c r="C59" s="1">
         <v>66</v>
@@ -3727,7 +3727,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.142786055803299</v>
+        <v>0.1425301283597946</v>
       </c>
       <c r="C60" s="1">
         <v>66</v>
@@ -3753,7 +3753,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1384592056274414</v>
+        <v>0.1382110267877579</v>
       </c>
       <c r="C61" s="1">
         <v>64</v>
@@ -3779,7 +3779,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1298055052757263</v>
+        <v>0.1295728385448456</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3805,7 +3805,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1298055052757263</v>
+        <v>0.1295728385448456</v>
       </c>
       <c r="C63" s="1">
         <v>60</v>
@@ -3831,7 +3831,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1211518049240112</v>
+        <v>0.1209346503019333</v>
       </c>
       <c r="C64" s="1">
         <v>56</v>
@@ -3857,7 +3857,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1211518049240112</v>
+        <v>0.1209346503019333</v>
       </c>
       <c r="C65" s="1">
         <v>56</v>
@@ -3883,7 +3883,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1211518049240112</v>
+        <v>0.1209346503019333</v>
       </c>
       <c r="C66" s="1">
         <v>56</v>
@@ -3909,7 +3909,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1081712543964386</v>
+        <v>0.1079773679375649</v>
       </c>
       <c r="C67" s="1">
         <v>50</v>
@@ -3935,7 +3935,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1038444042205811</v>
+        <v>0.1036582738161087</v>
       </c>
       <c r="C68" s="1">
         <v>48</v>
@@ -3961,7 +3961,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1038444042205811</v>
+        <v>0.1036582738161087</v>
       </c>
       <c r="C69" s="1">
         <v>48</v>
@@ -3987,7 +3987,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1038444042205811</v>
+        <v>0.1036582738161087</v>
       </c>
       <c r="C70" s="1">
         <v>48</v>
@@ -4013,7 +4013,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.09519070386886597</v>
+        <v>0.09502008557319641</v>
       </c>
       <c r="C71" s="1">
         <v>44</v>
@@ -4039,7 +4039,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.09519070386886597</v>
+        <v>0.09502008557319641</v>
       </c>
       <c r="C72" s="1">
         <v>44</v>
@@ -4065,7 +4065,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.08653700351715088</v>
+        <v>0.08638189733028412</v>
       </c>
       <c r="C73" s="1">
         <v>40</v>
@@ -4091,7 +4091,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.08653700351715088</v>
+        <v>0.08638189733028412</v>
       </c>
       <c r="C74" s="1">
         <v>40</v>
@@ -4117,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.08221015334129334</v>
+        <v>0.08206280320882797</v>
       </c>
       <c r="C75" s="1">
         <v>38</v>
@@ -4143,7 +4143,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.08221015334129334</v>
+        <v>0.08206280320882797</v>
       </c>
       <c r="C76" s="1">
         <v>38</v>
@@ -4169,7 +4169,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.07788330316543579</v>
+        <v>0.07774370163679123</v>
       </c>
       <c r="C77" s="1">
         <v>36</v>
@@ -4195,7 +4195,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.07788330316543579</v>
+        <v>0.07774370163679123</v>
       </c>
       <c r="C78" s="1">
         <v>36</v>
@@ -4221,7 +4221,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.07788330316543579</v>
+        <v>0.07774370163679123</v>
       </c>
       <c r="C79" s="1">
         <v>36</v>
@@ -4247,7 +4247,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.07788330316543579</v>
+        <v>0.07774370163679123</v>
       </c>
       <c r="C80" s="1">
         <v>36</v>
@@ -4273,7 +4273,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.0692296028137207</v>
+        <v>0.06910551339387894</v>
       </c>
       <c r="C81" s="1">
         <v>32</v>
@@ -4299,7 +4299,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.06490275263786316</v>
+        <v>0.06478641927242279</v>
       </c>
       <c r="C82" s="1">
         <v>30</v>
@@ -4325,7 +4325,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.06490275263786316</v>
+        <v>0.06478641927242279</v>
       </c>
       <c r="C83" s="1">
         <v>30</v>
@@ -4351,7 +4351,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.06057590246200562</v>
+        <v>0.06046732515096664</v>
       </c>
       <c r="C84" s="1">
         <v>28</v>
@@ -4377,7 +4377,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06057590246200562</v>
+        <v>0.06046732515096664</v>
       </c>
       <c r="C85" s="1">
         <v>28</v>
@@ -4403,7 +4403,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.05192220211029053</v>
+        <v>0.05182913690805435</v>
       </c>
       <c r="C86" s="1">
         <v>24</v>
@@ -4429,7 +4429,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.05192220211029053</v>
+        <v>0.05182913690805435</v>
       </c>
       <c r="C87" s="1">
         <v>24</v>
@@ -4455,7 +4455,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.04326850175857544</v>
+        <v>0.04319094866514206</v>
       </c>
       <c r="C88" s="1">
         <v>20</v>
@@ -4481,7 +4481,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.04326850175857544</v>
+        <v>0.04319094866514206</v>
       </c>
       <c r="C89" s="1">
         <v>20</v>
@@ -4507,7 +4507,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.0389416515827179</v>
+        <v>0.03887185081839562</v>
       </c>
       <c r="C90" s="1">
         <v>18</v>
@@ -4533,7 +4533,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.0389416515827179</v>
+        <v>0.03887185081839562</v>
       </c>
       <c r="C91" s="1">
         <v>18</v>
@@ -4559,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="B92" s="2">
-        <v>0.03461480140686035</v>
+        <v>0.03455275669693947</v>
       </c>
       <c r="C92" s="1">
         <v>16</v>
@@ -4585,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03028795123100281</v>
+        <v>0.03023366257548332</v>
       </c>
       <c r="C93" s="1">
         <v>14</v>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.02163425087928772</v>
+        <v>0.02159547433257103</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
@@ -4637,7 +4637,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.02163425087928772</v>
+        <v>0.02159547433257103</v>
       </c>
       <c r="C95" s="1">
         <v>10</v>
@@ -4663,7 +4663,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.01730740070343018</v>
+        <v>0.01727637834846973</v>
       </c>
       <c r="C96" s="1">
         <v>8</v>
@@ -4689,7 +4689,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.01730740070343018</v>
+        <v>0.01727637834846973</v>
       </c>
       <c r="C97" s="1">
         <v>8</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="B98" s="2">
-        <v>0.008653700351715088</v>
+        <v>0.008638189174234867</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -4741,7 +4741,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>0.008653700351715088</v>
+        <v>0.008638189174234867</v>
       </c>
       <c r="C99" s="1">
         <v>4</v>
@@ -4767,7 +4767,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>0.008653700351715088</v>
+        <v>0.008638189174234867</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>

--- a/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
+++ b/Routine/16-综合示例-动作组/Project/Project_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>Project</t>
   </si>
@@ -77,7 +77,7 @@
     <t>oled.o</t>
   </si>
   <si>
-    <t>printfa.o</t>
+    <t>m_ws.l</t>
   </si>
   <si>
     <t>mf_w.l</t>
@@ -86,12 +86,15 @@
     <t>kinematics.o</t>
   </si>
   <si>
-    <t>m_ws.l</t>
+    <t>protocolconversion.o</t>
   </si>
   <si>
     <t>soft_i2c.o</t>
   </si>
   <si>
+    <t>printf6.o</t>
+  </si>
+  <si>
     <t>scanf_fp.o</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>dmul.o</t>
   </si>
   <si>
+    <t>_scanf_str.o</t>
+  </si>
+  <si>
     <t>ddiv.o</t>
   </si>
   <si>
@@ -149,12 +155,12 @@
     <t>fadd.o</t>
   </si>
   <si>
+    <t>fdiv.o</t>
+  </si>
+  <si>
     <t>global.o</t>
   </si>
   <si>
-    <t>fdiv.o</t>
-  </si>
-  <si>
     <t>stm32f10x_spi.o</t>
   </si>
   <si>
@@ -176,9 +182,6 @@
     <t>fmul.o</t>
   </si>
   <si>
-    <t>uldiv.o</t>
-  </si>
-  <si>
     <t>dcmp4.o</t>
   </si>
   <si>
@@ -221,12 +224,6 @@
     <t>ffixi.o</t>
   </si>
   <si>
-    <t>dfixul.o</t>
-  </si>
-  <si>
-    <t>cdrcmple.o</t>
-  </si>
-  <si>
     <t>gy33t.o</t>
   </si>
   <si>
@@ -263,12 +260,18 @@
     <t>llushr.o</t>
   </si>
   <si>
+    <t>strncmp.o</t>
+  </si>
+  <si>
     <t>llshl.o</t>
   </si>
   <si>
     <t>handlers.o</t>
   </si>
   <si>
+    <t>strcmp.o</t>
+  </si>
+  <si>
     <t>_chval.o</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
     <t>cfcmple.o</t>
   </si>
   <si>
+    <t>strchr.o</t>
+  </si>
+  <si>
     <t>fflti.o</t>
   </si>
   <si>
@@ -294,6 +300,9 @@
   </si>
   <si>
     <t>strlen.o</t>
+  </si>
+  <si>
+    <t>toupper.o</t>
   </si>
   <si>
     <t>ffltui.o</t>
@@ -431,9 +440,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$101</c:f>
+              <c:f>ram_percent!$A$3:$A$104</c:f>
               <c:strCache>
-                <c:ptCount val="99"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>spi_flash.o</c:v>
                 </c:pt>
@@ -488,7 +497,7 @@
                 <c:pt idx="17">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="101">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -496,65 +505,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$101</c:f>
+              <c:f>ram_percent!$B$3:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
-                  <c:v>37.32668685913086</c:v>
+                  <c:v>37.3673210144043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.9293155670166</c:v>
+                  <c:v>27.95972061157227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.64476680755615</c:v>
+                  <c:v>11.65744400024414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.324875831604004</c:v>
+                  <c:v>9.335026741027832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.27956485748291</c:v>
+                  <c:v>9.289667129516602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.066153049468994</c:v>
+                  <c:v>2.068402528762817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7974626421928406</c:v>
+                  <c:v>0.6894674897193909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3624829947948456</c:v>
+                  <c:v>0.3628776073455811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2990484833717346</c:v>
+                  <c:v>0.2993740439414978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2899864017963409</c:v>
+                  <c:v>0.2903020977973938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1812414973974228</c:v>
+                  <c:v>0.1814388036727905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1812414973974228</c:v>
+                  <c:v>0.1814388036727905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1087449043989182</c:v>
+                  <c:v>0.1088632866740227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07249660044908524</c:v>
+                  <c:v>0.07257552444934845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03624830022454262</c:v>
+                  <c:v>0.03628776222467423</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03624830022454262</c:v>
+                  <c:v>0.03628776222467423</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03624830022454262</c:v>
+                  <c:v>0.03628776222467423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02718622609972954</c:v>
-                </c:pt>
-                <c:pt idx="98">
+                  <c:v>0.02721582166850567</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,20 +631,20 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$101</c:f>
+              <c:f>flash_percent!$A$3:$A$104</c:f>
               <c:strCache>
-                <c:ptCount val="99"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
+                  <c:v>oled.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mc_w.l</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>protocol.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>printfa.o</c:v>
+                  <c:v>m_ws.l</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>mf_w.l</c:v>
@@ -644,19 +653,19 @@
                   <c:v>kinematics.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>m_ws.l</c:v>
+                  <c:v>application.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>application.o</c:v>
+                  <c:v>uart.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>protocolconversion.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>app_ps2.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>uart.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>function.o</c:v>
@@ -671,196 +680,196 @@
                   <c:v>spi_flash.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ps2.o</c:v>
+                  <c:v>printf6.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>scanf_fp.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>ps2.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>atan2f.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>stm32f10x_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>stm32f10x_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>joystick.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>stm32f10x_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>action.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>stm32f10x_adc.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>sinf.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>rredf.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>cosf.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>ultrasonic.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>dadd.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>_scanf_int.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
+                  <c:v>_scanf_str.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>fadd.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>fdiv.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>global.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>fdiv.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>stm32f10x_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>misc.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>fepilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>key.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>beep.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>fmul.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>uldiv.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>dcmp4.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>fsqrt.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>sys.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>fmin.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>fmax.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>frnd.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>servopid.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>led.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>ffixi.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>dfixul.o</c:v>
-                </c:pt>
                 <c:pt idx="66">
-                  <c:v>cdrcmple.o</c:v>
+                  <c:v>gy33t.o</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>gy33t.o</c:v>
+                  <c:v>uidiv.o</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>uidiv.o</c:v>
+                  <c:v>sqrtf.o</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>sqrtf.o</c:v>
+                  <c:v>ffixui.o</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>ffixui.o</c:v>
+                  <c:v>scanf_char.o</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>scanf_char.o</c:v>
+                  <c:v>f2d.o</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>f2d.o</c:v>
+                  <c:v>fpclassifyf.o</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>fpclassifyf.o</c:v>
+                  <c:v>memseta.o</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>memseta.o</c:v>
+                  <c:v>memcpya.o</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>memcpya.o</c:v>
+                  <c:v>llsshr.o</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>llsshr.o</c:v>
+                  <c:v>init.o</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>init.o</c:v>
+                  <c:v>llushr.o</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>llushr.o</c:v>
+                  <c:v>strncmp.o</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>llshl.o</c:v>
@@ -869,57 +878,66 @@
                   <c:v>handlers.o</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>strcmp.o</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>funder.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>fscalb.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>dfltul.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>cfrcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>cfcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
+                  <c:v>strchr.o</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>fflti.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
+                  <c:v>toupper.o</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>ffltui.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="95">
                   <c:v>isspace_c.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="96">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="97">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="98">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="99">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="100">
                   <c:v>entry12b.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="101">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -927,305 +945,314 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$101</c:f>
+              <c:f>flash_percent!$B$3:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
-                  <c:v>11.09143543243408</c:v>
+                  <c:v>9.046350479125977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.728890419006348</c:v>
+                  <c:v>8.952351570129395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.707424640655518</c:v>
+                  <c:v>7.853449821472168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.897853374481201</c:v>
+                  <c:v>4.659698963165283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.591197490692139</c:v>
+                  <c:v>4.543318271636963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.54368782043457</c:v>
+                  <c:v>4.037510395050049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.496177673339844</c:v>
+                  <c:v>3.959177255630493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.707942724227905</c:v>
+                  <c:v>3.495893001556397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.656113624572754</c:v>
+                  <c:v>3.413083791732788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.258756875991821</c:v>
+                  <c:v>3.234036922454834</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.226363658905029</c:v>
+                  <c:v>3.046037435531616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.753422975540161</c:v>
+                  <c:v>2.889371395111084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.207057476043701</c:v>
+                  <c:v>2.287325620651245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.150909185409546</c:v>
+                  <c:v>2.229135513305664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.006219387054443</c:v>
+                  <c:v>2.079183578491211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.924156665802002</c:v>
+                  <c:v>2.050088405609131</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.896082639694214</c:v>
+                  <c:v>1.965041041374207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.805381536483765</c:v>
+                  <c:v>1.877755641937256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.762190699577332</c:v>
+                  <c:v>1.871041417121887</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.459854006767273</c:v>
+                  <c:v>1.826279640197754</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.44689667224884</c:v>
+                  <c:v>1.51294732093811</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.027944564819336</c:v>
+                  <c:v>1.499518752098084</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9977108836174011</c:v>
+                  <c:v>1.065329790115356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9242862462997437</c:v>
+                  <c:v>1.03399658203125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8897334933280945</c:v>
+                  <c:v>0.9579015970230103</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.850861668586731</c:v>
+                  <c:v>0.9220921397209168</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8465425372123718</c:v>
+                  <c:v>0.8818066120147705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8465425372123718</c:v>
+                  <c:v>0.8773304224014282</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8206279873847961</c:v>
+                  <c:v>0.8773304224014282</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7968729734420776</c:v>
+                  <c:v>0.8504733443260193</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7515224814414978</c:v>
+                  <c:v>0.8258543610572815</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7256079316139221</c:v>
+                  <c:v>0.7788545489311218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.721288800239563</c:v>
+                  <c:v>0.7519974708557129</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7169697284698486</c:v>
+                  <c:v>0.7475213408470154</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6046732664108276</c:v>
+                  <c:v>0.7430451512336731</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5873968601226807</c:v>
+                  <c:v>0.6266645789146423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4923768043518066</c:v>
+                  <c:v>0.608759880065918</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4794194996356964</c:v>
+                  <c:v>0.5102840065956116</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4319094717502594</c:v>
+                  <c:v>0.5013316869735718</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.401675820350647</c:v>
+                  <c:v>0.4968554973602295</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3800803422927856</c:v>
+                  <c:v>0.4476175606250763</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2850602567195892</c:v>
+                  <c:v>0.4162843227386475</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2677838802337647</c:v>
+                  <c:v>0.3939034342765808</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2418693006038666</c:v>
+                  <c:v>0.2775228917598724</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2418693006038666</c:v>
+                  <c:v>0.264094352722168</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.237550213932991</c:v>
+                  <c:v>0.2506658434867859</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.224592924118042</c:v>
+                  <c:v>0.2506658434867859</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.224592924118042</c:v>
+                  <c:v>0.2461896538734436</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.224592924118042</c:v>
+                  <c:v>0.2327611297369003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2159547358751297</c:v>
+                  <c:v>0.2327611297369003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.211635634303093</c:v>
+                  <c:v>0.2327611297369003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2073165476322174</c:v>
+                  <c:v>0.2238087803125382</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2029974460601807</c:v>
+                  <c:v>0.214856430888176</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2029974460601807</c:v>
+                  <c:v>0.2103802561759949</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1857210695743561</c:v>
+                  <c:v>0.2103802561759949</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1554874032735825</c:v>
+                  <c:v>0.1924755424261093</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1425301283597946</c:v>
+                  <c:v>0.1611423194408417</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1425301283597946</c:v>
+                  <c:v>0.1477137953042984</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1382110267877579</c:v>
+                  <c:v>0.1477137953042984</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1295728385448456</c:v>
+                  <c:v>0.1432376205921173</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1295728385448456</c:v>
+                  <c:v>0.1342852711677551</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1209346503019333</c:v>
+                  <c:v>0.1342852711677551</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1209346503019333</c:v>
+                  <c:v>0.1253329217433929</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1209346503019333</c:v>
+                  <c:v>0.1253329217433929</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1079773679375649</c:v>
+                  <c:v>0.1253329217433929</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1036582738161087</c:v>
+                  <c:v>0.1119043901562691</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1036582738161087</c:v>
+                  <c:v>0.107428215444088</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1036582738161087</c:v>
+                  <c:v>0.0984758585691452</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.09502008557319641</c:v>
+                  <c:v>0.0984758585691452</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.09502008557319641</c:v>
+                  <c:v>0.08952350914478302</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.08638189733028412</c:v>
+                  <c:v>0.08952350914478302</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.08638189733028412</c:v>
+                  <c:v>0.08504733443260193</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.08206280320882797</c:v>
+                  <c:v>0.08504733443260193</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.08206280320882797</c:v>
+                  <c:v>0.08057115972042084</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.07774370163679123</c:v>
+                  <c:v>0.08057115972042084</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.07774370163679123</c:v>
+                  <c:v>0.08057115972042084</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.07774370163679123</c:v>
+                  <c:v>0.08057115972042084</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.07774370163679123</c:v>
+                  <c:v>0.07161881029605866</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.06910551339387894</c:v>
+                  <c:v>0.06714263558387756</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.06478641927242279</c:v>
+                  <c:v>0.06714263558387756</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.06478641927242279</c:v>
+                  <c:v>0.06714263558387756</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06046732515096664</c:v>
+                  <c:v>0.06266646087169647</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06046732515096664</c:v>
+                  <c:v>0.06266646087169647</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.05182913690805435</c:v>
+                  <c:v>0.06266646087169647</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.05182913690805435</c:v>
+                  <c:v>0.05371410772204399</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04319094866514206</c:v>
+                  <c:v>0.05371410772204399</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04319094866514206</c:v>
+                  <c:v>0.04476175457239151</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.03887185081839562</c:v>
+                  <c:v>0.04476175457239151</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.03887185081839562</c:v>
+                  <c:v>0.04476175457239151</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.03455275669693947</c:v>
+                  <c:v>0.04028557986021042</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03023366257548332</c:v>
+                  <c:v>0.04028557986021042</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02159547433257103</c:v>
+                  <c:v>0.03580940514802933</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.02159547433257103</c:v>
+                  <c:v>0.03133323043584824</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01727637834846973</c:v>
+                  <c:v>0.026857053861022</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01727637834846973</c:v>
+                  <c:v>0.02238087728619576</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.008638189174234867</c:v>
+                  <c:v>0.02238087728619576</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.008638189174234867</c:v>
+                  <c:v>0.01790470257401466</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.008638189174234867</c:v>
+                  <c:v>0.01790470257401466</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>0.008952351287007332</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.008952351287007332</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.008952351287007332</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,8 +1357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H101" totalsRowCount="1">
-  <autoFilter ref="A2:H100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H104" totalsRowCount="1">
+  <autoFilter ref="A2:H103"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1347,8 +1374,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H101" totalsRowCount="1">
-  <autoFilter ref="A2:H100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H104" totalsRowCount="1">
+  <autoFilter ref="A2:H103"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1648,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1664,28 +1691,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1693,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.32668685913086</v>
+        <v>37.3673210144043</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1719,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.9293155670166</v>
+        <v>27.95972061157227</v>
       </c>
       <c r="C4" s="1">
         <v>3082</v>
       </c>
       <c r="D4" s="1">
-        <v>1494</v>
+        <v>1562</v>
       </c>
       <c r="E4" s="1">
-        <v>1484</v>
+        <v>1552</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1745,16 +1772,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.64476680755615</v>
+        <v>11.65744400024414</v>
       </c>
       <c r="C5" s="1">
         <v>1285</v>
       </c>
       <c r="D5" s="1">
-        <v>3569</v>
+        <v>3509</v>
       </c>
       <c r="E5" s="1">
-        <v>3544</v>
+        <v>3484</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -1771,16 +1798,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.324875831604004</v>
+        <v>9.335026741027832</v>
       </c>
       <c r="C6" s="1">
         <v>1029</v>
       </c>
       <c r="D6" s="1">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="E6" s="1">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1797,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9.27956485748291</v>
+        <v>9.289667129516602</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1823,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.066153049468994</v>
+        <v>2.068402528762817</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1849,22 +1876,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.7974626421928406</v>
+        <v>0.6894674897193909</v>
       </c>
       <c r="C9" s="1">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>1693</v>
+        <v>1361</v>
       </c>
       <c r="E9" s="1">
-        <v>960</v>
+        <v>648</v>
       </c>
       <c r="F9" s="1">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G9" s="1">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1875,16 +1902,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.3624829947948456</v>
+        <v>0.3628776073455811</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="E10" s="1">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="F10" s="1">
         <v>99</v>
@@ -1901,16 +1928,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2990484833717346</v>
+        <v>0.2993740439414978</v>
       </c>
       <c r="C11" s="1">
         <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>1717</v>
+        <v>1769</v>
       </c>
       <c r="E11" s="1">
-        <v>1684</v>
+        <v>1736</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1927,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2899864017963409</v>
+        <v>0.2903020977973938</v>
       </c>
       <c r="C12" s="1">
         <v>32</v>
@@ -1953,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1812414973974228</v>
+        <v>0.1814388036727905</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -1979,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1812414973974228</v>
+        <v>0.1814388036727905</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -2005,19 +2032,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.1087449043989182</v>
+        <v>0.1088632866740227</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>891</v>
+        <v>839</v>
       </c>
       <c r="E15" s="1">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="F15" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -2031,16 +2058,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07249660044908524</v>
+        <v>0.07257552444934845</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>5136</v>
+        <v>4000</v>
       </c>
       <c r="E16" s="1">
-        <v>5064</v>
+        <v>3928</v>
       </c>
       <c r="F16" s="1">
         <v>64</v>
@@ -2057,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.03624830022454262</v>
+        <v>0.03628776222467423</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2083,7 +2110,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.03624830022454262</v>
+        <v>0.03628776222467423</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2109,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03624830022454262</v>
+        <v>0.03628776222467423</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2135,7 +2162,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02718622609972954</v>
+        <v>0.02721582166850567</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2156,35 +2183,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C101">
+      <c r="C104">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D101">
+      <c r="D104">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E104">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F104">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G104">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H101">
+      <c r="H104">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2200,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2216,51 +2243,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>11.09143543243408</v>
+        <v>9.046350479125977</v>
       </c>
       <c r="C3" s="1">
-        <v>5136</v>
+        <v>4042</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>5064</v>
+        <v>746</v>
       </c>
       <c r="F3" s="1">
-        <v>64</v>
+        <v>3296</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -2268,25 +2295,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>8.728890419006348</v>
+        <v>8.952351570129395</v>
       </c>
       <c r="C4" s="1">
-        <v>4042</v>
+        <v>4000</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>746</v>
+        <v>3928</v>
       </c>
       <c r="F4" s="1">
-        <v>3296</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -2297,16 +2324,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>7.707424640655518</v>
+        <v>7.853449821472168</v>
       </c>
       <c r="C5" s="1">
-        <v>3569</v>
+        <v>3509</v>
       </c>
       <c r="D5" s="1">
         <v>1285</v>
       </c>
       <c r="E5" s="1">
-        <v>3544</v>
+        <v>3484</v>
       </c>
       <c r="F5" s="1">
         <v>24</v>
@@ -2323,19 +2350,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>4.897853374481201</v>
+        <v>4.659698963165283</v>
       </c>
       <c r="C6" s="1">
-        <v>2268</v>
+        <v>2082</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>2268</v>
+        <v>2050</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2349,16 +2376,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.591197490692139</v>
+        <v>4.543318271636963</v>
       </c>
       <c r="C7" s="1">
-        <v>2126</v>
+        <v>2030</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2126</v>
+        <v>2030</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2375,16 +2402,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.54368782043457</v>
+        <v>4.037510395050049</v>
       </c>
       <c r="C8" s="1">
-        <v>2104</v>
+        <v>1804</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1960</v>
+        <v>1660</v>
       </c>
       <c r="F8" s="1">
         <v>144</v>
@@ -2398,25 +2425,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>4.496177673339844</v>
+        <v>3.959177255630493</v>
       </c>
       <c r="C9" s="1">
-        <v>2082</v>
+        <v>1769</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
-        <v>2050</v>
+        <v>1736</v>
       </c>
       <c r="F9" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -2424,51 +2451,51 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>3.707942724227905</v>
+        <v>3.495893001556397</v>
       </c>
       <c r="C10" s="1">
-        <v>1717</v>
+        <v>1562</v>
       </c>
       <c r="D10" s="1">
-        <v>33</v>
+        <v>3082</v>
       </c>
       <c r="E10" s="1">
-        <v>1684</v>
+        <v>1552</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>3.656113624572754</v>
+        <v>3.413083791732788</v>
       </c>
       <c r="C11" s="1">
-        <v>1693</v>
+        <v>1525</v>
       </c>
       <c r="D11" s="1">
-        <v>88</v>
+        <v>1029</v>
       </c>
       <c r="E11" s="1">
-        <v>960</v>
+        <v>496</v>
       </c>
       <c r="F11" s="1">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>88</v>
+        <v>1029</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2476,25 +2503,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>3.258756875991821</v>
+        <v>3.234036922454834</v>
       </c>
       <c r="C12" s="1">
-        <v>1509</v>
+        <v>1445</v>
       </c>
       <c r="D12" s="1">
-        <v>1029</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>480</v>
+        <v>1056</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="G12" s="1">
-        <v>1029</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -2502,28 +2529,28 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
-        <v>3.226363658905029</v>
+        <v>3.046037435531616</v>
       </c>
       <c r="C13" s="1">
-        <v>1494</v>
+        <v>1361</v>
       </c>
       <c r="D13" s="1">
-        <v>3082</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1">
-        <v>1484</v>
+        <v>648</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="G13" s="1">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1">
-        <v>3072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2531,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>2.753422975540161</v>
+        <v>2.889371395111084</v>
       </c>
       <c r="C14" s="1">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="1">
         <v>99</v>
@@ -2557,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2.207057476043701</v>
+        <v>2.287325620651245</v>
       </c>
       <c r="C15" s="1">
         <v>1022</v>
@@ -2583,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>2.150909185409546</v>
+        <v>2.229135513305664</v>
       </c>
       <c r="C16" s="1">
         <v>996</v>
@@ -2609,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>2.006219387054443</v>
+        <v>2.079183578491211</v>
       </c>
       <c r="C17" s="1">
         <v>929</v>
@@ -2632,36 +2659,36 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1.924156665802002</v>
+        <v>2.050088405609131</v>
       </c>
       <c r="C18" s="1">
-        <v>891</v>
+        <v>916</v>
       </c>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>848</v>
+        <v>916</v>
       </c>
       <c r="F18" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1.896082639694214</v>
+        <v>1.965041041374207</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -2684,42 +2711,42 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.877755641937256</v>
+      </c>
+      <c r="C20" s="1">
+        <v>839</v>
+      </c>
+      <c r="D20" s="1">
         <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.805381536483765</v>
-      </c>
-      <c r="C20" s="1">
-        <v>836</v>
-      </c>
-      <c r="D20" s="1">
-        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>816</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>1.762190699577332</v>
+        <v>1.871041417121887</v>
       </c>
       <c r="C21" s="1">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>816</v>
@@ -2728,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2739,16 +2766,16 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.459854006767273</v>
+        <v>1.826279640197754</v>
       </c>
       <c r="C22" s="1">
-        <v>676</v>
+        <v>816</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>676</v>
+        <v>816</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2765,16 +2792,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.44689667224884</v>
+        <v>1.51294732093811</v>
       </c>
       <c r="C23" s="1">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2791,16 +2818,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>1.027944564819336</v>
+        <v>1.499518752098084</v>
       </c>
       <c r="C24" s="1">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2817,16 +2844,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9977108836174011</v>
+        <v>1.065329790115356</v>
       </c>
       <c r="C25" s="1">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2843,16 +2870,16 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9242862462997437</v>
+        <v>1.03399658203125</v>
       </c>
       <c r="C26" s="1">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2866,25 +2893,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8897334933280945</v>
+        <v>0.9579015970230103</v>
       </c>
       <c r="C27" s="1">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D27" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2892,25 +2919,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.9220921397209168</v>
+      </c>
+      <c r="C28" s="1">
+        <v>412</v>
+      </c>
+      <c r="D28" s="1">
         <v>32</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.850861668586731</v>
-      </c>
-      <c r="C28" s="1">
-        <v>394</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
       <c r="E28" s="1">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2921,16 +2948,16 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8465425372123718</v>
+        <v>0.8818066120147705</v>
       </c>
       <c r="C29" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2947,7 +2974,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8465425372123718</v>
+        <v>0.8773304224014282</v>
       </c>
       <c r="C30" s="1">
         <v>392</v>
@@ -2956,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="F30" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2973,19 +3000,19 @@
         <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8206279873847961</v>
+        <v>0.8773304224014282</v>
       </c>
       <c r="C31" s="1">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2996,25 +3023,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7968729734420776</v>
+        <v>0.8504733443260193</v>
       </c>
       <c r="C32" s="1">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -3022,25 +3049,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7515224814414978</v>
+        <v>0.8258543610572815</v>
       </c>
       <c r="C33" s="1">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="D33" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -3048,25 +3075,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7256079316139221</v>
+        <v>0.7788545489311218</v>
       </c>
       <c r="C34" s="1">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3077,16 +3104,16 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.721288800239563</v>
+        <v>0.7519974708557129</v>
       </c>
       <c r="C35" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3103,16 +3130,16 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.7169697284698486</v>
+        <v>0.7475213408470154</v>
       </c>
       <c r="C36" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3129,16 +3156,16 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6046732664108276</v>
+        <v>0.7430451512336731</v>
       </c>
       <c r="C37" s="1">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3152,54 +3179,54 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5873968601226807</v>
+        <v>0.6266645789146423</v>
       </c>
       <c r="C38" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D38" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="F38" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4923768043518066</v>
+        <v>0.608759880065918</v>
       </c>
       <c r="C39" s="1">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E39" s="1">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3207,16 +3234,16 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4794194996356964</v>
+        <v>0.5102840065956116</v>
       </c>
       <c r="C40" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3230,25 +3257,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4319094717502594</v>
+        <v>0.5013316869735718</v>
       </c>
       <c r="C41" s="1">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -3256,19 +3283,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>0.401675820350647</v>
+        <v>0.4968554973602295</v>
       </c>
       <c r="C42" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3282,25 +3309,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3800803422927856</v>
+        <v>0.4476175606250763</v>
       </c>
       <c r="C43" s="1">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -3311,16 +3338,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2850602567195892</v>
+        <v>0.4162843227386475</v>
       </c>
       <c r="C44" s="1">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3337,16 +3364,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2677838802337647</v>
+        <v>0.3939034342765808</v>
       </c>
       <c r="C45" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3363,16 +3390,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2418693006038666</v>
+        <v>0.2775228917598724</v>
       </c>
       <c r="C46" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3389,16 +3416,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2418693006038666</v>
+        <v>0.264094352722168</v>
       </c>
       <c r="C47" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3415,16 +3442,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.237550213932991</v>
+        <v>0.2506658434867859</v>
       </c>
       <c r="C48" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3441,19 +3468,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.224592924118042</v>
+        <v>0.2506658434867859</v>
       </c>
       <c r="C49" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F49" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -3467,16 +3494,16 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.224592924118042</v>
+        <v>0.2461896538734436</v>
       </c>
       <c r="C50" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3493,7 +3520,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.224592924118042</v>
+        <v>0.2327611297369003</v>
       </c>
       <c r="C51" s="1">
         <v>104</v>
@@ -3502,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -3519,16 +3546,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2159547358751297</v>
+        <v>0.2327611297369003</v>
       </c>
       <c r="C52" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3545,16 +3572,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.211635634303093</v>
+        <v>0.2327611297369003</v>
       </c>
       <c r="C53" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3571,16 +3598,16 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2073165476322174</v>
+        <v>0.2238087803125382</v>
       </c>
       <c r="C54" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3597,16 +3624,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2029974460601807</v>
+        <v>0.214856430888176</v>
       </c>
       <c r="C55" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3623,7 +3650,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2029974460601807</v>
+        <v>0.2103802561759949</v>
       </c>
       <c r="C56" s="1">
         <v>94</v>
@@ -3649,16 +3676,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1857210695743561</v>
+        <v>0.2103802561759949</v>
       </c>
       <c r="C57" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3675,16 +3702,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1554874032735825</v>
+        <v>0.1924755424261093</v>
       </c>
       <c r="C58" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3701,16 +3728,16 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1425301283597946</v>
+        <v>0.1611423194408417</v>
       </c>
       <c r="C59" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3727,7 +3754,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1425301283597946</v>
+        <v>0.1477137953042984</v>
       </c>
       <c r="C60" s="1">
         <v>66</v>
@@ -3753,16 +3780,16 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1382110267877579</v>
+        <v>0.1477137953042984</v>
       </c>
       <c r="C61" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3779,16 +3806,16 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1295728385448456</v>
+        <v>0.1432376205921173</v>
       </c>
       <c r="C62" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3805,7 +3832,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1295728385448456</v>
+        <v>0.1342852711677551</v>
       </c>
       <c r="C63" s="1">
         <v>60</v>
@@ -3831,16 +3858,16 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1209346503019333</v>
+        <v>0.1342852711677551</v>
       </c>
       <c r="C64" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3857,7 +3884,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1209346503019333</v>
+        <v>0.1253329217433929</v>
       </c>
       <c r="C65" s="1">
         <v>56</v>
@@ -3883,7 +3910,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1209346503019333</v>
+        <v>0.1253329217433929</v>
       </c>
       <c r="C66" s="1">
         <v>56</v>
@@ -3909,16 +3936,16 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1079773679375649</v>
+        <v>0.1253329217433929</v>
       </c>
       <c r="C67" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3935,16 +3962,16 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1036582738161087</v>
+        <v>0.1119043901562691</v>
       </c>
       <c r="C68" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3961,7 +3988,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1036582738161087</v>
+        <v>0.107428215444088</v>
       </c>
       <c r="C69" s="1">
         <v>48</v>
@@ -3987,16 +4014,16 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1036582738161087</v>
+        <v>0.0984758585691452</v>
       </c>
       <c r="C70" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4013,7 +4040,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.09502008557319641</v>
+        <v>0.0984758585691452</v>
       </c>
       <c r="C71" s="1">
         <v>44</v>
@@ -4039,16 +4066,16 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.09502008557319641</v>
+        <v>0.08952350914478302</v>
       </c>
       <c r="C72" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4065,7 +4092,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.08638189733028412</v>
+        <v>0.08952350914478302</v>
       </c>
       <c r="C73" s="1">
         <v>40</v>
@@ -4091,16 +4118,16 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.08638189733028412</v>
+        <v>0.08504733443260193</v>
       </c>
       <c r="C74" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4117,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.08206280320882797</v>
+        <v>0.08504733443260193</v>
       </c>
       <c r="C75" s="1">
         <v>38</v>
@@ -4143,16 +4170,16 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.08206280320882797</v>
+        <v>0.08057115972042084</v>
       </c>
       <c r="C76" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4169,7 +4196,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.07774370163679123</v>
+        <v>0.08057115972042084</v>
       </c>
       <c r="C77" s="1">
         <v>36</v>
@@ -4195,7 +4222,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.07774370163679123</v>
+        <v>0.08057115972042084</v>
       </c>
       <c r="C78" s="1">
         <v>36</v>
@@ -4221,7 +4248,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.07774370163679123</v>
+        <v>0.08057115972042084</v>
       </c>
       <c r="C79" s="1">
         <v>36</v>
@@ -4247,16 +4274,16 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.07774370163679123</v>
+        <v>0.07161881029605866</v>
       </c>
       <c r="C80" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4273,16 +4300,16 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.06910551339387894</v>
+        <v>0.06714263558387756</v>
       </c>
       <c r="C81" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4299,7 +4326,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.06478641927242279</v>
+        <v>0.06714263558387756</v>
       </c>
       <c r="C82" s="1">
         <v>30</v>
@@ -4325,7 +4352,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.06478641927242279</v>
+        <v>0.06714263558387756</v>
       </c>
       <c r="C83" s="1">
         <v>30</v>
@@ -4351,7 +4378,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.06046732515096664</v>
+        <v>0.06266646087169647</v>
       </c>
       <c r="C84" s="1">
         <v>28</v>
@@ -4377,7 +4404,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06046732515096664</v>
+        <v>0.06266646087169647</v>
       </c>
       <c r="C85" s="1">
         <v>28</v>
@@ -4403,16 +4430,16 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.05182913690805435</v>
+        <v>0.06266646087169647</v>
       </c>
       <c r="C86" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4429,7 +4456,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.05182913690805435</v>
+        <v>0.05371410772204399</v>
       </c>
       <c r="C87" s="1">
         <v>24</v>
@@ -4455,16 +4482,16 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.04319094866514206</v>
+        <v>0.05371410772204399</v>
       </c>
       <c r="C88" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4481,7 +4508,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.04319094866514206</v>
+        <v>0.04476175457239151</v>
       </c>
       <c r="C89" s="1">
         <v>20</v>
@@ -4507,16 +4534,16 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.03887185081839562</v>
+        <v>0.04476175457239151</v>
       </c>
       <c r="C90" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4533,16 +4560,16 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.03887185081839562</v>
+        <v>0.04476175457239151</v>
       </c>
       <c r="C91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4556,25 +4583,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.03455275669693947</v>
+        <v>0.04028557986021042</v>
       </c>
       <c r="C92" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D92" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -4582,19 +4609,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03023366257548332</v>
+        <v>0.04028557986021042</v>
       </c>
       <c r="C93" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -4608,25 +4635,25 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B94" s="2">
-        <v>0.02159547433257103</v>
+        <v>0.03580940514802933</v>
       </c>
       <c r="C94" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -4637,16 +4664,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.02159547433257103</v>
+        <v>0.03133323043584824</v>
       </c>
       <c r="C95" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4663,16 +4690,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.01727637834846973</v>
+        <v>0.026857053861022</v>
       </c>
       <c r="C96" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -4689,16 +4716,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.01727637834846973</v>
+        <v>0.02238087728619576</v>
       </c>
       <c r="C97" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -4712,25 +4739,25 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.008638189174234867</v>
+        <v>0.02238087728619576</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -4738,19 +4765,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.008638189174234867</v>
+        <v>0.01790470257401466</v>
       </c>
       <c r="C99" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -4764,59 +4791,137 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.008638189174234867</v>
+        <v>0.01790470257401466</v>
       </c>
       <c r="C100" s="1">
+        <v>8</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>8</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.008952351287007332</v>
+      </c>
+      <c r="C101" s="1">
         <v>4</v>
       </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
+      <c r="D101" s="1">
         <v>4</v>
       </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B102" s="2">
+        <v>0.008952351287007332</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.008952351287007332</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C101">
+      <c r="C104">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D101">
+      <c r="D104">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E104">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F104">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G104">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H101">
+      <c r="H104">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
